--- a/Scripts/pyThtoBD/test/Outputs/Export_bd/Export_bd.xlsx
+++ b/Scripts/pyThtoBD/test/Outputs/Export_bd/Export_bd.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL27"/>
+  <dimension ref="A1:EV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,121 +513,131 @@
     <col width="20" customWidth="1" min="31" max="31"/>
     <col width="32" customWidth="1" min="32" max="32"/>
     <col width="21" customWidth="1" min="33" max="33"/>
-    <col width="21" customWidth="1" min="34" max="34"/>
-    <col width="19" customWidth="1" min="35" max="35"/>
-    <col width="16" customWidth="1" min="36" max="36"/>
-    <col width="21" customWidth="1" min="37" max="37"/>
-    <col width="24" customWidth="1" min="38" max="38"/>
-    <col width="65" customWidth="1" min="39" max="39"/>
-    <col width="70" customWidth="1" min="40" max="40"/>
-    <col width="15" customWidth="1" min="41" max="41"/>
-    <col width="25" customWidth="1" min="42" max="42"/>
-    <col width="16" customWidth="1" min="43" max="43"/>
-    <col width="19" customWidth="1" min="44" max="44"/>
-    <col width="17" customWidth="1" min="45" max="45"/>
-    <col width="41" customWidth="1" min="46" max="46"/>
-    <col width="34" customWidth="1" min="47" max="47"/>
-    <col width="16" customWidth="1" min="48" max="48"/>
-    <col width="21" customWidth="1" min="49" max="49"/>
-    <col width="24" customWidth="1" min="50" max="50"/>
-    <col width="65" customWidth="1" min="51" max="51"/>
-    <col width="75" customWidth="1" min="52" max="52"/>
-    <col width="15" customWidth="1" min="53" max="53"/>
-    <col width="25" customWidth="1" min="54" max="54"/>
-    <col width="16" customWidth="1" min="55" max="55"/>
-    <col width="19" customWidth="1" min="56" max="56"/>
-    <col width="17" customWidth="1" min="57" max="57"/>
-    <col width="44" customWidth="1" min="58" max="58"/>
+    <col width="66" customWidth="1" min="34" max="34"/>
+    <col width="21" customWidth="1" min="35" max="35"/>
+    <col width="19" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="21" customWidth="1" min="38" max="38"/>
+    <col width="24" customWidth="1" min="39" max="39"/>
+    <col width="65" customWidth="1" min="40" max="40"/>
+    <col width="70" customWidth="1" min="41" max="41"/>
+    <col width="66" customWidth="1" min="42" max="42"/>
+    <col width="15" customWidth="1" min="43" max="43"/>
+    <col width="25" customWidth="1" min="44" max="44"/>
+    <col width="16" customWidth="1" min="45" max="45"/>
+    <col width="19" customWidth="1" min="46" max="46"/>
+    <col width="17" customWidth="1" min="47" max="47"/>
+    <col width="41" customWidth="1" min="48" max="48"/>
+    <col width="34" customWidth="1" min="49" max="49"/>
+    <col width="16" customWidth="1" min="50" max="50"/>
+    <col width="21" customWidth="1" min="51" max="51"/>
+    <col width="24" customWidth="1" min="52" max="52"/>
+    <col width="65" customWidth="1" min="53" max="53"/>
+    <col width="75" customWidth="1" min="54" max="54"/>
+    <col width="66" customWidth="1" min="55" max="55"/>
+    <col width="15" customWidth="1" min="56" max="56"/>
+    <col width="25" customWidth="1" min="57" max="57"/>
+    <col width="16" customWidth="1" min="58" max="58"/>
     <col width="19" customWidth="1" min="59" max="59"/>
-    <col width="16" customWidth="1" min="60" max="60"/>
-    <col width="21" customWidth="1" min="61" max="61"/>
-    <col width="24" customWidth="1" min="62" max="62"/>
-    <col width="67" customWidth="1" min="63" max="63"/>
-    <col width="71" customWidth="1" min="64" max="64"/>
-    <col width="15" customWidth="1" min="65" max="65"/>
-    <col width="25" customWidth="1" min="66" max="66"/>
-    <col width="16" customWidth="1" min="67" max="67"/>
-    <col width="19" customWidth="1" min="68" max="68"/>
-    <col width="17" customWidth="1" min="69" max="69"/>
-    <col width="39" customWidth="1" min="70" max="70"/>
-    <col width="19" customWidth="1" min="71" max="71"/>
-    <col width="16" customWidth="1" min="72" max="72"/>
-    <col width="21" customWidth="1" min="73" max="73"/>
-    <col width="24" customWidth="1" min="74" max="74"/>
-    <col width="67" customWidth="1" min="75" max="75"/>
-    <col width="64" customWidth="1" min="76" max="76"/>
-    <col width="15" customWidth="1" min="77" max="77"/>
-    <col width="25" customWidth="1" min="78" max="78"/>
-    <col width="16" customWidth="1" min="79" max="79"/>
-    <col width="19" customWidth="1" min="80" max="80"/>
-    <col width="17" customWidth="1" min="81" max="81"/>
-    <col width="27" customWidth="1" min="82" max="82"/>
-    <col width="19" customWidth="1" min="83" max="83"/>
+    <col width="17" customWidth="1" min="60" max="60"/>
+    <col width="44" customWidth="1" min="61" max="61"/>
+    <col width="19" customWidth="1" min="62" max="62"/>
+    <col width="16" customWidth="1" min="63" max="63"/>
+    <col width="21" customWidth="1" min="64" max="64"/>
+    <col width="24" customWidth="1" min="65" max="65"/>
+    <col width="67" customWidth="1" min="66" max="66"/>
+    <col width="71" customWidth="1" min="67" max="67"/>
+    <col width="66" customWidth="1" min="68" max="68"/>
+    <col width="15" customWidth="1" min="69" max="69"/>
+    <col width="25" customWidth="1" min="70" max="70"/>
+    <col width="16" customWidth="1" min="71" max="71"/>
+    <col width="19" customWidth="1" min="72" max="72"/>
+    <col width="17" customWidth="1" min="73" max="73"/>
+    <col width="39" customWidth="1" min="74" max="74"/>
+    <col width="19" customWidth="1" min="75" max="75"/>
+    <col width="16" customWidth="1" min="76" max="76"/>
+    <col width="21" customWidth="1" min="77" max="77"/>
+    <col width="24" customWidth="1" min="78" max="78"/>
+    <col width="67" customWidth="1" min="79" max="79"/>
+    <col width="64" customWidth="1" min="80" max="80"/>
+    <col width="66" customWidth="1" min="81" max="81"/>
+    <col width="15" customWidth="1" min="82" max="82"/>
+    <col width="25" customWidth="1" min="83" max="83"/>
     <col width="16" customWidth="1" min="84" max="84"/>
-    <col width="21" customWidth="1" min="85" max="85"/>
-    <col width="24" customWidth="1" min="86" max="86"/>
-    <col width="57" customWidth="1" min="87" max="87"/>
-    <col width="73" customWidth="1" min="88" max="88"/>
-    <col width="15" customWidth="1" min="89" max="89"/>
-    <col width="25" customWidth="1" min="90" max="90"/>
-    <col width="16" customWidth="1" min="91" max="91"/>
-    <col width="19" customWidth="1" min="92" max="92"/>
-    <col width="17" customWidth="1" min="93" max="93"/>
-    <col width="21" customWidth="1" min="94" max="94"/>
-    <col width="19" customWidth="1" min="95" max="95"/>
-    <col width="16" customWidth="1" min="96" max="96"/>
-    <col width="21" customWidth="1" min="97" max="97"/>
-    <col width="24" customWidth="1" min="98" max="98"/>
-    <col width="46" customWidth="1" min="99" max="99"/>
-    <col width="67" customWidth="1" min="100" max="100"/>
-    <col width="15" customWidth="1" min="101" max="101"/>
-    <col width="25" customWidth="1" min="102" max="102"/>
-    <col width="16" customWidth="1" min="103" max="103"/>
-    <col width="19" customWidth="1" min="104" max="104"/>
-    <col width="17" customWidth="1" min="105" max="105"/>
-    <col width="27" customWidth="1" min="106" max="106"/>
-    <col width="19" customWidth="1" min="107" max="107"/>
-    <col width="16" customWidth="1" min="108" max="108"/>
-    <col width="21" customWidth="1" min="109" max="109"/>
-    <col width="24" customWidth="1" min="110" max="110"/>
-    <col width="51" customWidth="1" min="111" max="111"/>
-    <col width="59" customWidth="1" min="112" max="112"/>
-    <col width="15" customWidth="1" min="113" max="113"/>
-    <col width="25" customWidth="1" min="114" max="114"/>
+    <col width="19" customWidth="1" min="85" max="85"/>
+    <col width="17" customWidth="1" min="86" max="86"/>
+    <col width="27" customWidth="1" min="87" max="87"/>
+    <col width="19" customWidth="1" min="88" max="88"/>
+    <col width="16" customWidth="1" min="89" max="89"/>
+    <col width="21" customWidth="1" min="90" max="90"/>
+    <col width="24" customWidth="1" min="91" max="91"/>
+    <col width="57" customWidth="1" min="92" max="92"/>
+    <col width="73" customWidth="1" min="93" max="93"/>
+    <col width="66" customWidth="1" min="94" max="94"/>
+    <col width="15" customWidth="1" min="95" max="95"/>
+    <col width="25" customWidth="1" min="96" max="96"/>
+    <col width="16" customWidth="1" min="97" max="97"/>
+    <col width="19" customWidth="1" min="98" max="98"/>
+    <col width="17" customWidth="1" min="99" max="99"/>
+    <col width="21" customWidth="1" min="100" max="100"/>
+    <col width="19" customWidth="1" min="101" max="101"/>
+    <col width="16" customWidth="1" min="102" max="102"/>
+    <col width="21" customWidth="1" min="103" max="103"/>
+    <col width="24" customWidth="1" min="104" max="104"/>
+    <col width="46" customWidth="1" min="105" max="105"/>
+    <col width="67" customWidth="1" min="106" max="106"/>
+    <col width="66" customWidth="1" min="107" max="107"/>
+    <col width="15" customWidth="1" min="108" max="108"/>
+    <col width="25" customWidth="1" min="109" max="109"/>
+    <col width="16" customWidth="1" min="110" max="110"/>
+    <col width="19" customWidth="1" min="111" max="111"/>
+    <col width="17" customWidth="1" min="112" max="112"/>
+    <col width="27" customWidth="1" min="113" max="113"/>
+    <col width="19" customWidth="1" min="114" max="114"/>
     <col width="16" customWidth="1" min="115" max="115"/>
-    <col width="19" customWidth="1" min="116" max="116"/>
-    <col width="17" customWidth="1" min="117" max="117"/>
-    <col width="18" customWidth="1" min="118" max="118"/>
-    <col width="19" customWidth="1" min="119" max="119"/>
-    <col width="16" customWidth="1" min="120" max="120"/>
-    <col width="21" customWidth="1" min="121" max="121"/>
-    <col width="24" customWidth="1" min="122" max="122"/>
-    <col width="51" customWidth="1" min="123" max="123"/>
-    <col width="53" customWidth="1" min="124" max="124"/>
-    <col width="15" customWidth="1" min="125" max="125"/>
-    <col width="25" customWidth="1" min="126" max="126"/>
-    <col width="16" customWidth="1" min="127" max="127"/>
-    <col width="19" customWidth="1" min="128" max="128"/>
-    <col width="17" customWidth="1" min="129" max="129"/>
-    <col width="18" customWidth="1" min="130" max="130"/>
-    <col width="19" customWidth="1" min="131" max="131"/>
-    <col width="16" customWidth="1" min="132" max="132"/>
-    <col width="21" customWidth="1" min="133" max="133"/>
-    <col width="24" customWidth="1" min="134" max="134"/>
-    <col width="40" customWidth="1" min="135" max="135"/>
-    <col width="53" customWidth="1" min="136" max="136"/>
-    <col width="15" customWidth="1" min="137" max="137"/>
-    <col width="25" customWidth="1" min="138" max="138"/>
-    <col width="16" customWidth="1" min="139" max="139"/>
+    <col width="21" customWidth="1" min="116" max="116"/>
+    <col width="24" customWidth="1" min="117" max="117"/>
+    <col width="51" customWidth="1" min="118" max="118"/>
+    <col width="59" customWidth="1" min="119" max="119"/>
+    <col width="66" customWidth="1" min="120" max="120"/>
+    <col width="15" customWidth="1" min="121" max="121"/>
+    <col width="25" customWidth="1" min="122" max="122"/>
+    <col width="16" customWidth="1" min="123" max="123"/>
+    <col width="19" customWidth="1" min="124" max="124"/>
+    <col width="17" customWidth="1" min="125" max="125"/>
+    <col width="18" customWidth="1" min="126" max="126"/>
+    <col width="19" customWidth="1" min="127" max="127"/>
+    <col width="16" customWidth="1" min="128" max="128"/>
+    <col width="21" customWidth="1" min="129" max="129"/>
+    <col width="24" customWidth="1" min="130" max="130"/>
+    <col width="51" customWidth="1" min="131" max="131"/>
+    <col width="53" customWidth="1" min="132" max="132"/>
+    <col width="66" customWidth="1" min="133" max="133"/>
+    <col width="15" customWidth="1" min="134" max="134"/>
+    <col width="25" customWidth="1" min="135" max="135"/>
+    <col width="16" customWidth="1" min="136" max="136"/>
+    <col width="19" customWidth="1" min="137" max="137"/>
+    <col width="17" customWidth="1" min="138" max="138"/>
+    <col width="18" customWidth="1" min="139" max="139"/>
     <col width="19" customWidth="1" min="140" max="140"/>
-    <col width="17" customWidth="1" min="141" max="141"/>
+    <col width="16" customWidth="1" min="141" max="141"/>
     <col width="21" customWidth="1" min="142" max="142"/>
+    <col width="24" customWidth="1" min="143" max="143"/>
+    <col width="40" customWidth="1" min="144" max="144"/>
+    <col width="53" customWidth="1" min="145" max="145"/>
+    <col width="66" customWidth="1" min="146" max="146"/>
+    <col width="15" customWidth="1" min="147" max="147"/>
+    <col width="25" customWidth="1" min="148" max="148"/>
+    <col width="16" customWidth="1" min="149" max="149"/>
+    <col width="19" customWidth="1" min="150" max="150"/>
+    <col width="17" customWidth="1" min="151" max="151"/>
+    <col width="21" customWidth="1" min="152" max="152"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Tableau d'échange Therion - Karsteau, base : [BD-Test], mise à jour le : 2025-05-05 10:16:05</t>
+          <t>Tableau d'échange Therion - Karsteau, base : [test], mise à jour le : 2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -771,6 +781,16 @@
       <c r="EJ1" s="2" t="n"/>
       <c r="EK1" s="2" t="n"/>
       <c r="EL1" s="2" t="n"/>
+      <c r="EM1" s="2" t="n"/>
+      <c r="EN1" s="2" t="n"/>
+      <c r="EO1" s="2" t="n"/>
+      <c r="EP1" s="2" t="n"/>
+      <c r="EQ1" s="2" t="n"/>
+      <c r="ER1" s="2" t="n"/>
+      <c r="ES1" s="2" t="n"/>
+      <c r="ET1" s="2" t="n"/>
+      <c r="EU1" s="2" t="n"/>
+      <c r="EV1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -940,545 +960,595 @@
       </c>
       <c r="AH2" s="3" t="inlineStr">
         <is>
+          <t>CAVITE_HASH_SQL_FILE</t>
+        </is>
+      </c>
+      <c r="AI2" s="3" t="inlineStr">
+        <is>
           <t>CAVITE_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="AI2" s="3" t="inlineStr">
+      <c r="AJ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_AUTEUR</t>
         </is>
       </c>
-      <c r="AJ2" s="3" t="inlineStr">
+      <c r="AK2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_CAT</t>
         </is>
       </c>
-      <c r="AK2" s="3" t="inlineStr">
+      <c r="AL2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_DATE</t>
         </is>
       </c>
-      <c r="AL2" s="3" t="inlineStr">
+      <c r="AM2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="AM2" s="3" t="inlineStr">
+      <c r="AN2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_DESCRIPTION</t>
         </is>
       </c>
-      <c r="AN2" s="3" t="inlineStr">
+      <c r="AO2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_FILE</t>
         </is>
       </c>
-      <c r="AO2" s="3" t="inlineStr">
+      <c r="AP2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_1_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="AQ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_ID</t>
         </is>
       </c>
-      <c r="AP2" s="3" t="inlineStr">
+      <c r="AR2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="AQ2" s="3" t="inlineStr">
+      <c r="AS2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_LIE</t>
         </is>
       </c>
-      <c r="AR2" s="3" t="inlineStr">
+      <c r="AT2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_NATURE</t>
         </is>
       </c>
-      <c r="AS2" s="3" t="inlineStr">
+      <c r="AU2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_TEXT</t>
         </is>
       </c>
-      <c r="AT2" s="3" t="inlineStr">
+      <c r="AV2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_1_TITRE</t>
         </is>
       </c>
-      <c r="AU2" s="3" t="inlineStr">
+      <c r="AW2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_AUTEUR</t>
         </is>
       </c>
-      <c r="AV2" s="3" t="inlineStr">
+      <c r="AX2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_CAT</t>
         </is>
       </c>
-      <c r="AW2" s="3" t="inlineStr">
+      <c r="AY2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_DATE</t>
         </is>
       </c>
-      <c r="AX2" s="3" t="inlineStr">
+      <c r="AZ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="AY2" s="3" t="inlineStr">
+      <c r="BA2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_DESCRIPTION</t>
         </is>
       </c>
-      <c r="AZ2" s="3" t="inlineStr">
+      <c r="BB2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_FILE</t>
         </is>
       </c>
-      <c r="BA2" s="3" t="inlineStr">
+      <c r="BC2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_2_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="BD2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_ID</t>
         </is>
       </c>
-      <c r="BB2" s="3" t="inlineStr">
+      <c r="BE2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="BC2" s="3" t="inlineStr">
+      <c r="BF2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_LIE</t>
         </is>
       </c>
-      <c r="BD2" s="3" t="inlineStr">
+      <c r="BG2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_NATURE</t>
         </is>
       </c>
-      <c r="BE2" s="3" t="inlineStr">
+      <c r="BH2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_TEXT</t>
         </is>
       </c>
-      <c r="BF2" s="3" t="inlineStr">
+      <c r="BI2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_2_TITRE</t>
         </is>
       </c>
-      <c r="BG2" s="3" t="inlineStr">
+      <c r="BJ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_AUTEUR</t>
         </is>
       </c>
-      <c r="BH2" s="3" t="inlineStr">
+      <c r="BK2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_CAT</t>
         </is>
       </c>
-      <c r="BI2" s="3" t="inlineStr">
+      <c r="BL2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_DATE</t>
         </is>
       </c>
-      <c r="BJ2" s="3" t="inlineStr">
+      <c r="BM2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="BK2" s="3" t="inlineStr">
+      <c r="BN2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_DESCRIPTION</t>
         </is>
       </c>
-      <c r="BL2" s="3" t="inlineStr">
+      <c r="BO2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_FILE</t>
         </is>
       </c>
-      <c r="BM2" s="3" t="inlineStr">
+      <c r="BP2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_3_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="BQ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_ID</t>
         </is>
       </c>
-      <c r="BN2" s="3" t="inlineStr">
+      <c r="BR2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="BO2" s="3" t="inlineStr">
+      <c r="BS2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_LIE</t>
         </is>
       </c>
-      <c r="BP2" s="3" t="inlineStr">
+      <c r="BT2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_NATURE</t>
         </is>
       </c>
-      <c r="BQ2" s="3" t="inlineStr">
+      <c r="BU2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_TEXT</t>
         </is>
       </c>
-      <c r="BR2" s="3" t="inlineStr">
+      <c r="BV2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_3_TITRE</t>
         </is>
       </c>
-      <c r="BS2" s="3" t="inlineStr">
+      <c r="BW2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_AUTEUR</t>
         </is>
       </c>
-      <c r="BT2" s="3" t="inlineStr">
+      <c r="BX2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_CAT</t>
         </is>
       </c>
-      <c r="BU2" s="3" t="inlineStr">
+      <c r="BY2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_DATE</t>
         </is>
       </c>
-      <c r="BV2" s="3" t="inlineStr">
+      <c r="BZ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="BW2" s="3" t="inlineStr">
+      <c r="CA2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_DESCRIPTION</t>
         </is>
       </c>
-      <c r="BX2" s="3" t="inlineStr">
+      <c r="CB2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_FILE</t>
         </is>
       </c>
-      <c r="BY2" s="3" t="inlineStr">
+      <c r="CC2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_4_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="CD2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_ID</t>
         </is>
       </c>
-      <c r="BZ2" s="3" t="inlineStr">
+      <c r="CE2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="CA2" s="3" t="inlineStr">
+      <c r="CF2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_LIE</t>
         </is>
       </c>
-      <c r="CB2" s="3" t="inlineStr">
+      <c r="CG2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_NATURE</t>
         </is>
       </c>
-      <c r="CC2" s="3" t="inlineStr">
+      <c r="CH2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_TEXT</t>
         </is>
       </c>
-      <c r="CD2" s="3" t="inlineStr">
+      <c r="CI2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_4_TITRE</t>
         </is>
       </c>
-      <c r="CE2" s="3" t="inlineStr">
+      <c r="CJ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_AUTEUR</t>
         </is>
       </c>
-      <c r="CF2" s="3" t="inlineStr">
+      <c r="CK2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_CAT</t>
         </is>
       </c>
-      <c r="CG2" s="3" t="inlineStr">
+      <c r="CL2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_DATE</t>
         </is>
       </c>
-      <c r="CH2" s="3" t="inlineStr">
+      <c r="CM2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="CI2" s="3" t="inlineStr">
+      <c r="CN2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_DESCRIPTION</t>
         </is>
       </c>
-      <c r="CJ2" s="3" t="inlineStr">
+      <c r="CO2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_FILE</t>
         </is>
       </c>
-      <c r="CK2" s="3" t="inlineStr">
+      <c r="CP2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_5_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="CQ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_ID</t>
         </is>
       </c>
-      <c r="CL2" s="3" t="inlineStr">
+      <c r="CR2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="CM2" s="3" t="inlineStr">
+      <c r="CS2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_LIE</t>
         </is>
       </c>
-      <c r="CN2" s="3" t="inlineStr">
+      <c r="CT2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_NATURE</t>
         </is>
       </c>
-      <c r="CO2" s="3" t="inlineStr">
+      <c r="CU2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_TEXT</t>
         </is>
       </c>
-      <c r="CP2" s="3" t="inlineStr">
+      <c r="CV2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_5_TITRE</t>
         </is>
       </c>
-      <c r="CQ2" s="3" t="inlineStr">
+      <c r="CW2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_AUTEUR</t>
         </is>
       </c>
-      <c r="CR2" s="3" t="inlineStr">
+      <c r="CX2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_CAT</t>
         </is>
       </c>
-      <c r="CS2" s="3" t="inlineStr">
+      <c r="CY2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_DATE</t>
         </is>
       </c>
-      <c r="CT2" s="3" t="inlineStr">
+      <c r="CZ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="CU2" s="3" t="inlineStr">
+      <c r="DA2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_DESCRIPTION</t>
         </is>
       </c>
-      <c r="CV2" s="3" t="inlineStr">
+      <c r="DB2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_FILE</t>
         </is>
       </c>
-      <c r="CW2" s="3" t="inlineStr">
+      <c r="DC2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_6_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="DD2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_ID</t>
         </is>
       </c>
-      <c r="CX2" s="3" t="inlineStr">
+      <c r="DE2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="CY2" s="3" t="inlineStr">
+      <c r="DF2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_LIE</t>
         </is>
       </c>
-      <c r="CZ2" s="3" t="inlineStr">
+      <c r="DG2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_NATURE</t>
         </is>
       </c>
-      <c r="DA2" s="3" t="inlineStr">
+      <c r="DH2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_TEXT</t>
         </is>
       </c>
-      <c r="DB2" s="3" t="inlineStr">
+      <c r="DI2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_6_TITRE</t>
         </is>
       </c>
-      <c r="DC2" s="3" t="inlineStr">
+      <c r="DJ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_AUTEUR</t>
         </is>
       </c>
-      <c r="DD2" s="3" t="inlineStr">
+      <c r="DK2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_CAT</t>
         </is>
       </c>
-      <c r="DE2" s="3" t="inlineStr">
+      <c r="DL2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_DATE</t>
         </is>
       </c>
-      <c r="DF2" s="3" t="inlineStr">
+      <c r="DM2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="DG2" s="3" t="inlineStr">
+      <c r="DN2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_DESCRIPTION</t>
         </is>
       </c>
-      <c r="DH2" s="3" t="inlineStr">
+      <c r="DO2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_FILE</t>
         </is>
       </c>
-      <c r="DI2" s="3" t="inlineStr">
+      <c r="DP2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_7_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="DQ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_ID</t>
         </is>
       </c>
-      <c r="DJ2" s="3" t="inlineStr">
+      <c r="DR2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="DK2" s="3" t="inlineStr">
+      <c r="DS2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_LIE</t>
         </is>
       </c>
-      <c r="DL2" s="3" t="inlineStr">
+      <c r="DT2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_NATURE</t>
         </is>
       </c>
-      <c r="DM2" s="3" t="inlineStr">
+      <c r="DU2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_TEXT</t>
         </is>
       </c>
-      <c r="DN2" s="3" t="inlineStr">
+      <c r="DV2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_7_TITRE</t>
         </is>
       </c>
-      <c r="DO2" s="3" t="inlineStr">
+      <c r="DW2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_AUTEUR</t>
         </is>
       </c>
-      <c r="DP2" s="3" t="inlineStr">
+      <c r="DX2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_CAT</t>
         </is>
       </c>
-      <c r="DQ2" s="3" t="inlineStr">
+      <c r="DY2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_DATE</t>
         </is>
       </c>
-      <c r="DR2" s="3" t="inlineStr">
+      <c r="DZ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="DS2" s="3" t="inlineStr">
+      <c r="EA2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_DESCRIPTION</t>
         </is>
       </c>
-      <c r="DT2" s="3" t="inlineStr">
+      <c r="EB2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_FILE</t>
         </is>
       </c>
-      <c r="DU2" s="3" t="inlineStr">
+      <c r="EC2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_8_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="ED2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_ID</t>
         </is>
       </c>
-      <c r="DV2" s="3" t="inlineStr">
+      <c r="EE2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="DW2" s="3" t="inlineStr">
+      <c r="EF2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_LIE</t>
         </is>
       </c>
-      <c r="DX2" s="3" t="inlineStr">
+      <c r="EG2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_NATURE</t>
         </is>
       </c>
-      <c r="DY2" s="3" t="inlineStr">
+      <c r="EH2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_TEXT</t>
         </is>
       </c>
-      <c r="DZ2" s="3" t="inlineStr">
+      <c r="EI2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_8_TITRE</t>
         </is>
       </c>
-      <c r="EA2" s="3" t="inlineStr">
+      <c r="EJ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_AUTEUR</t>
         </is>
       </c>
-      <c r="EB2" s="3" t="inlineStr">
+      <c r="EK2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_CAT</t>
         </is>
       </c>
-      <c r="EC2" s="3" t="inlineStr">
+      <c r="EL2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_DATE</t>
         </is>
       </c>
-      <c r="ED2" s="3" t="inlineStr">
+      <c r="EM2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_DATE_UPDATE</t>
         </is>
       </c>
-      <c r="EE2" s="3" t="inlineStr">
+      <c r="EN2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_DESCRIPTION</t>
         </is>
       </c>
-      <c r="EF2" s="3" t="inlineStr">
+      <c r="EO2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_FILE</t>
         </is>
       </c>
-      <c r="EG2" s="3" t="inlineStr">
+      <c r="EP2" s="3" t="inlineStr">
+        <is>
+          <t>DOCUMENT_9_HASH_FILE</t>
+        </is>
+      </c>
+      <c r="EQ2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_ID</t>
         </is>
       </c>
-      <c r="EH2" s="3" t="inlineStr">
+      <c r="ER2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_KEY_KARSTEAU</t>
         </is>
       </c>
-      <c r="EI2" s="3" t="inlineStr">
+      <c r="ES2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_LIE</t>
         </is>
       </c>
-      <c r="EJ2" s="3" t="inlineStr">
+      <c r="ET2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_NATURE</t>
         </is>
       </c>
-      <c r="EK2" s="3" t="inlineStr">
+      <c r="EU2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_TEXT</t>
         </is>
       </c>
-      <c r="EL2" s="3" t="inlineStr">
+      <c r="EV2" s="3" t="inlineStr">
         <is>
           <t>DOCUMENT_9_TITRE</t>
         </is>
@@ -1543,7 +1613,7 @@
       <c r="V3" s="6" t="inlineStr"/>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X3" s="4" t="n">
@@ -1574,225 +1644,251 @@
       <c r="AG3" s="6" t="inlineStr"/>
       <c r="AH3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
-        </is>
-      </c>
-      <c r="AI3" s="8" t="inlineStr">
+          <t>67659023fa0b9f7849c9c013c83096c73b3e690677fc1af42b7fbea7ff2c08e3</t>
+        </is>
+      </c>
+      <c r="AI3" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ3" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AJ3" s="8" t="n">
+      <c r="AK3" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="AK3" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AL3" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM3" s="8" t="inlineStr">
+      <c r="AL3" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AM3" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN3" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Karabulak Gypsum Collapses au format google earth</t>
         </is>
       </c>
-      <c r="AN3" s="8" t="inlineStr">
+      <c r="AO3" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Cenotes_check-point/Outputs/Cenotes_check-point-model.kml</t>
         </is>
       </c>
-      <c r="AO3" s="4" t="n">
+      <c r="AP3" s="4" t="inlineStr">
+        <is>
+          <t>b5836643dc42b4774ee78431af4cbe5e65cd63bc1352cb77d00f6ec255faa8b4</t>
+        </is>
+      </c>
+      <c r="AQ3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AP3" s="6" t="inlineStr"/>
-      <c r="AQ3" s="8" t="inlineStr">
+      <c r="AR3" s="6" t="inlineStr"/>
+      <c r="AS3" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR3" s="8" t="inlineStr">
+      <c r="AT3" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="AS3" s="8" t="inlineStr"/>
-      <c r="AT3" s="8" t="inlineStr">
+      <c r="AU3" s="8" t="inlineStr"/>
+      <c r="AV3" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="AU3" s="8" t="inlineStr">
+      <c r="AW3" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AV3" s="8" t="n">
+      <c r="AX3" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="AW3" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AX3" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY3" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AZ3" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA3" s="8" t="inlineStr">
+        <is>
           <t>Polygonale de Karabulak Gypsum Collapses au format google earth</t>
         </is>
       </c>
-      <c r="AZ3" s="8" t="inlineStr">
+      <c r="BB3" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Cenotes_check-point/Outputs/Cenotes_check-point.kml</t>
         </is>
       </c>
-      <c r="BA3" s="4" t="n">
+      <c r="BC3" s="4" t="inlineStr">
+        <is>
+          <t>66b6be3f04954037d73bdc4335c044ebe0329332c5c8a04753e3f0a53c7182c4</t>
+        </is>
+      </c>
+      <c r="BD3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="BB3" s="6" t="inlineStr"/>
-      <c r="BC3" s="8" t="inlineStr">
+      <c r="BE3" s="6" t="inlineStr"/>
+      <c r="BF3" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD3" s="8" t="inlineStr">
+      <c r="BG3" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BE3" s="8" t="inlineStr"/>
-      <c r="BF3" s="8" t="inlineStr">
+      <c r="BH3" s="8" t="inlineStr"/>
+      <c r="BI3" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BG3" s="8" t="inlineStr">
+      <c r="BJ3" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH3" s="8" t="n">
+      <c r="BK3" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="BI3" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ3" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK3" s="8" t="inlineStr">
+      <c r="BL3" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM3" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN3" s="8" t="inlineStr">
         <is>
           <t>Topo de Karabulak Gypsum Collapses au format Therion</t>
         </is>
       </c>
-      <c r="BL3" s="8" t="inlineStr">
+      <c r="BO3" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Cenotes_check-point/Outputs/Karabulak Gypsum Collapses.zip</t>
         </is>
       </c>
-      <c r="BM3" s="4" t="n">
+      <c r="BP3" s="4" t="inlineStr">
+        <is>
+          <t>752554b679936f7a1e505f0e04f1d0d65b02101536cc1f6309ecc480c44a9483</t>
+        </is>
+      </c>
+      <c r="BQ3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="BN3" s="6" t="inlineStr"/>
-      <c r="BO3" s="8" t="inlineStr">
+      <c r="BR3" s="6" t="inlineStr"/>
+      <c r="BS3" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP3" s="8" t="inlineStr">
+      <c r="BT3" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="BQ3" s="8" t="inlineStr"/>
-      <c r="BR3" s="8" t="inlineStr">
+      <c r="BU3" s="8" t="inlineStr"/>
+      <c r="BV3" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="BS3" s="8" t="inlineStr"/>
-      <c r="BT3" s="8" t="inlineStr"/>
-      <c r="BU3" s="8" t="inlineStr"/>
-      <c r="BV3" s="4" t="inlineStr"/>
       <c r="BW3" s="8" t="inlineStr"/>
       <c r="BX3" s="8" t="inlineStr"/>
-      <c r="BY3" s="4" t="inlineStr"/>
-      <c r="BZ3" s="6" t="inlineStr"/>
+      <c r="BY3" s="8" t="inlineStr"/>
+      <c r="BZ3" s="4" t="inlineStr"/>
       <c r="CA3" s="8" t="inlineStr"/>
       <c r="CB3" s="8" t="inlineStr"/>
-      <c r="CC3" s="8" t="inlineStr"/>
-      <c r="CD3" s="8" t="inlineStr"/>
-      <c r="CE3" s="8" t="inlineStr"/>
+      <c r="CC3" s="4" t="inlineStr"/>
+      <c r="CD3" s="4" t="inlineStr"/>
+      <c r="CE3" s="6" t="inlineStr"/>
       <c r="CF3" s="8" t="inlineStr"/>
       <c r="CG3" s="8" t="inlineStr"/>
-      <c r="CH3" s="4" t="inlineStr"/>
+      <c r="CH3" s="8" t="inlineStr"/>
       <c r="CI3" s="8" t="inlineStr"/>
       <c r="CJ3" s="8" t="inlineStr"/>
-      <c r="CK3" s="4" t="inlineStr"/>
-      <c r="CL3" s="6" t="inlineStr"/>
-      <c r="CM3" s="8" t="inlineStr"/>
+      <c r="CK3" s="8" t="inlineStr"/>
+      <c r="CL3" s="8" t="inlineStr"/>
+      <c r="CM3" s="4" t="inlineStr"/>
       <c r="CN3" s="8" t="inlineStr"/>
       <c r="CO3" s="8" t="inlineStr"/>
-      <c r="CP3" s="8" t="inlineStr"/>
-      <c r="CQ3" s="8" t="inlineStr"/>
-      <c r="CR3" s="8" t="inlineStr"/>
+      <c r="CP3" s="4" t="inlineStr"/>
+      <c r="CQ3" s="4" t="inlineStr"/>
+      <c r="CR3" s="6" t="inlineStr"/>
       <c r="CS3" s="8" t="inlineStr"/>
-      <c r="CT3" s="4" t="inlineStr"/>
+      <c r="CT3" s="8" t="inlineStr"/>
       <c r="CU3" s="8" t="inlineStr"/>
       <c r="CV3" s="8" t="inlineStr"/>
-      <c r="CW3" s="4" t="inlineStr"/>
-      <c r="CX3" s="6" t="inlineStr"/>
+      <c r="CW3" s="8" t="inlineStr"/>
+      <c r="CX3" s="8" t="inlineStr"/>
       <c r="CY3" s="8" t="inlineStr"/>
-      <c r="CZ3" s="8" t="inlineStr"/>
+      <c r="CZ3" s="4" t="inlineStr"/>
       <c r="DA3" s="8" t="inlineStr"/>
       <c r="DB3" s="8" t="inlineStr"/>
-      <c r="DC3" s="8" t="inlineStr"/>
-      <c r="DD3" s="8" t="inlineStr"/>
-      <c r="DE3" s="8" t="inlineStr"/>
-      <c r="DF3" s="4" t="inlineStr"/>
+      <c r="DC3" s="4" t="inlineStr"/>
+      <c r="DD3" s="4" t="inlineStr"/>
+      <c r="DE3" s="6" t="inlineStr"/>
+      <c r="DF3" s="8" t="inlineStr"/>
       <c r="DG3" s="8" t="inlineStr"/>
       <c r="DH3" s="8" t="inlineStr"/>
-      <c r="DI3" s="4" t="inlineStr"/>
-      <c r="DJ3" s="6" t="inlineStr"/>
+      <c r="DI3" s="8" t="inlineStr"/>
+      <c r="DJ3" s="8" t="inlineStr"/>
       <c r="DK3" s="8" t="inlineStr"/>
       <c r="DL3" s="8" t="inlineStr"/>
-      <c r="DM3" s="8" t="inlineStr"/>
+      <c r="DM3" s="4" t="inlineStr"/>
       <c r="DN3" s="8" t="inlineStr"/>
       <c r="DO3" s="8" t="inlineStr"/>
-      <c r="DP3" s="8" t="inlineStr"/>
-      <c r="DQ3" s="8" t="inlineStr"/>
-      <c r="DR3" s="4" t="inlineStr"/>
+      <c r="DP3" s="4" t="inlineStr"/>
+      <c r="DQ3" s="4" t="inlineStr"/>
+      <c r="DR3" s="6" t="inlineStr"/>
       <c r="DS3" s="8" t="inlineStr"/>
       <c r="DT3" s="8" t="inlineStr"/>
-      <c r="DU3" s="4" t="inlineStr"/>
-      <c r="DV3" s="6" t="inlineStr"/>
+      <c r="DU3" s="8" t="inlineStr"/>
+      <c r="DV3" s="8" t="inlineStr"/>
       <c r="DW3" s="8" t="inlineStr"/>
       <c r="DX3" s="8" t="inlineStr"/>
       <c r="DY3" s="8" t="inlineStr"/>
-      <c r="DZ3" s="8" t="inlineStr"/>
+      <c r="DZ3" s="4" t="inlineStr"/>
       <c r="EA3" s="8" t="inlineStr"/>
       <c r="EB3" s="8" t="inlineStr"/>
-      <c r="EC3" s="8" t="inlineStr"/>
+      <c r="EC3" s="4" t="inlineStr"/>
       <c r="ED3" s="4" t="inlineStr"/>
-      <c r="EE3" s="8" t="inlineStr"/>
+      <c r="EE3" s="6" t="inlineStr"/>
       <c r="EF3" s="8" t="inlineStr"/>
-      <c r="EG3" s="4" t="inlineStr"/>
-      <c r="EH3" s="6" t="inlineStr"/>
+      <c r="EG3" s="8" t="inlineStr"/>
+      <c r="EH3" s="8" t="inlineStr"/>
       <c r="EI3" s="8" t="inlineStr"/>
       <c r="EJ3" s="8" t="inlineStr"/>
       <c r="EK3" s="8" t="inlineStr"/>
       <c r="EL3" s="8" t="inlineStr"/>
+      <c r="EM3" s="4" t="inlineStr"/>
+      <c r="EN3" s="8" t="inlineStr"/>
+      <c r="EO3" s="8" t="inlineStr"/>
+      <c r="EP3" s="4" t="inlineStr"/>
+      <c r="EQ3" s="4" t="inlineStr"/>
+      <c r="ER3" s="6" t="inlineStr"/>
+      <c r="ES3" s="8" t="inlineStr"/>
+      <c r="ET3" s="8" t="inlineStr"/>
+      <c r="EU3" s="8" t="inlineStr"/>
+      <c r="EV3" s="8" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
@@ -1853,7 +1949,7 @@
       <c r="V4" s="6" t="inlineStr"/>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X4" s="4" t="n">
@@ -1884,117 +1980,131 @@
       <c r="AG4" s="6" t="inlineStr"/>
       <c r="AH4" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
-        </is>
-      </c>
-      <c r="AI4" s="8" t="inlineStr"/>
+          <t>67659023fa0b9f7849c9c013c83096c73b3e690677fc1af42b7fbea7ff2c08e3</t>
+        </is>
+      </c>
+      <c r="AI4" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ4" s="8" t="inlineStr"/>
       <c r="AK4" s="8" t="inlineStr"/>
-      <c r="AL4" s="4" t="inlineStr"/>
-      <c r="AM4" s="8" t="inlineStr"/>
+      <c r="AL4" s="8" t="inlineStr"/>
+      <c r="AM4" s="4" t="inlineStr"/>
       <c r="AN4" s="8" t="inlineStr"/>
-      <c r="AO4" s="4" t="inlineStr"/>
-      <c r="AP4" s="6" t="inlineStr"/>
-      <c r="AQ4" s="8" t="inlineStr"/>
-      <c r="AR4" s="8" t="inlineStr"/>
+      <c r="AO4" s="8" t="inlineStr"/>
+      <c r="AP4" s="4" t="inlineStr"/>
+      <c r="AQ4" s="4" t="inlineStr"/>
+      <c r="AR4" s="6" t="inlineStr"/>
       <c r="AS4" s="8" t="inlineStr"/>
       <c r="AT4" s="8" t="inlineStr"/>
       <c r="AU4" s="8" t="inlineStr"/>
       <c r="AV4" s="8" t="inlineStr"/>
       <c r="AW4" s="8" t="inlineStr"/>
-      <c r="AX4" s="4" t="inlineStr"/>
+      <c r="AX4" s="8" t="inlineStr"/>
       <c r="AY4" s="8" t="inlineStr"/>
-      <c r="AZ4" s="8" t="inlineStr"/>
-      <c r="BA4" s="4" t="inlineStr"/>
-      <c r="BB4" s="6" t="inlineStr"/>
-      <c r="BC4" s="8" t="inlineStr"/>
-      <c r="BD4" s="8" t="inlineStr"/>
-      <c r="BE4" s="8" t="inlineStr"/>
+      <c r="AZ4" s="4" t="inlineStr"/>
+      <c r="BA4" s="8" t="inlineStr"/>
+      <c r="BB4" s="8" t="inlineStr"/>
+      <c r="BC4" s="4" t="inlineStr"/>
+      <c r="BD4" s="4" t="inlineStr"/>
+      <c r="BE4" s="6" t="inlineStr"/>
       <c r="BF4" s="8" t="inlineStr"/>
       <c r="BG4" s="8" t="inlineStr"/>
       <c r="BH4" s="8" t="inlineStr"/>
       <c r="BI4" s="8" t="inlineStr"/>
-      <c r="BJ4" s="4" t="inlineStr"/>
+      <c r="BJ4" s="8" t="inlineStr"/>
       <c r="BK4" s="8" t="inlineStr"/>
       <c r="BL4" s="8" t="inlineStr"/>
       <c r="BM4" s="4" t="inlineStr"/>
-      <c r="BN4" s="6" t="inlineStr"/>
+      <c r="BN4" s="8" t="inlineStr"/>
       <c r="BO4" s="8" t="inlineStr"/>
-      <c r="BP4" s="8" t="inlineStr"/>
-      <c r="BQ4" s="8" t="inlineStr"/>
-      <c r="BR4" s="8" t="inlineStr"/>
+      <c r="BP4" s="4" t="inlineStr"/>
+      <c r="BQ4" s="4" t="inlineStr"/>
+      <c r="BR4" s="6" t="inlineStr"/>
       <c r="BS4" s="8" t="inlineStr"/>
       <c r="BT4" s="8" t="inlineStr"/>
       <c r="BU4" s="8" t="inlineStr"/>
-      <c r="BV4" s="4" t="inlineStr"/>
+      <c r="BV4" s="8" t="inlineStr"/>
       <c r="BW4" s="8" t="inlineStr"/>
       <c r="BX4" s="8" t="inlineStr"/>
-      <c r="BY4" s="4" t="inlineStr"/>
-      <c r="BZ4" s="6" t="inlineStr"/>
+      <c r="BY4" s="8" t="inlineStr"/>
+      <c r="BZ4" s="4" t="inlineStr"/>
       <c r="CA4" s="8" t="inlineStr"/>
       <c r="CB4" s="8" t="inlineStr"/>
-      <c r="CC4" s="8" t="inlineStr"/>
-      <c r="CD4" s="8" t="inlineStr"/>
-      <c r="CE4" s="8" t="inlineStr"/>
+      <c r="CC4" s="4" t="inlineStr"/>
+      <c r="CD4" s="4" t="inlineStr"/>
+      <c r="CE4" s="6" t="inlineStr"/>
       <c r="CF4" s="8" t="inlineStr"/>
       <c r="CG4" s="8" t="inlineStr"/>
-      <c r="CH4" s="4" t="inlineStr"/>
+      <c r="CH4" s="8" t="inlineStr"/>
       <c r="CI4" s="8" t="inlineStr"/>
       <c r="CJ4" s="8" t="inlineStr"/>
-      <c r="CK4" s="4" t="inlineStr"/>
-      <c r="CL4" s="6" t="inlineStr"/>
-      <c r="CM4" s="8" t="inlineStr"/>
+      <c r="CK4" s="8" t="inlineStr"/>
+      <c r="CL4" s="8" t="inlineStr"/>
+      <c r="CM4" s="4" t="inlineStr"/>
       <c r="CN4" s="8" t="inlineStr"/>
       <c r="CO4" s="8" t="inlineStr"/>
-      <c r="CP4" s="8" t="inlineStr"/>
-      <c r="CQ4" s="8" t="inlineStr"/>
-      <c r="CR4" s="8" t="inlineStr"/>
+      <c r="CP4" s="4" t="inlineStr"/>
+      <c r="CQ4" s="4" t="inlineStr"/>
+      <c r="CR4" s="6" t="inlineStr"/>
       <c r="CS4" s="8" t="inlineStr"/>
-      <c r="CT4" s="4" t="inlineStr"/>
+      <c r="CT4" s="8" t="inlineStr"/>
       <c r="CU4" s="8" t="inlineStr"/>
       <c r="CV4" s="8" t="inlineStr"/>
-      <c r="CW4" s="4" t="inlineStr"/>
-      <c r="CX4" s="6" t="inlineStr"/>
+      <c r="CW4" s="8" t="inlineStr"/>
+      <c r="CX4" s="8" t="inlineStr"/>
       <c r="CY4" s="8" t="inlineStr"/>
-      <c r="CZ4" s="8" t="inlineStr"/>
+      <c r="CZ4" s="4" t="inlineStr"/>
       <c r="DA4" s="8" t="inlineStr"/>
       <c r="DB4" s="8" t="inlineStr"/>
-      <c r="DC4" s="8" t="inlineStr"/>
-      <c r="DD4" s="8" t="inlineStr"/>
-      <c r="DE4" s="8" t="inlineStr"/>
-      <c r="DF4" s="4" t="inlineStr"/>
+      <c r="DC4" s="4" t="inlineStr"/>
+      <c r="DD4" s="4" t="inlineStr"/>
+      <c r="DE4" s="6" t="inlineStr"/>
+      <c r="DF4" s="8" t="inlineStr"/>
       <c r="DG4" s="8" t="inlineStr"/>
       <c r="DH4" s="8" t="inlineStr"/>
-      <c r="DI4" s="4" t="inlineStr"/>
-      <c r="DJ4" s="6" t="inlineStr"/>
+      <c r="DI4" s="8" t="inlineStr"/>
+      <c r="DJ4" s="8" t="inlineStr"/>
       <c r="DK4" s="8" t="inlineStr"/>
       <c r="DL4" s="8" t="inlineStr"/>
-      <c r="DM4" s="8" t="inlineStr"/>
+      <c r="DM4" s="4" t="inlineStr"/>
       <c r="DN4" s="8" t="inlineStr"/>
       <c r="DO4" s="8" t="inlineStr"/>
-      <c r="DP4" s="8" t="inlineStr"/>
-      <c r="DQ4" s="8" t="inlineStr"/>
-      <c r="DR4" s="4" t="inlineStr"/>
+      <c r="DP4" s="4" t="inlineStr"/>
+      <c r="DQ4" s="4" t="inlineStr"/>
+      <c r="DR4" s="6" t="inlineStr"/>
       <c r="DS4" s="8" t="inlineStr"/>
       <c r="DT4" s="8" t="inlineStr"/>
-      <c r="DU4" s="4" t="inlineStr"/>
-      <c r="DV4" s="6" t="inlineStr"/>
+      <c r="DU4" s="8" t="inlineStr"/>
+      <c r="DV4" s="8" t="inlineStr"/>
       <c r="DW4" s="8" t="inlineStr"/>
       <c r="DX4" s="8" t="inlineStr"/>
       <c r="DY4" s="8" t="inlineStr"/>
-      <c r="DZ4" s="8" t="inlineStr"/>
+      <c r="DZ4" s="4" t="inlineStr"/>
       <c r="EA4" s="8" t="inlineStr"/>
       <c r="EB4" s="8" t="inlineStr"/>
-      <c r="EC4" s="8" t="inlineStr"/>
+      <c r="EC4" s="4" t="inlineStr"/>
       <c r="ED4" s="4" t="inlineStr"/>
-      <c r="EE4" s="8" t="inlineStr"/>
+      <c r="EE4" s="6" t="inlineStr"/>
       <c r="EF4" s="8" t="inlineStr"/>
-      <c r="EG4" s="4" t="inlineStr"/>
-      <c r="EH4" s="6" t="inlineStr"/>
+      <c r="EG4" s="8" t="inlineStr"/>
+      <c r="EH4" s="8" t="inlineStr"/>
       <c r="EI4" s="8" t="inlineStr"/>
       <c r="EJ4" s="8" t="inlineStr"/>
       <c r="EK4" s="8" t="inlineStr"/>
       <c r="EL4" s="8" t="inlineStr"/>
+      <c r="EM4" s="4" t="inlineStr"/>
+      <c r="EN4" s="8" t="inlineStr"/>
+      <c r="EO4" s="8" t="inlineStr"/>
+      <c r="EP4" s="4" t="inlineStr"/>
+      <c r="EQ4" s="4" t="inlineStr"/>
+      <c r="ER4" s="6" t="inlineStr"/>
+      <c r="ES4" s="8" t="inlineStr"/>
+      <c r="ET4" s="8" t="inlineStr"/>
+      <c r="EU4" s="8" t="inlineStr"/>
+      <c r="EV4" s="8" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
@@ -2055,7 +2165,7 @@
       <c r="V5" s="6" t="inlineStr"/>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X5" s="4" t="n">
@@ -2086,297 +2196,331 @@
       <c r="AG5" s="6" t="inlineStr"/>
       <c r="AH5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
-        </is>
-      </c>
-      <c r="AI5" s="8" t="inlineStr">
+          <t>7711f1ba631b1f8699b73690de40b11380fa74e958cc2f3541ba4fe594dbecf0</t>
+        </is>
+      </c>
+      <c r="AI5" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ5" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ5" s="8" t="n">
+      <c r="AK5" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK5" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:08</t>
-        </is>
-      </c>
-      <c r="AL5" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM5" s="8" t="inlineStr">
+      <c r="AL5" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:43</t>
+        </is>
+      </c>
+      <c r="AM5" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN5" s="8" t="inlineStr">
         <is>
           <t>Grotte du lac, topographie en coupe</t>
         </is>
       </c>
-      <c r="AN5" s="8" t="inlineStr">
+      <c r="AO5" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Grotte_du_lac/Outputs/Grotte_du_lac-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO5" s="4" t="n">
+      <c r="AP5" s="4" t="inlineStr">
+        <is>
+          <t>38ec4923e638b56f09aaeb6147841e91f4dc6b8294d77f5e11191752dc73eb63</t>
+        </is>
+      </c>
+      <c r="AQ5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AP5" s="6" t="inlineStr"/>
-      <c r="AQ5" s="8" t="inlineStr">
+      <c r="AR5" s="6" t="inlineStr"/>
+      <c r="AS5" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR5" s="8" t="inlineStr">
+      <c r="AT5" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS5" s="8" t="inlineStr"/>
-      <c r="AT5" s="8" t="inlineStr">
+      <c r="AU5" s="8" t="inlineStr"/>
+      <c r="AV5" s="8" t="inlineStr">
         <is>
           <t>Grotte du lac - Coupe développée</t>
         </is>
       </c>
-      <c r="AU5" s="8" t="inlineStr">
+      <c r="AW5" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV5" s="8" t="n">
+      <c r="AX5" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW5" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:09</t>
-        </is>
-      </c>
-      <c r="AX5" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY5" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:20:44</t>
+        </is>
+      </c>
+      <c r="AZ5" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA5" s="8" t="inlineStr">
+        <is>
           <t>Grotte du lac, topographie en Plan</t>
         </is>
       </c>
-      <c r="AZ5" s="8" t="inlineStr">
+      <c r="BB5" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Grotte_du_lac/Outputs/Grotte_du_lac-plan.pdf</t>
         </is>
       </c>
-      <c r="BA5" s="4" t="n">
+      <c r="BC5" s="4" t="inlineStr">
+        <is>
+          <t>d3f4b78016ba40be2e770d98026960b91cfa683540e6cb2a06443943a06af14e</t>
+        </is>
+      </c>
+      <c r="BD5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="BB5" s="6" t="inlineStr"/>
-      <c r="BC5" s="8" t="inlineStr">
+      <c r="BE5" s="6" t="inlineStr"/>
+      <c r="BF5" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD5" s="8" t="inlineStr">
+      <c r="BG5" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE5" s="8" t="inlineStr"/>
-      <c r="BF5" s="8" t="inlineStr">
+      <c r="BH5" s="8" t="inlineStr"/>
+      <c r="BI5" s="8" t="inlineStr">
         <is>
           <t>Grotte du lac plan</t>
         </is>
       </c>
-      <c r="BG5" s="8" t="inlineStr">
+      <c r="BJ5" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH5" s="8" t="n">
+      <c r="BK5" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI5" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ5" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK5" s="8" t="inlineStr">
+      <c r="BL5" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM5" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN5" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Grotte du lac au format google earth</t>
         </is>
       </c>
-      <c r="BL5" s="8" t="inlineStr">
+      <c r="BO5" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Grotte_du_lac/Outputs/Grotte_du_lac-model.kml</t>
         </is>
       </c>
-      <c r="BM5" s="4" t="n">
+      <c r="BP5" s="4" t="inlineStr">
+        <is>
+          <t>65f0f4b04c31f2c51306924af19c6b9dddb02ed1884c7aa31b64cc82c7372f41</t>
+        </is>
+      </c>
+      <c r="BQ5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="BN5" s="6" t="inlineStr"/>
-      <c r="BO5" s="8" t="inlineStr">
+      <c r="BR5" s="6" t="inlineStr"/>
+      <c r="BS5" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP5" s="8" t="inlineStr">
+      <c r="BT5" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ5" s="8" t="inlineStr"/>
-      <c r="BR5" s="8" t="inlineStr">
+      <c r="BU5" s="8" t="inlineStr"/>
+      <c r="BV5" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS5" s="8" t="inlineStr">
+      <c r="BW5" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT5" s="8" t="n">
+      <c r="BX5" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU5" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV5" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW5" s="8" t="inlineStr">
+      <c r="BY5" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ5" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA5" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Grotte du lac au format google earth</t>
         </is>
       </c>
-      <c r="BX5" s="8" t="inlineStr">
+      <c r="CB5" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Grotte_du_lac/Outputs/Grotte_du_lac.kml</t>
         </is>
       </c>
-      <c r="BY5" s="4" t="n">
+      <c r="CC5" s="4" t="inlineStr">
+        <is>
+          <t>67124398cf2879a5a8c25382689fc67b5b2d4d110d3cd5bae6410dd397dcee3c</t>
+        </is>
+      </c>
+      <c r="CD5" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="BZ5" s="6" t="inlineStr"/>
-      <c r="CA5" s="8" t="inlineStr">
+      <c r="CE5" s="6" t="inlineStr"/>
+      <c r="CF5" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB5" s="8" t="inlineStr">
+      <c r="CG5" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC5" s="8" t="inlineStr"/>
-      <c r="CD5" s="8" t="inlineStr">
+      <c r="CH5" s="8" t="inlineStr"/>
+      <c r="CI5" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE5" s="8" t="inlineStr">
+      <c r="CJ5" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF5" s="8" t="n">
+      <c r="CK5" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG5" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH5" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI5" s="8" t="inlineStr">
+      <c r="CL5" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM5" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN5" s="8" t="inlineStr">
         <is>
           <t>Topo de Grotte du lac au format Therion</t>
         </is>
       </c>
-      <c r="CJ5" s="8" t="inlineStr">
+      <c r="CO5" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Grotte_du_lac/Outputs/Grotte du lac.zip</t>
         </is>
       </c>
-      <c r="CK5" s="4" t="n">
+      <c r="CP5" s="4" t="inlineStr">
+        <is>
+          <t>cf1cb9851f74c82c13c58be66b9c11d3d5c4cb5172fb4cbfd1259323fdeeafc5</t>
+        </is>
+      </c>
+      <c r="CQ5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="CL5" s="6" t="inlineStr"/>
-      <c r="CM5" s="8" t="inlineStr">
+      <c r="CR5" s="6" t="inlineStr"/>
+      <c r="CS5" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN5" s="8" t="inlineStr">
+      <c r="CT5" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO5" s="8" t="inlineStr"/>
-      <c r="CP5" s="8" t="inlineStr">
+      <c r="CU5" s="8" t="inlineStr"/>
+      <c r="CV5" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ5" s="8" t="inlineStr"/>
-      <c r="CR5" s="8" t="inlineStr"/>
-      <c r="CS5" s="8" t="inlineStr"/>
-      <c r="CT5" s="4" t="inlineStr"/>
-      <c r="CU5" s="8" t="inlineStr"/>
-      <c r="CV5" s="8" t="inlineStr"/>
-      <c r="CW5" s="4" t="inlineStr"/>
-      <c r="CX5" s="6" t="inlineStr"/>
+      <c r="CW5" s="8" t="inlineStr"/>
+      <c r="CX5" s="8" t="inlineStr"/>
       <c r="CY5" s="8" t="inlineStr"/>
-      <c r="CZ5" s="8" t="inlineStr"/>
+      <c r="CZ5" s="4" t="inlineStr"/>
       <c r="DA5" s="8" t="inlineStr"/>
       <c r="DB5" s="8" t="inlineStr"/>
-      <c r="DC5" s="8" t="inlineStr"/>
-      <c r="DD5" s="8" t="inlineStr"/>
-      <c r="DE5" s="8" t="inlineStr"/>
-      <c r="DF5" s="4" t="inlineStr"/>
+      <c r="DC5" s="4" t="inlineStr"/>
+      <c r="DD5" s="4" t="inlineStr"/>
+      <c r="DE5" s="6" t="inlineStr"/>
+      <c r="DF5" s="8" t="inlineStr"/>
       <c r="DG5" s="8" t="inlineStr"/>
       <c r="DH5" s="8" t="inlineStr"/>
-      <c r="DI5" s="4" t="inlineStr"/>
-      <c r="DJ5" s="6" t="inlineStr"/>
+      <c r="DI5" s="8" t="inlineStr"/>
+      <c r="DJ5" s="8" t="inlineStr"/>
       <c r="DK5" s="8" t="inlineStr"/>
       <c r="DL5" s="8" t="inlineStr"/>
-      <c r="DM5" s="8" t="inlineStr"/>
+      <c r="DM5" s="4" t="inlineStr"/>
       <c r="DN5" s="8" t="inlineStr"/>
       <c r="DO5" s="8" t="inlineStr"/>
-      <c r="DP5" s="8" t="inlineStr"/>
-      <c r="DQ5" s="8" t="inlineStr"/>
-      <c r="DR5" s="4" t="inlineStr"/>
+      <c r="DP5" s="4" t="inlineStr"/>
+      <c r="DQ5" s="4" t="inlineStr"/>
+      <c r="DR5" s="6" t="inlineStr"/>
       <c r="DS5" s="8" t="inlineStr"/>
       <c r="DT5" s="8" t="inlineStr"/>
-      <c r="DU5" s="4" t="inlineStr"/>
-      <c r="DV5" s="6" t="inlineStr"/>
+      <c r="DU5" s="8" t="inlineStr"/>
+      <c r="DV5" s="8" t="inlineStr"/>
       <c r="DW5" s="8" t="inlineStr"/>
       <c r="DX5" s="8" t="inlineStr"/>
       <c r="DY5" s="8" t="inlineStr"/>
-      <c r="DZ5" s="8" t="inlineStr"/>
+      <c r="DZ5" s="4" t="inlineStr"/>
       <c r="EA5" s="8" t="inlineStr"/>
       <c r="EB5" s="8" t="inlineStr"/>
-      <c r="EC5" s="8" t="inlineStr"/>
+      <c r="EC5" s="4" t="inlineStr"/>
       <c r="ED5" s="4" t="inlineStr"/>
-      <c r="EE5" s="8" t="inlineStr"/>
+      <c r="EE5" s="6" t="inlineStr"/>
       <c r="EF5" s="8" t="inlineStr"/>
-      <c r="EG5" s="4" t="inlineStr"/>
-      <c r="EH5" s="6" t="inlineStr"/>
+      <c r="EG5" s="8" t="inlineStr"/>
+      <c r="EH5" s="8" t="inlineStr"/>
       <c r="EI5" s="8" t="inlineStr"/>
       <c r="EJ5" s="8" t="inlineStr"/>
       <c r="EK5" s="8" t="inlineStr"/>
       <c r="EL5" s="8" t="inlineStr"/>
+      <c r="EM5" s="4" t="inlineStr"/>
+      <c r="EN5" s="8" t="inlineStr"/>
+      <c r="EO5" s="8" t="inlineStr"/>
+      <c r="EP5" s="4" t="inlineStr"/>
+      <c r="EQ5" s="4" t="inlineStr"/>
+      <c r="ER5" s="6" t="inlineStr"/>
+      <c r="ES5" s="8" t="inlineStr"/>
+      <c r="ET5" s="8" t="inlineStr"/>
+      <c r="EU5" s="8" t="inlineStr"/>
+      <c r="EV5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
@@ -2437,7 +2581,7 @@
       <c r="V6" s="6" t="inlineStr"/>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X6" s="4" t="n">
@@ -2468,117 +2612,131 @@
       <c r="AG6" s="6" t="inlineStr"/>
       <c r="AH6" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:20:00</t>
-        </is>
-      </c>
-      <c r="AI6" s="8" t="inlineStr"/>
+          <t>7711f1ba631b1f8699b73690de40b11380fa74e958cc2f3541ba4fe594dbecf0</t>
+        </is>
+      </c>
+      <c r="AI6" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ6" s="8" t="inlineStr"/>
       <c r="AK6" s="8" t="inlineStr"/>
-      <c r="AL6" s="4" t="inlineStr"/>
-      <c r="AM6" s="8" t="inlineStr"/>
+      <c r="AL6" s="8" t="inlineStr"/>
+      <c r="AM6" s="4" t="inlineStr"/>
       <c r="AN6" s="8" t="inlineStr"/>
-      <c r="AO6" s="4" t="inlineStr"/>
-      <c r="AP6" s="6" t="inlineStr"/>
-      <c r="AQ6" s="8" t="inlineStr"/>
-      <c r="AR6" s="8" t="inlineStr"/>
+      <c r="AO6" s="8" t="inlineStr"/>
+      <c r="AP6" s="4" t="inlineStr"/>
+      <c r="AQ6" s="4" t="inlineStr"/>
+      <c r="AR6" s="6" t="inlineStr"/>
       <c r="AS6" s="8" t="inlineStr"/>
       <c r="AT6" s="8" t="inlineStr"/>
       <c r="AU6" s="8" t="inlineStr"/>
       <c r="AV6" s="8" t="inlineStr"/>
       <c r="AW6" s="8" t="inlineStr"/>
-      <c r="AX6" s="4" t="inlineStr"/>
+      <c r="AX6" s="8" t="inlineStr"/>
       <c r="AY6" s="8" t="inlineStr"/>
-      <c r="AZ6" s="8" t="inlineStr"/>
-      <c r="BA6" s="4" t="inlineStr"/>
-      <c r="BB6" s="6" t="inlineStr"/>
-      <c r="BC6" s="8" t="inlineStr"/>
-      <c r="BD6" s="8" t="inlineStr"/>
-      <c r="BE6" s="8" t="inlineStr"/>
+      <c r="AZ6" s="4" t="inlineStr"/>
+      <c r="BA6" s="8" t="inlineStr"/>
+      <c r="BB6" s="8" t="inlineStr"/>
+      <c r="BC6" s="4" t="inlineStr"/>
+      <c r="BD6" s="4" t="inlineStr"/>
+      <c r="BE6" s="6" t="inlineStr"/>
       <c r="BF6" s="8" t="inlineStr"/>
       <c r="BG6" s="8" t="inlineStr"/>
       <c r="BH6" s="8" t="inlineStr"/>
       <c r="BI6" s="8" t="inlineStr"/>
-      <c r="BJ6" s="4" t="inlineStr"/>
+      <c r="BJ6" s="8" t="inlineStr"/>
       <c r="BK6" s="8" t="inlineStr"/>
       <c r="BL6" s="8" t="inlineStr"/>
       <c r="BM6" s="4" t="inlineStr"/>
-      <c r="BN6" s="6" t="inlineStr"/>
+      <c r="BN6" s="8" t="inlineStr"/>
       <c r="BO6" s="8" t="inlineStr"/>
-      <c r="BP6" s="8" t="inlineStr"/>
-      <c r="BQ6" s="8" t="inlineStr"/>
-      <c r="BR6" s="8" t="inlineStr"/>
+      <c r="BP6" s="4" t="inlineStr"/>
+      <c r="BQ6" s="4" t="inlineStr"/>
+      <c r="BR6" s="6" t="inlineStr"/>
       <c r="BS6" s="8" t="inlineStr"/>
       <c r="BT6" s="8" t="inlineStr"/>
       <c r="BU6" s="8" t="inlineStr"/>
-      <c r="BV6" s="4" t="inlineStr"/>
+      <c r="BV6" s="8" t="inlineStr"/>
       <c r="BW6" s="8" t="inlineStr"/>
       <c r="BX6" s="8" t="inlineStr"/>
-      <c r="BY6" s="4" t="inlineStr"/>
-      <c r="BZ6" s="6" t="inlineStr"/>
+      <c r="BY6" s="8" t="inlineStr"/>
+      <c r="BZ6" s="4" t="inlineStr"/>
       <c r="CA6" s="8" t="inlineStr"/>
       <c r="CB6" s="8" t="inlineStr"/>
-      <c r="CC6" s="8" t="inlineStr"/>
-      <c r="CD6" s="8" t="inlineStr"/>
-      <c r="CE6" s="8" t="inlineStr"/>
+      <c r="CC6" s="4" t="inlineStr"/>
+      <c r="CD6" s="4" t="inlineStr"/>
+      <c r="CE6" s="6" t="inlineStr"/>
       <c r="CF6" s="8" t="inlineStr"/>
       <c r="CG6" s="8" t="inlineStr"/>
-      <c r="CH6" s="4" t="inlineStr"/>
+      <c r="CH6" s="8" t="inlineStr"/>
       <c r="CI6" s="8" t="inlineStr"/>
       <c r="CJ6" s="8" t="inlineStr"/>
-      <c r="CK6" s="4" t="inlineStr"/>
-      <c r="CL6" s="6" t="inlineStr"/>
-      <c r="CM6" s="8" t="inlineStr"/>
+      <c r="CK6" s="8" t="inlineStr"/>
+      <c r="CL6" s="8" t="inlineStr"/>
+      <c r="CM6" s="4" t="inlineStr"/>
       <c r="CN6" s="8" t="inlineStr"/>
       <c r="CO6" s="8" t="inlineStr"/>
-      <c r="CP6" s="8" t="inlineStr"/>
-      <c r="CQ6" s="8" t="inlineStr"/>
-      <c r="CR6" s="8" t="inlineStr"/>
+      <c r="CP6" s="4" t="inlineStr"/>
+      <c r="CQ6" s="4" t="inlineStr"/>
+      <c r="CR6" s="6" t="inlineStr"/>
       <c r="CS6" s="8" t="inlineStr"/>
-      <c r="CT6" s="4" t="inlineStr"/>
+      <c r="CT6" s="8" t="inlineStr"/>
       <c r="CU6" s="8" t="inlineStr"/>
       <c r="CV6" s="8" t="inlineStr"/>
-      <c r="CW6" s="4" t="inlineStr"/>
-      <c r="CX6" s="6" t="inlineStr"/>
+      <c r="CW6" s="8" t="inlineStr"/>
+      <c r="CX6" s="8" t="inlineStr"/>
       <c r="CY6" s="8" t="inlineStr"/>
-      <c r="CZ6" s="8" t="inlineStr"/>
+      <c r="CZ6" s="4" t="inlineStr"/>
       <c r="DA6" s="8" t="inlineStr"/>
       <c r="DB6" s="8" t="inlineStr"/>
-      <c r="DC6" s="8" t="inlineStr"/>
-      <c r="DD6" s="8" t="inlineStr"/>
-      <c r="DE6" s="8" t="inlineStr"/>
-      <c r="DF6" s="4" t="inlineStr"/>
+      <c r="DC6" s="4" t="inlineStr"/>
+      <c r="DD6" s="4" t="inlineStr"/>
+      <c r="DE6" s="6" t="inlineStr"/>
+      <c r="DF6" s="8" t="inlineStr"/>
       <c r="DG6" s="8" t="inlineStr"/>
       <c r="DH6" s="8" t="inlineStr"/>
-      <c r="DI6" s="4" t="inlineStr"/>
-      <c r="DJ6" s="6" t="inlineStr"/>
+      <c r="DI6" s="8" t="inlineStr"/>
+      <c r="DJ6" s="8" t="inlineStr"/>
       <c r="DK6" s="8" t="inlineStr"/>
       <c r="DL6" s="8" t="inlineStr"/>
-      <c r="DM6" s="8" t="inlineStr"/>
+      <c r="DM6" s="4" t="inlineStr"/>
       <c r="DN6" s="8" t="inlineStr"/>
       <c r="DO6" s="8" t="inlineStr"/>
-      <c r="DP6" s="8" t="inlineStr"/>
-      <c r="DQ6" s="8" t="inlineStr"/>
-      <c r="DR6" s="4" t="inlineStr"/>
+      <c r="DP6" s="4" t="inlineStr"/>
+      <c r="DQ6" s="4" t="inlineStr"/>
+      <c r="DR6" s="6" t="inlineStr"/>
       <c r="DS6" s="8" t="inlineStr"/>
       <c r="DT6" s="8" t="inlineStr"/>
-      <c r="DU6" s="4" t="inlineStr"/>
-      <c r="DV6" s="6" t="inlineStr"/>
+      <c r="DU6" s="8" t="inlineStr"/>
+      <c r="DV6" s="8" t="inlineStr"/>
       <c r="DW6" s="8" t="inlineStr"/>
       <c r="DX6" s="8" t="inlineStr"/>
       <c r="DY6" s="8" t="inlineStr"/>
-      <c r="DZ6" s="8" t="inlineStr"/>
+      <c r="DZ6" s="4" t="inlineStr"/>
       <c r="EA6" s="8" t="inlineStr"/>
       <c r="EB6" s="8" t="inlineStr"/>
-      <c r="EC6" s="8" t="inlineStr"/>
+      <c r="EC6" s="4" t="inlineStr"/>
       <c r="ED6" s="4" t="inlineStr"/>
-      <c r="EE6" s="8" t="inlineStr"/>
+      <c r="EE6" s="6" t="inlineStr"/>
       <c r="EF6" s="8" t="inlineStr"/>
-      <c r="EG6" s="4" t="inlineStr"/>
-      <c r="EH6" s="6" t="inlineStr"/>
+      <c r="EG6" s="8" t="inlineStr"/>
+      <c r="EH6" s="8" t="inlineStr"/>
       <c r="EI6" s="8" t="inlineStr"/>
       <c r="EJ6" s="8" t="inlineStr"/>
       <c r="EK6" s="8" t="inlineStr"/>
       <c r="EL6" s="8" t="inlineStr"/>
+      <c r="EM6" s="4" t="inlineStr"/>
+      <c r="EN6" s="8" t="inlineStr"/>
+      <c r="EO6" s="8" t="inlineStr"/>
+      <c r="EP6" s="4" t="inlineStr"/>
+      <c r="EQ6" s="4" t="inlineStr"/>
+      <c r="ER6" s="6" t="inlineStr"/>
+      <c r="ES6" s="8" t="inlineStr"/>
+      <c r="ET6" s="8" t="inlineStr"/>
+      <c r="EU6" s="8" t="inlineStr"/>
+      <c r="EV6" s="8" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
@@ -2639,7 +2797,7 @@
       <c r="V7" s="6" t="inlineStr"/>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X7" s="4" t="n">
@@ -2670,257 +2828,287 @@
       <c r="AG7" s="6" t="inlineStr"/>
       <c r="AH7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI7" s="8" t="inlineStr">
+          <t>c4144da82a45ba9d313e20b69ed23df566f8bd907f38c959225ad581a5b37577</t>
+        </is>
+      </c>
+      <c r="AI7" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ7" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ7" s="8" t="n">
+      <c r="AK7" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK7" s="8" t="inlineStr">
+      <c r="AL7" s="8" t="inlineStr">
         <is>
           <t>2025-04-25 23:43:01</t>
         </is>
       </c>
-      <c r="AL7" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AM7" s="8" t="inlineStr"/>
-      <c r="AN7" s="8" t="inlineStr">
+      <c r="AM7" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN7" s="8" t="inlineStr"/>
+      <c r="AO7" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Kaptarkhana/Outputs/Kaptarkhana-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO7" s="4" t="n">
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t>a4eb9e34976882e16839184f00c50dbf6df9e5a940a2164e52543d6528a71d58</t>
+        </is>
+      </c>
+      <c r="AQ7" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="AP7" s="6" t="inlineStr"/>
-      <c r="AQ7" s="8" t="inlineStr">
+      <c r="AR7" s="6" t="inlineStr"/>
+      <c r="AS7" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR7" s="8" t="inlineStr">
+      <c r="AT7" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS7" s="8" t="inlineStr"/>
-      <c r="AT7" s="8" t="inlineStr">
+      <c r="AU7" s="8" t="inlineStr"/>
+      <c r="AV7" s="8" t="inlineStr">
         <is>
           <t>Kaptarkhana coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU7" s="8" t="inlineStr">
+      <c r="AW7" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AV7" s="8" t="n">
+      <c r="AX7" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="AW7" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AX7" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY7" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AZ7" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA7" s="8" t="inlineStr">
+        <is>
           <t>Polygonale de Kaptarkhana au format google earth</t>
         </is>
       </c>
-      <c r="AZ7" s="8" t="inlineStr">
+      <c r="BB7" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Kaptarkhana/Outputs/Kaptarkhana-model.kml</t>
         </is>
       </c>
-      <c r="BA7" s="4" t="n">
+      <c r="BC7" s="4" t="inlineStr">
+        <is>
+          <t>72b1ebd5351638c6ff36033604710fb7d544cab42fb65fd1d4ad045354697faf</t>
+        </is>
+      </c>
+      <c r="BD7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="BB7" s="6" t="inlineStr"/>
-      <c r="BC7" s="8" t="inlineStr">
+      <c r="BE7" s="6" t="inlineStr"/>
+      <c r="BF7" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD7" s="8" t="inlineStr">
+      <c r="BG7" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BE7" s="8" t="inlineStr"/>
-      <c r="BF7" s="8" t="inlineStr">
+      <c r="BH7" s="8" t="inlineStr"/>
+      <c r="BI7" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BG7" s="8" t="inlineStr">
+      <c r="BJ7" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH7" s="8" t="n">
+      <c r="BK7" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI7" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ7" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK7" s="8" t="inlineStr">
+      <c r="BL7" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM7" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN7" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Kaptarkhana au format google earth</t>
         </is>
       </c>
-      <c r="BL7" s="8" t="inlineStr">
+      <c r="BO7" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Kaptarkhana/Outputs/Kaptarkhana.kml</t>
         </is>
       </c>
-      <c r="BM7" s="4" t="n">
+      <c r="BP7" s="4" t="inlineStr">
+        <is>
+          <t>8e9f8073c6b2fc885de8422fd5875b98d4fe8c72919912686d3f2a6e7b9d138f</t>
+        </is>
+      </c>
+      <c r="BQ7" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="BN7" s="6" t="inlineStr"/>
-      <c r="BO7" s="8" t="inlineStr">
+      <c r="BR7" s="6" t="inlineStr"/>
+      <c r="BS7" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP7" s="8" t="inlineStr">
+      <c r="BT7" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ7" s="8" t="inlineStr"/>
-      <c r="BR7" s="8" t="inlineStr">
+      <c r="BU7" s="8" t="inlineStr"/>
+      <c r="BV7" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS7" s="8" t="inlineStr">
+      <c r="BW7" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT7" s="8" t="n">
+      <c r="BX7" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="BU7" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV7" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW7" s="8" t="inlineStr">
+      <c r="BY7" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ7" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA7" s="8" t="inlineStr">
         <is>
           <t>Topo de Kaptarkhana au format Therion</t>
         </is>
       </c>
-      <c r="BX7" s="8" t="inlineStr">
+      <c r="CB7" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Kaptarkhana/Outputs/Kaptarkhana.zip</t>
         </is>
       </c>
-      <c r="BY7" s="4" t="n">
+      <c r="CC7" s="4" t="inlineStr">
+        <is>
+          <t>edd58b39d14b3b47a4b2c764cd4b4c0ddadff9e1fd13338d063385803b71b352</t>
+        </is>
+      </c>
+      <c r="CD7" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="BZ7" s="6" t="inlineStr"/>
-      <c r="CA7" s="8" t="inlineStr">
+      <c r="CE7" s="6" t="inlineStr"/>
+      <c r="CF7" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB7" s="8" t="inlineStr">
+      <c r="CG7" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CC7" s="8" t="inlineStr"/>
-      <c r="CD7" s="8" t="inlineStr">
+      <c r="CH7" s="8" t="inlineStr"/>
+      <c r="CI7" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CE7" s="8" t="inlineStr"/>
-      <c r="CF7" s="8" t="inlineStr"/>
-      <c r="CG7" s="8" t="inlineStr"/>
-      <c r="CH7" s="4" t="inlineStr"/>
-      <c r="CI7" s="8" t="inlineStr"/>
       <c r="CJ7" s="8" t="inlineStr"/>
-      <c r="CK7" s="4" t="inlineStr"/>
-      <c r="CL7" s="6" t="inlineStr"/>
-      <c r="CM7" s="8" t="inlineStr"/>
+      <c r="CK7" s="8" t="inlineStr"/>
+      <c r="CL7" s="8" t="inlineStr"/>
+      <c r="CM7" s="4" t="inlineStr"/>
       <c r="CN7" s="8" t="inlineStr"/>
       <c r="CO7" s="8" t="inlineStr"/>
-      <c r="CP7" s="8" t="inlineStr"/>
-      <c r="CQ7" s="8" t="inlineStr"/>
-      <c r="CR7" s="8" t="inlineStr"/>
+      <c r="CP7" s="4" t="inlineStr"/>
+      <c r="CQ7" s="4" t="inlineStr"/>
+      <c r="CR7" s="6" t="inlineStr"/>
       <c r="CS7" s="8" t="inlineStr"/>
-      <c r="CT7" s="4" t="inlineStr"/>
+      <c r="CT7" s="8" t="inlineStr"/>
       <c r="CU7" s="8" t="inlineStr"/>
       <c r="CV7" s="8" t="inlineStr"/>
-      <c r="CW7" s="4" t="inlineStr"/>
-      <c r="CX7" s="6" t="inlineStr"/>
+      <c r="CW7" s="8" t="inlineStr"/>
+      <c r="CX7" s="8" t="inlineStr"/>
       <c r="CY7" s="8" t="inlineStr"/>
-      <c r="CZ7" s="8" t="inlineStr"/>
+      <c r="CZ7" s="4" t="inlineStr"/>
       <c r="DA7" s="8" t="inlineStr"/>
       <c r="DB7" s="8" t="inlineStr"/>
-      <c r="DC7" s="8" t="inlineStr"/>
-      <c r="DD7" s="8" t="inlineStr"/>
-      <c r="DE7" s="8" t="inlineStr"/>
-      <c r="DF7" s="4" t="inlineStr"/>
+      <c r="DC7" s="4" t="inlineStr"/>
+      <c r="DD7" s="4" t="inlineStr"/>
+      <c r="DE7" s="6" t="inlineStr"/>
+      <c r="DF7" s="8" t="inlineStr"/>
       <c r="DG7" s="8" t="inlineStr"/>
       <c r="DH7" s="8" t="inlineStr"/>
-      <c r="DI7" s="4" t="inlineStr"/>
-      <c r="DJ7" s="6" t="inlineStr"/>
+      <c r="DI7" s="8" t="inlineStr"/>
+      <c r="DJ7" s="8" t="inlineStr"/>
       <c r="DK7" s="8" t="inlineStr"/>
       <c r="DL7" s="8" t="inlineStr"/>
-      <c r="DM7" s="8" t="inlineStr"/>
+      <c r="DM7" s="4" t="inlineStr"/>
       <c r="DN7" s="8" t="inlineStr"/>
       <c r="DO7" s="8" t="inlineStr"/>
-      <c r="DP7" s="8" t="inlineStr"/>
-      <c r="DQ7" s="8" t="inlineStr"/>
-      <c r="DR7" s="4" t="inlineStr"/>
+      <c r="DP7" s="4" t="inlineStr"/>
+      <c r="DQ7" s="4" t="inlineStr"/>
+      <c r="DR7" s="6" t="inlineStr"/>
       <c r="DS7" s="8" t="inlineStr"/>
       <c r="DT7" s="8" t="inlineStr"/>
-      <c r="DU7" s="4" t="inlineStr"/>
-      <c r="DV7" s="6" t="inlineStr"/>
+      <c r="DU7" s="8" t="inlineStr"/>
+      <c r="DV7" s="8" t="inlineStr"/>
       <c r="DW7" s="8" t="inlineStr"/>
       <c r="DX7" s="8" t="inlineStr"/>
       <c r="DY7" s="8" t="inlineStr"/>
-      <c r="DZ7" s="8" t="inlineStr"/>
+      <c r="DZ7" s="4" t="inlineStr"/>
       <c r="EA7" s="8" t="inlineStr"/>
       <c r="EB7" s="8" t="inlineStr"/>
-      <c r="EC7" s="8" t="inlineStr"/>
+      <c r="EC7" s="4" t="inlineStr"/>
       <c r="ED7" s="4" t="inlineStr"/>
-      <c r="EE7" s="8" t="inlineStr"/>
+      <c r="EE7" s="6" t="inlineStr"/>
       <c r="EF7" s="8" t="inlineStr"/>
-      <c r="EG7" s="4" t="inlineStr"/>
-      <c r="EH7" s="6" t="inlineStr"/>
+      <c r="EG7" s="8" t="inlineStr"/>
+      <c r="EH7" s="8" t="inlineStr"/>
       <c r="EI7" s="8" t="inlineStr"/>
       <c r="EJ7" s="8" t="inlineStr"/>
       <c r="EK7" s="8" t="inlineStr"/>
       <c r="EL7" s="8" t="inlineStr"/>
+      <c r="EM7" s="4" t="inlineStr"/>
+      <c r="EN7" s="8" t="inlineStr"/>
+      <c r="EO7" s="8" t="inlineStr"/>
+      <c r="EP7" s="4" t="inlineStr"/>
+      <c r="EQ7" s="4" t="inlineStr"/>
+      <c r="ER7" s="6" t="inlineStr"/>
+      <c r="ES7" s="8" t="inlineStr"/>
+      <c r="ET7" s="8" t="inlineStr"/>
+      <c r="EU7" s="8" t="inlineStr"/>
+      <c r="EV7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
@@ -2981,7 +3169,7 @@
       <c r="V8" s="6" t="inlineStr"/>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X8" s="4" t="n">
@@ -3012,117 +3200,131 @@
       <c r="AG8" s="6" t="inlineStr"/>
       <c r="AH8" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI8" s="8" t="inlineStr"/>
+          <t>c4144da82a45ba9d313e20b69ed23df566f8bd907f38c959225ad581a5b37577</t>
+        </is>
+      </c>
+      <c r="AI8" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ8" s="8" t="inlineStr"/>
       <c r="AK8" s="8" t="inlineStr"/>
-      <c r="AL8" s="4" t="inlineStr"/>
-      <c r="AM8" s="8" t="inlineStr"/>
+      <c r="AL8" s="8" t="inlineStr"/>
+      <c r="AM8" s="4" t="inlineStr"/>
       <c r="AN8" s="8" t="inlineStr"/>
-      <c r="AO8" s="4" t="inlineStr"/>
-      <c r="AP8" s="6" t="inlineStr"/>
-      <c r="AQ8" s="8" t="inlineStr"/>
-      <c r="AR8" s="8" t="inlineStr"/>
+      <c r="AO8" s="8" t="inlineStr"/>
+      <c r="AP8" s="4" t="inlineStr"/>
+      <c r="AQ8" s="4" t="inlineStr"/>
+      <c r="AR8" s="6" t="inlineStr"/>
       <c r="AS8" s="8" t="inlineStr"/>
       <c r="AT8" s="8" t="inlineStr"/>
       <c r="AU8" s="8" t="inlineStr"/>
       <c r="AV8" s="8" t="inlineStr"/>
       <c r="AW8" s="8" t="inlineStr"/>
-      <c r="AX8" s="4" t="inlineStr"/>
+      <c r="AX8" s="8" t="inlineStr"/>
       <c r="AY8" s="8" t="inlineStr"/>
-      <c r="AZ8" s="8" t="inlineStr"/>
-      <c r="BA8" s="4" t="inlineStr"/>
-      <c r="BB8" s="6" t="inlineStr"/>
-      <c r="BC8" s="8" t="inlineStr"/>
-      <c r="BD8" s="8" t="inlineStr"/>
-      <c r="BE8" s="8" t="inlineStr"/>
+      <c r="AZ8" s="4" t="inlineStr"/>
+      <c r="BA8" s="8" t="inlineStr"/>
+      <c r="BB8" s="8" t="inlineStr"/>
+      <c r="BC8" s="4" t="inlineStr"/>
+      <c r="BD8" s="4" t="inlineStr"/>
+      <c r="BE8" s="6" t="inlineStr"/>
       <c r="BF8" s="8" t="inlineStr"/>
       <c r="BG8" s="8" t="inlineStr"/>
       <c r="BH8" s="8" t="inlineStr"/>
       <c r="BI8" s="8" t="inlineStr"/>
-      <c r="BJ8" s="4" t="inlineStr"/>
+      <c r="BJ8" s="8" t="inlineStr"/>
       <c r="BK8" s="8" t="inlineStr"/>
       <c r="BL8" s="8" t="inlineStr"/>
       <c r="BM8" s="4" t="inlineStr"/>
-      <c r="BN8" s="6" t="inlineStr"/>
+      <c r="BN8" s="8" t="inlineStr"/>
       <c r="BO8" s="8" t="inlineStr"/>
-      <c r="BP8" s="8" t="inlineStr"/>
-      <c r="BQ8" s="8" t="inlineStr"/>
-      <c r="BR8" s="8" t="inlineStr"/>
+      <c r="BP8" s="4" t="inlineStr"/>
+      <c r="BQ8" s="4" t="inlineStr"/>
+      <c r="BR8" s="6" t="inlineStr"/>
       <c r="BS8" s="8" t="inlineStr"/>
       <c r="BT8" s="8" t="inlineStr"/>
       <c r="BU8" s="8" t="inlineStr"/>
-      <c r="BV8" s="4" t="inlineStr"/>
+      <c r="BV8" s="8" t="inlineStr"/>
       <c r="BW8" s="8" t="inlineStr"/>
       <c r="BX8" s="8" t="inlineStr"/>
-      <c r="BY8" s="4" t="inlineStr"/>
-      <c r="BZ8" s="6" t="inlineStr"/>
+      <c r="BY8" s="8" t="inlineStr"/>
+      <c r="BZ8" s="4" t="inlineStr"/>
       <c r="CA8" s="8" t="inlineStr"/>
       <c r="CB8" s="8" t="inlineStr"/>
-      <c r="CC8" s="8" t="inlineStr"/>
-      <c r="CD8" s="8" t="inlineStr"/>
-      <c r="CE8" s="8" t="inlineStr"/>
+      <c r="CC8" s="4" t="inlineStr"/>
+      <c r="CD8" s="4" t="inlineStr"/>
+      <c r="CE8" s="6" t="inlineStr"/>
       <c r="CF8" s="8" t="inlineStr"/>
       <c r="CG8" s="8" t="inlineStr"/>
-      <c r="CH8" s="4" t="inlineStr"/>
+      <c r="CH8" s="8" t="inlineStr"/>
       <c r="CI8" s="8" t="inlineStr"/>
       <c r="CJ8" s="8" t="inlineStr"/>
-      <c r="CK8" s="4" t="inlineStr"/>
-      <c r="CL8" s="6" t="inlineStr"/>
-      <c r="CM8" s="8" t="inlineStr"/>
+      <c r="CK8" s="8" t="inlineStr"/>
+      <c r="CL8" s="8" t="inlineStr"/>
+      <c r="CM8" s="4" t="inlineStr"/>
       <c r="CN8" s="8" t="inlineStr"/>
       <c r="CO8" s="8" t="inlineStr"/>
-      <c r="CP8" s="8" t="inlineStr"/>
-      <c r="CQ8" s="8" t="inlineStr"/>
-      <c r="CR8" s="8" t="inlineStr"/>
+      <c r="CP8" s="4" t="inlineStr"/>
+      <c r="CQ8" s="4" t="inlineStr"/>
+      <c r="CR8" s="6" t="inlineStr"/>
       <c r="CS8" s="8" t="inlineStr"/>
-      <c r="CT8" s="4" t="inlineStr"/>
+      <c r="CT8" s="8" t="inlineStr"/>
       <c r="CU8" s="8" t="inlineStr"/>
       <c r="CV8" s="8" t="inlineStr"/>
-      <c r="CW8" s="4" t="inlineStr"/>
-      <c r="CX8" s="6" t="inlineStr"/>
+      <c r="CW8" s="8" t="inlineStr"/>
+      <c r="CX8" s="8" t="inlineStr"/>
       <c r="CY8" s="8" t="inlineStr"/>
-      <c r="CZ8" s="8" t="inlineStr"/>
+      <c r="CZ8" s="4" t="inlineStr"/>
       <c r="DA8" s="8" t="inlineStr"/>
       <c r="DB8" s="8" t="inlineStr"/>
-      <c r="DC8" s="8" t="inlineStr"/>
-      <c r="DD8" s="8" t="inlineStr"/>
-      <c r="DE8" s="8" t="inlineStr"/>
-      <c r="DF8" s="4" t="inlineStr"/>
+      <c r="DC8" s="4" t="inlineStr"/>
+      <c r="DD8" s="4" t="inlineStr"/>
+      <c r="DE8" s="6" t="inlineStr"/>
+      <c r="DF8" s="8" t="inlineStr"/>
       <c r="DG8" s="8" t="inlineStr"/>
       <c r="DH8" s="8" t="inlineStr"/>
-      <c r="DI8" s="4" t="inlineStr"/>
-      <c r="DJ8" s="6" t="inlineStr"/>
+      <c r="DI8" s="8" t="inlineStr"/>
+      <c r="DJ8" s="8" t="inlineStr"/>
       <c r="DK8" s="8" t="inlineStr"/>
       <c r="DL8" s="8" t="inlineStr"/>
-      <c r="DM8" s="8" t="inlineStr"/>
+      <c r="DM8" s="4" t="inlineStr"/>
       <c r="DN8" s="8" t="inlineStr"/>
       <c r="DO8" s="8" t="inlineStr"/>
-      <c r="DP8" s="8" t="inlineStr"/>
-      <c r="DQ8" s="8" t="inlineStr"/>
-      <c r="DR8" s="4" t="inlineStr"/>
+      <c r="DP8" s="4" t="inlineStr"/>
+      <c r="DQ8" s="4" t="inlineStr"/>
+      <c r="DR8" s="6" t="inlineStr"/>
       <c r="DS8" s="8" t="inlineStr"/>
       <c r="DT8" s="8" t="inlineStr"/>
-      <c r="DU8" s="4" t="inlineStr"/>
-      <c r="DV8" s="6" t="inlineStr"/>
+      <c r="DU8" s="8" t="inlineStr"/>
+      <c r="DV8" s="8" t="inlineStr"/>
       <c r="DW8" s="8" t="inlineStr"/>
       <c r="DX8" s="8" t="inlineStr"/>
       <c r="DY8" s="8" t="inlineStr"/>
-      <c r="DZ8" s="8" t="inlineStr"/>
+      <c r="DZ8" s="4" t="inlineStr"/>
       <c r="EA8" s="8" t="inlineStr"/>
       <c r="EB8" s="8" t="inlineStr"/>
-      <c r="EC8" s="8" t="inlineStr"/>
+      <c r="EC8" s="4" t="inlineStr"/>
       <c r="ED8" s="4" t="inlineStr"/>
-      <c r="EE8" s="8" t="inlineStr"/>
+      <c r="EE8" s="6" t="inlineStr"/>
       <c r="EF8" s="8" t="inlineStr"/>
-      <c r="EG8" s="4" t="inlineStr"/>
-      <c r="EH8" s="6" t="inlineStr"/>
+      <c r="EG8" s="8" t="inlineStr"/>
+      <c r="EH8" s="8" t="inlineStr"/>
       <c r="EI8" s="8" t="inlineStr"/>
       <c r="EJ8" s="8" t="inlineStr"/>
       <c r="EK8" s="8" t="inlineStr"/>
       <c r="EL8" s="8" t="inlineStr"/>
+      <c r="EM8" s="4" t="inlineStr"/>
+      <c r="EN8" s="8" t="inlineStr"/>
+      <c r="EO8" s="8" t="inlineStr"/>
+      <c r="EP8" s="4" t="inlineStr"/>
+      <c r="EQ8" s="4" t="inlineStr"/>
+      <c r="ER8" s="6" t="inlineStr"/>
+      <c r="ES8" s="8" t="inlineStr"/>
+      <c r="ET8" s="8" t="inlineStr"/>
+      <c r="EU8" s="8" t="inlineStr"/>
+      <c r="EV8" s="8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
@@ -3183,7 +3385,7 @@
       <c r="V9" s="6" t="inlineStr"/>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X9" s="4" t="n">
@@ -3214,261 +3416,291 @@
       <c r="AG9" s="6" t="inlineStr"/>
       <c r="AH9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI9" s="8" t="inlineStr">
+          <t>ccc221c9a546e3bc9d3d88154274f52d8302748b3d9f7636ddedddae7c012d1d</t>
+        </is>
+      </c>
+      <c r="AI9" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ9" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ9" s="8" t="n">
+      <c r="AK9" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK9" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:18</t>
-        </is>
-      </c>
-      <c r="AL9" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM9" s="8" t="inlineStr">
+      <c r="AL9" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:52</t>
+        </is>
+      </c>
+      <c r="AM9" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN9" s="8" t="inlineStr">
         <is>
           <t>Grotte New collapse 2022, topographie en Plan</t>
         </is>
       </c>
-      <c r="AN9" s="8" t="inlineStr">
+      <c r="AO9" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/New_collapse_2022/Outputs/New_collapse_2022-plan.pdf</t>
         </is>
       </c>
-      <c r="AO9" s="4" t="n">
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t>bdbe75c82389301a7b1a19911336d970f81365f2ab31749a3dc76c85d9b75730</t>
+        </is>
+      </c>
+      <c r="AQ9" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="AP9" s="6" t="inlineStr"/>
-      <c r="AQ9" s="8" t="inlineStr">
+      <c r="AR9" s="6" t="inlineStr"/>
+      <c r="AS9" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR9" s="8" t="inlineStr">
+      <c r="AT9" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS9" s="8" t="inlineStr"/>
-      <c r="AT9" s="8" t="inlineStr">
+      <c r="AU9" s="8" t="inlineStr"/>
+      <c r="AV9" s="8" t="inlineStr">
         <is>
           <t>New collapse 2022 plan</t>
         </is>
       </c>
-      <c r="AU9" s="8" t="inlineStr">
+      <c r="AW9" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AV9" s="8" t="n">
+      <c r="AX9" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="AW9" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AX9" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY9" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AZ9" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA9" s="8" t="inlineStr">
+        <is>
           <t>Polygonale de New collapse 2022 au format google earth</t>
         </is>
       </c>
-      <c r="AZ9" s="8" t="inlineStr">
+      <c r="BB9" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/New_collapse_2022/Outputs/New_collapse_2022-model.kml</t>
         </is>
       </c>
-      <c r="BA9" s="4" t="n">
+      <c r="BC9" s="4" t="inlineStr">
+        <is>
+          <t>3c3702b4c84646071ef1fe89386330454793441743525fdaf65d1a1154e0562a</t>
+        </is>
+      </c>
+      <c r="BD9" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="BB9" s="6" t="inlineStr"/>
-      <c r="BC9" s="8" t="inlineStr">
+      <c r="BE9" s="6" t="inlineStr"/>
+      <c r="BF9" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD9" s="8" t="inlineStr">
+      <c r="BG9" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BE9" s="8" t="inlineStr"/>
-      <c r="BF9" s="8" t="inlineStr">
+      <c r="BH9" s="8" t="inlineStr"/>
+      <c r="BI9" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BG9" s="8" t="inlineStr">
+      <c r="BJ9" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH9" s="8" t="n">
+      <c r="BK9" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI9" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ9" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK9" s="8" t="inlineStr">
+      <c r="BL9" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM9" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN9" s="8" t="inlineStr">
         <is>
           <t>Polygonale de New collapse 2022 au format google earth</t>
         </is>
       </c>
-      <c r="BL9" s="8" t="inlineStr">
+      <c r="BO9" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/New_collapse_2022/Outputs/New_collapse_2022.kml</t>
         </is>
       </c>
-      <c r="BM9" s="4" t="n">
+      <c r="BP9" s="4" t="inlineStr">
+        <is>
+          <t>0d46f70df6f0817480559e74fa6eace05e414aa8d7025da8d5877775716f5af8</t>
+        </is>
+      </c>
+      <c r="BQ9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="BN9" s="6" t="inlineStr"/>
-      <c r="BO9" s="8" t="inlineStr">
+      <c r="BR9" s="6" t="inlineStr"/>
+      <c r="BS9" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP9" s="8" t="inlineStr">
+      <c r="BT9" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ9" s="8" t="inlineStr"/>
-      <c r="BR9" s="8" t="inlineStr">
+      <c r="BU9" s="8" t="inlineStr"/>
+      <c r="BV9" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS9" s="8" t="inlineStr">
+      <c r="BW9" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT9" s="8" t="n">
+      <c r="BX9" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="BU9" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV9" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW9" s="8" t="inlineStr">
+      <c r="BY9" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ9" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA9" s="8" t="inlineStr">
         <is>
           <t>Topo de New collapse 2022 au format Therion</t>
         </is>
       </c>
-      <c r="BX9" s="8" t="inlineStr">
+      <c r="CB9" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/New_collapse_2022/Outputs/New collapse 2022.zip</t>
         </is>
       </c>
-      <c r="BY9" s="4" t="n">
+      <c r="CC9" s="4" t="inlineStr">
+        <is>
+          <t>3b4755b4066a4396275edcf9cb2793ad377aa10e3f4f091f7c7ee2693d2a7de3</t>
+        </is>
+      </c>
+      <c r="CD9" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="BZ9" s="6" t="inlineStr"/>
-      <c r="CA9" s="8" t="inlineStr">
+      <c r="CE9" s="6" t="inlineStr"/>
+      <c r="CF9" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB9" s="8" t="inlineStr">
+      <c r="CG9" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CC9" s="8" t="inlineStr"/>
-      <c r="CD9" s="8" t="inlineStr">
+      <c r="CH9" s="8" t="inlineStr"/>
+      <c r="CI9" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CE9" s="8" t="inlineStr"/>
-      <c r="CF9" s="8" t="inlineStr"/>
-      <c r="CG9" s="8" t="inlineStr"/>
-      <c r="CH9" s="4" t="inlineStr"/>
-      <c r="CI9" s="8" t="inlineStr"/>
       <c r="CJ9" s="8" t="inlineStr"/>
-      <c r="CK9" s="4" t="inlineStr"/>
-      <c r="CL9" s="6" t="inlineStr"/>
-      <c r="CM9" s="8" t="inlineStr"/>
+      <c r="CK9" s="8" t="inlineStr"/>
+      <c r="CL9" s="8" t="inlineStr"/>
+      <c r="CM9" s="4" t="inlineStr"/>
       <c r="CN9" s="8" t="inlineStr"/>
       <c r="CO9" s="8" t="inlineStr"/>
-      <c r="CP9" s="8" t="inlineStr"/>
-      <c r="CQ9" s="8" t="inlineStr"/>
-      <c r="CR9" s="8" t="inlineStr"/>
+      <c r="CP9" s="4" t="inlineStr"/>
+      <c r="CQ9" s="4" t="inlineStr"/>
+      <c r="CR9" s="6" t="inlineStr"/>
       <c r="CS9" s="8" t="inlineStr"/>
-      <c r="CT9" s="4" t="inlineStr"/>
+      <c r="CT9" s="8" t="inlineStr"/>
       <c r="CU9" s="8" t="inlineStr"/>
       <c r="CV9" s="8" t="inlineStr"/>
-      <c r="CW9" s="4" t="inlineStr"/>
-      <c r="CX9" s="6" t="inlineStr"/>
+      <c r="CW9" s="8" t="inlineStr"/>
+      <c r="CX9" s="8" t="inlineStr"/>
       <c r="CY9" s="8" t="inlineStr"/>
-      <c r="CZ9" s="8" t="inlineStr"/>
+      <c r="CZ9" s="4" t="inlineStr"/>
       <c r="DA9" s="8" t="inlineStr"/>
       <c r="DB9" s="8" t="inlineStr"/>
-      <c r="DC9" s="8" t="inlineStr"/>
-      <c r="DD9" s="8" t="inlineStr"/>
-      <c r="DE9" s="8" t="inlineStr"/>
-      <c r="DF9" s="4" t="inlineStr"/>
+      <c r="DC9" s="4" t="inlineStr"/>
+      <c r="DD9" s="4" t="inlineStr"/>
+      <c r="DE9" s="6" t="inlineStr"/>
+      <c r="DF9" s="8" t="inlineStr"/>
       <c r="DG9" s="8" t="inlineStr"/>
       <c r="DH9" s="8" t="inlineStr"/>
-      <c r="DI9" s="4" t="inlineStr"/>
-      <c r="DJ9" s="6" t="inlineStr"/>
+      <c r="DI9" s="8" t="inlineStr"/>
+      <c r="DJ9" s="8" t="inlineStr"/>
       <c r="DK9" s="8" t="inlineStr"/>
       <c r="DL9" s="8" t="inlineStr"/>
-      <c r="DM9" s="8" t="inlineStr"/>
+      <c r="DM9" s="4" t="inlineStr"/>
       <c r="DN9" s="8" t="inlineStr"/>
       <c r="DO9" s="8" t="inlineStr"/>
-      <c r="DP9" s="8" t="inlineStr"/>
-      <c r="DQ9" s="8" t="inlineStr"/>
-      <c r="DR9" s="4" t="inlineStr"/>
+      <c r="DP9" s="4" t="inlineStr"/>
+      <c r="DQ9" s="4" t="inlineStr"/>
+      <c r="DR9" s="6" t="inlineStr"/>
       <c r="DS9" s="8" t="inlineStr"/>
       <c r="DT9" s="8" t="inlineStr"/>
-      <c r="DU9" s="4" t="inlineStr"/>
-      <c r="DV9" s="6" t="inlineStr"/>
+      <c r="DU9" s="8" t="inlineStr"/>
+      <c r="DV9" s="8" t="inlineStr"/>
       <c r="DW9" s="8" t="inlineStr"/>
       <c r="DX9" s="8" t="inlineStr"/>
       <c r="DY9" s="8" t="inlineStr"/>
-      <c r="DZ9" s="8" t="inlineStr"/>
+      <c r="DZ9" s="4" t="inlineStr"/>
       <c r="EA9" s="8" t="inlineStr"/>
       <c r="EB9" s="8" t="inlineStr"/>
-      <c r="EC9" s="8" t="inlineStr"/>
+      <c r="EC9" s="4" t="inlineStr"/>
       <c r="ED9" s="4" t="inlineStr"/>
-      <c r="EE9" s="8" t="inlineStr"/>
+      <c r="EE9" s="6" t="inlineStr"/>
       <c r="EF9" s="8" t="inlineStr"/>
-      <c r="EG9" s="4" t="inlineStr"/>
-      <c r="EH9" s="6" t="inlineStr"/>
+      <c r="EG9" s="8" t="inlineStr"/>
+      <c r="EH9" s="8" t="inlineStr"/>
       <c r="EI9" s="8" t="inlineStr"/>
       <c r="EJ9" s="8" t="inlineStr"/>
       <c r="EK9" s="8" t="inlineStr"/>
       <c r="EL9" s="8" t="inlineStr"/>
+      <c r="EM9" s="4" t="inlineStr"/>
+      <c r="EN9" s="8" t="inlineStr"/>
+      <c r="EO9" s="8" t="inlineStr"/>
+      <c r="EP9" s="4" t="inlineStr"/>
+      <c r="EQ9" s="4" t="inlineStr"/>
+      <c r="ER9" s="6" t="inlineStr"/>
+      <c r="ES9" s="8" t="inlineStr"/>
+      <c r="ET9" s="8" t="inlineStr"/>
+      <c r="EU9" s="8" t="inlineStr"/>
+      <c r="EV9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
@@ -3529,7 +3761,7 @@
       <c r="V10" s="6" t="inlineStr"/>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X10" s="4" t="n">
@@ -3560,293 +3792,327 @@
       <c r="AG10" s="6" t="inlineStr"/>
       <c r="AH10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI10" s="8" t="inlineStr">
+          <t>8f5d2056f8094efe1a888d674454816cc30e3fcd50a3b0e84e0ddd32bb496bbd</t>
+        </is>
+      </c>
+      <c r="AI10" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ10" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ10" s="8" t="n">
+      <c r="AK10" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK10" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:19</t>
-        </is>
-      </c>
-      <c r="AL10" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM10" s="8" t="inlineStr"/>
-      <c r="AN10" s="8" t="inlineStr">
+      <c r="AL10" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:54</t>
+        </is>
+      </c>
+      <c r="AM10" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN10" s="8" t="inlineStr"/>
+      <c r="AO10" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Russes-CA/Outputs/Russes-CA-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO10" s="4" t="n">
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t>213baab255d2d680bfe6fcb65bdae1efedcbaa96c7f3b03cbebba30ae9046de6</t>
+        </is>
+      </c>
+      <c r="AQ10" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AP10" s="6" t="inlineStr"/>
-      <c r="AQ10" s="8" t="inlineStr">
+      <c r="AR10" s="6" t="inlineStr"/>
+      <c r="AS10" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR10" s="8" t="inlineStr">
+      <c r="AT10" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS10" s="8" t="inlineStr"/>
-      <c r="AT10" s="8" t="inlineStr">
+      <c r="AU10" s="8" t="inlineStr"/>
+      <c r="AV10" s="8" t="inlineStr">
         <is>
           <t>Russes-CA coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU10" s="8" t="inlineStr">
+      <c r="AW10" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV10" s="8" t="n">
+      <c r="AX10" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW10" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:20</t>
-        </is>
-      </c>
-      <c r="AX10" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY10" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:20:55</t>
+        </is>
+      </c>
+      <c r="AZ10" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA10" s="8" t="inlineStr">
+        <is>
           <t>Grotte Russes-CA, topographie en Plan</t>
         </is>
       </c>
-      <c r="AZ10" s="8" t="inlineStr">
+      <c r="BB10" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Russes-CA/Outputs/Russes-CA-plan.pdf</t>
         </is>
       </c>
-      <c r="BA10" s="4" t="n">
+      <c r="BC10" s="4" t="inlineStr">
+        <is>
+          <t>014f2126aa75427d07c3ed058f8848bd5bf5e9a7aac4276d1ffff05fa2ec9d09</t>
+        </is>
+      </c>
+      <c r="BD10" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="BB10" s="6" t="inlineStr"/>
-      <c r="BC10" s="8" t="inlineStr">
+      <c r="BE10" s="6" t="inlineStr"/>
+      <c r="BF10" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD10" s="8" t="inlineStr">
+      <c r="BG10" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE10" s="8" t="inlineStr"/>
-      <c r="BF10" s="8" t="inlineStr">
+      <c r="BH10" s="8" t="inlineStr"/>
+      <c r="BI10" s="8" t="inlineStr">
         <is>
           <t>Russes-CA plan</t>
         </is>
       </c>
-      <c r="BG10" s="8" t="inlineStr">
+      <c r="BJ10" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH10" s="8" t="n">
+      <c r="BK10" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI10" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ10" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK10" s="8" t="inlineStr">
+      <c r="BL10" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM10" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN10" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Russes-CA au format google earth</t>
         </is>
       </c>
-      <c r="BL10" s="8" t="inlineStr">
+      <c r="BO10" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Russes-CA/Outputs/Russes-CA-model.kml</t>
         </is>
       </c>
-      <c r="BM10" s="4" t="n">
+      <c r="BP10" s="4" t="inlineStr">
+        <is>
+          <t>28f6a88e5a58f6a82d35eeb59a385c1cfe3e811b8cab2d42afb7bfe724dc32be</t>
+        </is>
+      </c>
+      <c r="BQ10" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="BN10" s="6" t="inlineStr"/>
-      <c r="BO10" s="8" t="inlineStr">
+      <c r="BR10" s="6" t="inlineStr"/>
+      <c r="BS10" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP10" s="8" t="inlineStr">
+      <c r="BT10" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ10" s="8" t="inlineStr"/>
-      <c r="BR10" s="8" t="inlineStr">
+      <c r="BU10" s="8" t="inlineStr"/>
+      <c r="BV10" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS10" s="8" t="inlineStr">
+      <c r="BW10" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT10" s="8" t="n">
+      <c r="BX10" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU10" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV10" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW10" s="8" t="inlineStr">
+      <c r="BY10" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ10" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA10" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Russes-CA au format google earth</t>
         </is>
       </c>
-      <c r="BX10" s="8" t="inlineStr">
+      <c r="CB10" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Russes-CA/Outputs/Russes-CA.kml</t>
         </is>
       </c>
-      <c r="BY10" s="4" t="n">
+      <c r="CC10" s="4" t="inlineStr">
+        <is>
+          <t>fada98c8f031b3a3440df45db34f741b06fc18634a1cd814116e7d8c024a4369</t>
+        </is>
+      </c>
+      <c r="CD10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="BZ10" s="6" t="inlineStr"/>
-      <c r="CA10" s="8" t="inlineStr">
+      <c r="CE10" s="6" t="inlineStr"/>
+      <c r="CF10" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB10" s="8" t="inlineStr">
+      <c r="CG10" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC10" s="8" t="inlineStr"/>
-      <c r="CD10" s="8" t="inlineStr">
+      <c r="CH10" s="8" t="inlineStr"/>
+      <c r="CI10" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE10" s="8" t="inlineStr">
+      <c r="CJ10" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF10" s="8" t="n">
+      <c r="CK10" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG10" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH10" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI10" s="8" t="inlineStr">
+      <c r="CL10" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM10" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN10" s="8" t="inlineStr">
         <is>
           <t>Topo de Russes-CA au format Therion</t>
         </is>
       </c>
-      <c r="CJ10" s="8" t="inlineStr">
+      <c r="CO10" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Russes-CA/Outputs/Russes-CA.zip</t>
         </is>
       </c>
-      <c r="CK10" s="4" t="n">
+      <c r="CP10" s="4" t="inlineStr">
+        <is>
+          <t>da6e40f4f913aa8d6991c0be92c67bd7a4eddb68654c7fbfa4f78400393a5e91</t>
+        </is>
+      </c>
+      <c r="CQ10" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="CL10" s="6" t="inlineStr"/>
-      <c r="CM10" s="8" t="inlineStr">
+      <c r="CR10" s="6" t="inlineStr"/>
+      <c r="CS10" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN10" s="8" t="inlineStr">
+      <c r="CT10" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO10" s="8" t="inlineStr"/>
-      <c r="CP10" s="8" t="inlineStr">
+      <c r="CU10" s="8" t="inlineStr"/>
+      <c r="CV10" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ10" s="8" t="inlineStr"/>
-      <c r="CR10" s="8" t="inlineStr"/>
-      <c r="CS10" s="8" t="inlineStr"/>
-      <c r="CT10" s="4" t="inlineStr"/>
-      <c r="CU10" s="8" t="inlineStr"/>
-      <c r="CV10" s="8" t="inlineStr"/>
-      <c r="CW10" s="4" t="inlineStr"/>
-      <c r="CX10" s="6" t="inlineStr"/>
+      <c r="CW10" s="8" t="inlineStr"/>
+      <c r="CX10" s="8" t="inlineStr"/>
       <c r="CY10" s="8" t="inlineStr"/>
-      <c r="CZ10" s="8" t="inlineStr"/>
+      <c r="CZ10" s="4" t="inlineStr"/>
       <c r="DA10" s="8" t="inlineStr"/>
       <c r="DB10" s="8" t="inlineStr"/>
-      <c r="DC10" s="8" t="inlineStr"/>
-      <c r="DD10" s="8" t="inlineStr"/>
-      <c r="DE10" s="8" t="inlineStr"/>
-      <c r="DF10" s="4" t="inlineStr"/>
+      <c r="DC10" s="4" t="inlineStr"/>
+      <c r="DD10" s="4" t="inlineStr"/>
+      <c r="DE10" s="6" t="inlineStr"/>
+      <c r="DF10" s="8" t="inlineStr"/>
       <c r="DG10" s="8" t="inlineStr"/>
       <c r="DH10" s="8" t="inlineStr"/>
-      <c r="DI10" s="4" t="inlineStr"/>
-      <c r="DJ10" s="6" t="inlineStr"/>
+      <c r="DI10" s="8" t="inlineStr"/>
+      <c r="DJ10" s="8" t="inlineStr"/>
       <c r="DK10" s="8" t="inlineStr"/>
       <c r="DL10" s="8" t="inlineStr"/>
-      <c r="DM10" s="8" t="inlineStr"/>
+      <c r="DM10" s="4" t="inlineStr"/>
       <c r="DN10" s="8" t="inlineStr"/>
       <c r="DO10" s="8" t="inlineStr"/>
-      <c r="DP10" s="8" t="inlineStr"/>
-      <c r="DQ10" s="8" t="inlineStr"/>
-      <c r="DR10" s="4" t="inlineStr"/>
+      <c r="DP10" s="4" t="inlineStr"/>
+      <c r="DQ10" s="4" t="inlineStr"/>
+      <c r="DR10" s="6" t="inlineStr"/>
       <c r="DS10" s="8" t="inlineStr"/>
       <c r="DT10" s="8" t="inlineStr"/>
-      <c r="DU10" s="4" t="inlineStr"/>
-      <c r="DV10" s="6" t="inlineStr"/>
+      <c r="DU10" s="8" t="inlineStr"/>
+      <c r="DV10" s="8" t="inlineStr"/>
       <c r="DW10" s="8" t="inlineStr"/>
       <c r="DX10" s="8" t="inlineStr"/>
       <c r="DY10" s="8" t="inlineStr"/>
-      <c r="DZ10" s="8" t="inlineStr"/>
+      <c r="DZ10" s="4" t="inlineStr"/>
       <c r="EA10" s="8" t="inlineStr"/>
       <c r="EB10" s="8" t="inlineStr"/>
-      <c r="EC10" s="8" t="inlineStr"/>
+      <c r="EC10" s="4" t="inlineStr"/>
       <c r="ED10" s="4" t="inlineStr"/>
-      <c r="EE10" s="8" t="inlineStr"/>
+      <c r="EE10" s="6" t="inlineStr"/>
       <c r="EF10" s="8" t="inlineStr"/>
-      <c r="EG10" s="4" t="inlineStr"/>
-      <c r="EH10" s="6" t="inlineStr"/>
+      <c r="EG10" s="8" t="inlineStr"/>
+      <c r="EH10" s="8" t="inlineStr"/>
       <c r="EI10" s="8" t="inlineStr"/>
       <c r="EJ10" s="8" t="inlineStr"/>
       <c r="EK10" s="8" t="inlineStr"/>
       <c r="EL10" s="8" t="inlineStr"/>
+      <c r="EM10" s="4" t="inlineStr"/>
+      <c r="EN10" s="8" t="inlineStr"/>
+      <c r="EO10" s="8" t="inlineStr"/>
+      <c r="EP10" s="4" t="inlineStr"/>
+      <c r="EQ10" s="4" t="inlineStr"/>
+      <c r="ER10" s="6" t="inlineStr"/>
+      <c r="ES10" s="8" t="inlineStr"/>
+      <c r="ET10" s="8" t="inlineStr"/>
+      <c r="EU10" s="8" t="inlineStr"/>
+      <c r="EV10" s="8" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
@@ -3907,7 +4173,7 @@
       <c r="V11" s="6" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X11" s="4" t="n">
@@ -3938,117 +4204,131 @@
       <c r="AG11" s="6" t="inlineStr"/>
       <c r="AH11" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI11" s="8" t="inlineStr"/>
+          <t>8f5d2056f8094efe1a888d674454816cc30e3fcd50a3b0e84e0ddd32bb496bbd</t>
+        </is>
+      </c>
+      <c r="AI11" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ11" s="8" t="inlineStr"/>
       <c r="AK11" s="8" t="inlineStr"/>
-      <c r="AL11" s="4" t="inlineStr"/>
-      <c r="AM11" s="8" t="inlineStr"/>
+      <c r="AL11" s="8" t="inlineStr"/>
+      <c r="AM11" s="4" t="inlineStr"/>
       <c r="AN11" s="8" t="inlineStr"/>
-      <c r="AO11" s="4" t="inlineStr"/>
-      <c r="AP11" s="6" t="inlineStr"/>
-      <c r="AQ11" s="8" t="inlineStr"/>
-      <c r="AR11" s="8" t="inlineStr"/>
+      <c r="AO11" s="8" t="inlineStr"/>
+      <c r="AP11" s="4" t="inlineStr"/>
+      <c r="AQ11" s="4" t="inlineStr"/>
+      <c r="AR11" s="6" t="inlineStr"/>
       <c r="AS11" s="8" t="inlineStr"/>
       <c r="AT11" s="8" t="inlineStr"/>
       <c r="AU11" s="8" t="inlineStr"/>
       <c r="AV11" s="8" t="inlineStr"/>
       <c r="AW11" s="8" t="inlineStr"/>
-      <c r="AX11" s="4" t="inlineStr"/>
+      <c r="AX11" s="8" t="inlineStr"/>
       <c r="AY11" s="8" t="inlineStr"/>
-      <c r="AZ11" s="8" t="inlineStr"/>
-      <c r="BA11" s="4" t="inlineStr"/>
-      <c r="BB11" s="6" t="inlineStr"/>
-      <c r="BC11" s="8" t="inlineStr"/>
-      <c r="BD11" s="8" t="inlineStr"/>
-      <c r="BE11" s="8" t="inlineStr"/>
+      <c r="AZ11" s="4" t="inlineStr"/>
+      <c r="BA11" s="8" t="inlineStr"/>
+      <c r="BB11" s="8" t="inlineStr"/>
+      <c r="BC11" s="4" t="inlineStr"/>
+      <c r="BD11" s="4" t="inlineStr"/>
+      <c r="BE11" s="6" t="inlineStr"/>
       <c r="BF11" s="8" t="inlineStr"/>
       <c r="BG11" s="8" t="inlineStr"/>
       <c r="BH11" s="8" t="inlineStr"/>
       <c r="BI11" s="8" t="inlineStr"/>
-      <c r="BJ11" s="4" t="inlineStr"/>
+      <c r="BJ11" s="8" t="inlineStr"/>
       <c r="BK11" s="8" t="inlineStr"/>
       <c r="BL11" s="8" t="inlineStr"/>
       <c r="BM11" s="4" t="inlineStr"/>
-      <c r="BN11" s="6" t="inlineStr"/>
+      <c r="BN11" s="8" t="inlineStr"/>
       <c r="BO11" s="8" t="inlineStr"/>
-      <c r="BP11" s="8" t="inlineStr"/>
-      <c r="BQ11" s="8" t="inlineStr"/>
-      <c r="BR11" s="8" t="inlineStr"/>
+      <c r="BP11" s="4" t="inlineStr"/>
+      <c r="BQ11" s="4" t="inlineStr"/>
+      <c r="BR11" s="6" t="inlineStr"/>
       <c r="BS11" s="8" t="inlineStr"/>
       <c r="BT11" s="8" t="inlineStr"/>
       <c r="BU11" s="8" t="inlineStr"/>
-      <c r="BV11" s="4" t="inlineStr"/>
+      <c r="BV11" s="8" t="inlineStr"/>
       <c r="BW11" s="8" t="inlineStr"/>
       <c r="BX11" s="8" t="inlineStr"/>
-      <c r="BY11" s="4" t="inlineStr"/>
-      <c r="BZ11" s="6" t="inlineStr"/>
+      <c r="BY11" s="8" t="inlineStr"/>
+      <c r="BZ11" s="4" t="inlineStr"/>
       <c r="CA11" s="8" t="inlineStr"/>
       <c r="CB11" s="8" t="inlineStr"/>
-      <c r="CC11" s="8" t="inlineStr"/>
-      <c r="CD11" s="8" t="inlineStr"/>
-      <c r="CE11" s="8" t="inlineStr"/>
+      <c r="CC11" s="4" t="inlineStr"/>
+      <c r="CD11" s="4" t="inlineStr"/>
+      <c r="CE11" s="6" t="inlineStr"/>
       <c r="CF11" s="8" t="inlineStr"/>
       <c r="CG11" s="8" t="inlineStr"/>
-      <c r="CH11" s="4" t="inlineStr"/>
+      <c r="CH11" s="8" t="inlineStr"/>
       <c r="CI11" s="8" t="inlineStr"/>
       <c r="CJ11" s="8" t="inlineStr"/>
-      <c r="CK11" s="4" t="inlineStr"/>
-      <c r="CL11" s="6" t="inlineStr"/>
-      <c r="CM11" s="8" t="inlineStr"/>
+      <c r="CK11" s="8" t="inlineStr"/>
+      <c r="CL11" s="8" t="inlineStr"/>
+      <c r="CM11" s="4" t="inlineStr"/>
       <c r="CN11" s="8" t="inlineStr"/>
       <c r="CO11" s="8" t="inlineStr"/>
-      <c r="CP11" s="8" t="inlineStr"/>
-      <c r="CQ11" s="8" t="inlineStr"/>
-      <c r="CR11" s="8" t="inlineStr"/>
+      <c r="CP11" s="4" t="inlineStr"/>
+      <c r="CQ11" s="4" t="inlineStr"/>
+      <c r="CR11" s="6" t="inlineStr"/>
       <c r="CS11" s="8" t="inlineStr"/>
-      <c r="CT11" s="4" t="inlineStr"/>
+      <c r="CT11" s="8" t="inlineStr"/>
       <c r="CU11" s="8" t="inlineStr"/>
       <c r="CV11" s="8" t="inlineStr"/>
-      <c r="CW11" s="4" t="inlineStr"/>
-      <c r="CX11" s="6" t="inlineStr"/>
+      <c r="CW11" s="8" t="inlineStr"/>
+      <c r="CX11" s="8" t="inlineStr"/>
       <c r="CY11" s="8" t="inlineStr"/>
-      <c r="CZ11" s="8" t="inlineStr"/>
+      <c r="CZ11" s="4" t="inlineStr"/>
       <c r="DA11" s="8" t="inlineStr"/>
       <c r="DB11" s="8" t="inlineStr"/>
-      <c r="DC11" s="8" t="inlineStr"/>
-      <c r="DD11" s="8" t="inlineStr"/>
-      <c r="DE11" s="8" t="inlineStr"/>
-      <c r="DF11" s="4" t="inlineStr"/>
+      <c r="DC11" s="4" t="inlineStr"/>
+      <c r="DD11" s="4" t="inlineStr"/>
+      <c r="DE11" s="6" t="inlineStr"/>
+      <c r="DF11" s="8" t="inlineStr"/>
       <c r="DG11" s="8" t="inlineStr"/>
       <c r="DH11" s="8" t="inlineStr"/>
-      <c r="DI11" s="4" t="inlineStr"/>
-      <c r="DJ11" s="6" t="inlineStr"/>
+      <c r="DI11" s="8" t="inlineStr"/>
+      <c r="DJ11" s="8" t="inlineStr"/>
       <c r="DK11" s="8" t="inlineStr"/>
       <c r="DL11" s="8" t="inlineStr"/>
-      <c r="DM11" s="8" t="inlineStr"/>
+      <c r="DM11" s="4" t="inlineStr"/>
       <c r="DN11" s="8" t="inlineStr"/>
       <c r="DO11" s="8" t="inlineStr"/>
-      <c r="DP11" s="8" t="inlineStr"/>
-      <c r="DQ11" s="8" t="inlineStr"/>
-      <c r="DR11" s="4" t="inlineStr"/>
+      <c r="DP11" s="4" t="inlineStr"/>
+      <c r="DQ11" s="4" t="inlineStr"/>
+      <c r="DR11" s="6" t="inlineStr"/>
       <c r="DS11" s="8" t="inlineStr"/>
       <c r="DT11" s="8" t="inlineStr"/>
-      <c r="DU11" s="4" t="inlineStr"/>
-      <c r="DV11" s="6" t="inlineStr"/>
+      <c r="DU11" s="8" t="inlineStr"/>
+      <c r="DV11" s="8" t="inlineStr"/>
       <c r="DW11" s="8" t="inlineStr"/>
       <c r="DX11" s="8" t="inlineStr"/>
       <c r="DY11" s="8" t="inlineStr"/>
-      <c r="DZ11" s="8" t="inlineStr"/>
+      <c r="DZ11" s="4" t="inlineStr"/>
       <c r="EA11" s="8" t="inlineStr"/>
       <c r="EB11" s="8" t="inlineStr"/>
-      <c r="EC11" s="8" t="inlineStr"/>
+      <c r="EC11" s="4" t="inlineStr"/>
       <c r="ED11" s="4" t="inlineStr"/>
-      <c r="EE11" s="8" t="inlineStr"/>
+      <c r="EE11" s="6" t="inlineStr"/>
       <c r="EF11" s="8" t="inlineStr"/>
-      <c r="EG11" s="4" t="inlineStr"/>
-      <c r="EH11" s="6" t="inlineStr"/>
+      <c r="EG11" s="8" t="inlineStr"/>
+      <c r="EH11" s="8" t="inlineStr"/>
       <c r="EI11" s="8" t="inlineStr"/>
       <c r="EJ11" s="8" t="inlineStr"/>
       <c r="EK11" s="8" t="inlineStr"/>
       <c r="EL11" s="8" t="inlineStr"/>
+      <c r="EM11" s="4" t="inlineStr"/>
+      <c r="EN11" s="8" t="inlineStr"/>
+      <c r="EO11" s="8" t="inlineStr"/>
+      <c r="EP11" s="4" t="inlineStr"/>
+      <c r="EQ11" s="4" t="inlineStr"/>
+      <c r="ER11" s="6" t="inlineStr"/>
+      <c r="ES11" s="8" t="inlineStr"/>
+      <c r="ET11" s="8" t="inlineStr"/>
+      <c r="EU11" s="8" t="inlineStr"/>
+      <c r="EV11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
@@ -4109,7 +4389,7 @@
       <c r="V12" s="6" t="inlineStr"/>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X12" s="4" t="n">
@@ -4140,117 +4420,131 @@
       <c r="AG12" s="6" t="inlineStr"/>
       <c r="AH12" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI12" s="8" t="inlineStr"/>
+          <t>8f5d2056f8094efe1a888d674454816cc30e3fcd50a3b0e84e0ddd32bb496bbd</t>
+        </is>
+      </c>
+      <c r="AI12" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ12" s="8" t="inlineStr"/>
       <c r="AK12" s="8" t="inlineStr"/>
-      <c r="AL12" s="4" t="inlineStr"/>
-      <c r="AM12" s="8" t="inlineStr"/>
+      <c r="AL12" s="8" t="inlineStr"/>
+      <c r="AM12" s="4" t="inlineStr"/>
       <c r="AN12" s="8" t="inlineStr"/>
-      <c r="AO12" s="4" t="inlineStr"/>
-      <c r="AP12" s="6" t="inlineStr"/>
-      <c r="AQ12" s="8" t="inlineStr"/>
-      <c r="AR12" s="8" t="inlineStr"/>
+      <c r="AO12" s="8" t="inlineStr"/>
+      <c r="AP12" s="4" t="inlineStr"/>
+      <c r="AQ12" s="4" t="inlineStr"/>
+      <c r="AR12" s="6" t="inlineStr"/>
       <c r="AS12" s="8" t="inlineStr"/>
       <c r="AT12" s="8" t="inlineStr"/>
       <c r="AU12" s="8" t="inlineStr"/>
       <c r="AV12" s="8" t="inlineStr"/>
       <c r="AW12" s="8" t="inlineStr"/>
-      <c r="AX12" s="4" t="inlineStr"/>
+      <c r="AX12" s="8" t="inlineStr"/>
       <c r="AY12" s="8" t="inlineStr"/>
-      <c r="AZ12" s="8" t="inlineStr"/>
-      <c r="BA12" s="4" t="inlineStr"/>
-      <c r="BB12" s="6" t="inlineStr"/>
-      <c r="BC12" s="8" t="inlineStr"/>
-      <c r="BD12" s="8" t="inlineStr"/>
-      <c r="BE12" s="8" t="inlineStr"/>
+      <c r="AZ12" s="4" t="inlineStr"/>
+      <c r="BA12" s="8" t="inlineStr"/>
+      <c r="BB12" s="8" t="inlineStr"/>
+      <c r="BC12" s="4" t="inlineStr"/>
+      <c r="BD12" s="4" t="inlineStr"/>
+      <c r="BE12" s="6" t="inlineStr"/>
       <c r="BF12" s="8" t="inlineStr"/>
       <c r="BG12" s="8" t="inlineStr"/>
       <c r="BH12" s="8" t="inlineStr"/>
       <c r="BI12" s="8" t="inlineStr"/>
-      <c r="BJ12" s="4" t="inlineStr"/>
+      <c r="BJ12" s="8" t="inlineStr"/>
       <c r="BK12" s="8" t="inlineStr"/>
       <c r="BL12" s="8" t="inlineStr"/>
       <c r="BM12" s="4" t="inlineStr"/>
-      <c r="BN12" s="6" t="inlineStr"/>
+      <c r="BN12" s="8" t="inlineStr"/>
       <c r="BO12" s="8" t="inlineStr"/>
-      <c r="BP12" s="8" t="inlineStr"/>
-      <c r="BQ12" s="8" t="inlineStr"/>
-      <c r="BR12" s="8" t="inlineStr"/>
+      <c r="BP12" s="4" t="inlineStr"/>
+      <c r="BQ12" s="4" t="inlineStr"/>
+      <c r="BR12" s="6" t="inlineStr"/>
       <c r="BS12" s="8" t="inlineStr"/>
       <c r="BT12" s="8" t="inlineStr"/>
       <c r="BU12" s="8" t="inlineStr"/>
-      <c r="BV12" s="4" t="inlineStr"/>
+      <c r="BV12" s="8" t="inlineStr"/>
       <c r="BW12" s="8" t="inlineStr"/>
       <c r="BX12" s="8" t="inlineStr"/>
-      <c r="BY12" s="4" t="inlineStr"/>
-      <c r="BZ12" s="6" t="inlineStr"/>
+      <c r="BY12" s="8" t="inlineStr"/>
+      <c r="BZ12" s="4" t="inlineStr"/>
       <c r="CA12" s="8" t="inlineStr"/>
       <c r="CB12" s="8" t="inlineStr"/>
-      <c r="CC12" s="8" t="inlineStr"/>
-      <c r="CD12" s="8" t="inlineStr"/>
-      <c r="CE12" s="8" t="inlineStr"/>
+      <c r="CC12" s="4" t="inlineStr"/>
+      <c r="CD12" s="4" t="inlineStr"/>
+      <c r="CE12" s="6" t="inlineStr"/>
       <c r="CF12" s="8" t="inlineStr"/>
       <c r="CG12" s="8" t="inlineStr"/>
-      <c r="CH12" s="4" t="inlineStr"/>
+      <c r="CH12" s="8" t="inlineStr"/>
       <c r="CI12" s="8" t="inlineStr"/>
       <c r="CJ12" s="8" t="inlineStr"/>
-      <c r="CK12" s="4" t="inlineStr"/>
-      <c r="CL12" s="6" t="inlineStr"/>
-      <c r="CM12" s="8" t="inlineStr"/>
+      <c r="CK12" s="8" t="inlineStr"/>
+      <c r="CL12" s="8" t="inlineStr"/>
+      <c r="CM12" s="4" t="inlineStr"/>
       <c r="CN12" s="8" t="inlineStr"/>
       <c r="CO12" s="8" t="inlineStr"/>
-      <c r="CP12" s="8" t="inlineStr"/>
-      <c r="CQ12" s="8" t="inlineStr"/>
-      <c r="CR12" s="8" t="inlineStr"/>
+      <c r="CP12" s="4" t="inlineStr"/>
+      <c r="CQ12" s="4" t="inlineStr"/>
+      <c r="CR12" s="6" t="inlineStr"/>
       <c r="CS12" s="8" t="inlineStr"/>
-      <c r="CT12" s="4" t="inlineStr"/>
+      <c r="CT12" s="8" t="inlineStr"/>
       <c r="CU12" s="8" t="inlineStr"/>
       <c r="CV12" s="8" t="inlineStr"/>
-      <c r="CW12" s="4" t="inlineStr"/>
-      <c r="CX12" s="6" t="inlineStr"/>
+      <c r="CW12" s="8" t="inlineStr"/>
+      <c r="CX12" s="8" t="inlineStr"/>
       <c r="CY12" s="8" t="inlineStr"/>
-      <c r="CZ12" s="8" t="inlineStr"/>
+      <c r="CZ12" s="4" t="inlineStr"/>
       <c r="DA12" s="8" t="inlineStr"/>
       <c r="DB12" s="8" t="inlineStr"/>
-      <c r="DC12" s="8" t="inlineStr"/>
-      <c r="DD12" s="8" t="inlineStr"/>
-      <c r="DE12" s="8" t="inlineStr"/>
-      <c r="DF12" s="4" t="inlineStr"/>
+      <c r="DC12" s="4" t="inlineStr"/>
+      <c r="DD12" s="4" t="inlineStr"/>
+      <c r="DE12" s="6" t="inlineStr"/>
+      <c r="DF12" s="8" t="inlineStr"/>
       <c r="DG12" s="8" t="inlineStr"/>
       <c r="DH12" s="8" t="inlineStr"/>
-      <c r="DI12" s="4" t="inlineStr"/>
-      <c r="DJ12" s="6" t="inlineStr"/>
+      <c r="DI12" s="8" t="inlineStr"/>
+      <c r="DJ12" s="8" t="inlineStr"/>
       <c r="DK12" s="8" t="inlineStr"/>
       <c r="DL12" s="8" t="inlineStr"/>
-      <c r="DM12" s="8" t="inlineStr"/>
+      <c r="DM12" s="4" t="inlineStr"/>
       <c r="DN12" s="8" t="inlineStr"/>
       <c r="DO12" s="8" t="inlineStr"/>
-      <c r="DP12" s="8" t="inlineStr"/>
-      <c r="DQ12" s="8" t="inlineStr"/>
-      <c r="DR12" s="4" t="inlineStr"/>
+      <c r="DP12" s="4" t="inlineStr"/>
+      <c r="DQ12" s="4" t="inlineStr"/>
+      <c r="DR12" s="6" t="inlineStr"/>
       <c r="DS12" s="8" t="inlineStr"/>
       <c r="DT12" s="8" t="inlineStr"/>
-      <c r="DU12" s="4" t="inlineStr"/>
-      <c r="DV12" s="6" t="inlineStr"/>
+      <c r="DU12" s="8" t="inlineStr"/>
+      <c r="DV12" s="8" t="inlineStr"/>
       <c r="DW12" s="8" t="inlineStr"/>
       <c r="DX12" s="8" t="inlineStr"/>
       <c r="DY12" s="8" t="inlineStr"/>
-      <c r="DZ12" s="8" t="inlineStr"/>
+      <c r="DZ12" s="4" t="inlineStr"/>
       <c r="EA12" s="8" t="inlineStr"/>
       <c r="EB12" s="8" t="inlineStr"/>
-      <c r="EC12" s="8" t="inlineStr"/>
+      <c r="EC12" s="4" t="inlineStr"/>
       <c r="ED12" s="4" t="inlineStr"/>
-      <c r="EE12" s="8" t="inlineStr"/>
+      <c r="EE12" s="6" t="inlineStr"/>
       <c r="EF12" s="8" t="inlineStr"/>
-      <c r="EG12" s="4" t="inlineStr"/>
-      <c r="EH12" s="6" t="inlineStr"/>
+      <c r="EG12" s="8" t="inlineStr"/>
+      <c r="EH12" s="8" t="inlineStr"/>
       <c r="EI12" s="8" t="inlineStr"/>
       <c r="EJ12" s="8" t="inlineStr"/>
       <c r="EK12" s="8" t="inlineStr"/>
       <c r="EL12" s="8" t="inlineStr"/>
+      <c r="EM12" s="4" t="inlineStr"/>
+      <c r="EN12" s="8" t="inlineStr"/>
+      <c r="EO12" s="8" t="inlineStr"/>
+      <c r="EP12" s="4" t="inlineStr"/>
+      <c r="EQ12" s="4" t="inlineStr"/>
+      <c r="ER12" s="6" t="inlineStr"/>
+      <c r="ES12" s="8" t="inlineStr"/>
+      <c r="ET12" s="8" t="inlineStr"/>
+      <c r="EU12" s="8" t="inlineStr"/>
+      <c r="EV12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
@@ -4311,7 +4605,7 @@
       <c r="V13" s="6" t="inlineStr"/>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X13" s="4" t="n">
@@ -4342,293 +4636,327 @@
       <c r="AG13" s="6" t="inlineStr"/>
       <c r="AH13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI13" s="8" t="inlineStr">
+          <t>db4992e12134211da3befb4f0fcd305ecaf67392e9cbde205a5868fa0a0335f7</t>
+        </is>
+      </c>
+      <c r="AI13" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ13" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ13" s="8" t="n">
+      <c r="AK13" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK13" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:24</t>
-        </is>
-      </c>
-      <c r="AL13" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM13" s="8" t="inlineStr"/>
-      <c r="AN13" s="8" t="inlineStr">
+      <c r="AL13" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:58</t>
+        </is>
+      </c>
+      <c r="AM13" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN13" s="8" t="inlineStr"/>
+      <c r="AO13" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Suwly-oyuk/Outputs/Suwly-oyuk-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO13" s="4" t="n">
+      <c r="AP13" s="4" t="inlineStr">
+        <is>
+          <t>ef131ae0014d69de4b79b7ea4fafffff76c5a292c2e2a8cb34970622ada1812e</t>
+        </is>
+      </c>
+      <c r="AQ13" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="AP13" s="6" t="inlineStr"/>
-      <c r="AQ13" s="8" t="inlineStr">
+      <c r="AR13" s="6" t="inlineStr"/>
+      <c r="AS13" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR13" s="8" t="inlineStr">
+      <c r="AT13" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS13" s="8" t="inlineStr"/>
-      <c r="AT13" s="8" t="inlineStr">
+      <c r="AU13" s="8" t="inlineStr"/>
+      <c r="AV13" s="8" t="inlineStr">
         <is>
           <t>Suwly-oyuk coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU13" s="8" t="inlineStr">
+      <c r="AW13" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV13" s="8" t="n">
+      <c r="AX13" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW13" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:26</t>
-        </is>
-      </c>
-      <c r="AX13" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY13" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:21:00</t>
+        </is>
+      </c>
+      <c r="AZ13" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA13" s="8" t="inlineStr">
+        <is>
           <t>Grotte Suwly-oyuk, topographie en Plan</t>
         </is>
       </c>
-      <c r="AZ13" s="8" t="inlineStr">
+      <c r="BB13" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Suwly-oyuk/Outputs/Suwly-oyuk-plan.pdf</t>
         </is>
       </c>
-      <c r="BA13" s="4" t="n">
+      <c r="BC13" s="4" t="inlineStr">
+        <is>
+          <t>55bf2634b2f8b62ad118df6c2e0e165a673888cab2f8c8baca73c1d918d79a81</t>
+        </is>
+      </c>
+      <c r="BD13" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="BB13" s="6" t="inlineStr"/>
-      <c r="BC13" s="8" t="inlineStr">
+      <c r="BE13" s="6" t="inlineStr"/>
+      <c r="BF13" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD13" s="8" t="inlineStr">
+      <c r="BG13" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE13" s="8" t="inlineStr"/>
-      <c r="BF13" s="8" t="inlineStr">
+      <c r="BH13" s="8" t="inlineStr"/>
+      <c r="BI13" s="8" t="inlineStr">
         <is>
           <t>Suwly-oyuk plan</t>
         </is>
       </c>
-      <c r="BG13" s="8" t="inlineStr">
+      <c r="BJ13" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH13" s="8" t="n">
+      <c r="BK13" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI13" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ13" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK13" s="8" t="inlineStr">
+      <c r="BL13" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM13" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN13" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Suwly-oyuk au format google earth</t>
         </is>
       </c>
-      <c r="BL13" s="8" t="inlineStr">
+      <c r="BO13" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Suwly-oyuk/Outputs/Suwly-oyuk-model.kml</t>
         </is>
       </c>
-      <c r="BM13" s="4" t="n">
+      <c r="BP13" s="4" t="inlineStr">
+        <is>
+          <t>ab584cc7a42d07b35b26164796628ea66480388afeec5ba961e664e56f9ac9cb</t>
+        </is>
+      </c>
+      <c r="BQ13" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="BN13" s="6" t="inlineStr"/>
-      <c r="BO13" s="8" t="inlineStr">
+      <c r="BR13" s="6" t="inlineStr"/>
+      <c r="BS13" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP13" s="8" t="inlineStr">
+      <c r="BT13" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ13" s="8" t="inlineStr"/>
-      <c r="BR13" s="8" t="inlineStr">
+      <c r="BU13" s="8" t="inlineStr"/>
+      <c r="BV13" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS13" s="8" t="inlineStr">
+      <c r="BW13" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT13" s="8" t="n">
+      <c r="BX13" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU13" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV13" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW13" s="8" t="inlineStr">
+      <c r="BY13" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ13" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA13" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Suwly-oyuk au format google earth</t>
         </is>
       </c>
-      <c r="BX13" s="8" t="inlineStr">
+      <c r="CB13" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Suwly-oyuk/Outputs/Suwly-oyuk.kml</t>
         </is>
       </c>
-      <c r="BY13" s="4" t="n">
+      <c r="CC13" s="4" t="inlineStr">
+        <is>
+          <t>e0faa501efa8dbc0bcdbec92fefdb9f5ed380572dd9fa738adef0b8217d32626</t>
+        </is>
+      </c>
+      <c r="CD13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="BZ13" s="6" t="inlineStr"/>
-      <c r="CA13" s="8" t="inlineStr">
+      <c r="CE13" s="6" t="inlineStr"/>
+      <c r="CF13" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB13" s="8" t="inlineStr">
+      <c r="CG13" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC13" s="8" t="inlineStr"/>
-      <c r="CD13" s="8" t="inlineStr">
+      <c r="CH13" s="8" t="inlineStr"/>
+      <c r="CI13" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE13" s="8" t="inlineStr">
+      <c r="CJ13" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF13" s="8" t="n">
+      <c r="CK13" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG13" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH13" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI13" s="8" t="inlineStr">
+      <c r="CL13" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM13" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN13" s="8" t="inlineStr">
         <is>
           <t>Topo de Suwly-oyuk au format Therion</t>
         </is>
       </c>
-      <c r="CJ13" s="8" t="inlineStr">
+      <c r="CO13" s="8" t="inlineStr">
         <is>
           <t>Data/Gypse/Suwly-oyuk/Outputs/Suwly-oyuk.zip</t>
         </is>
       </c>
-      <c r="CK13" s="4" t="n">
+      <c r="CP13" s="4" t="inlineStr">
+        <is>
+          <t>fd1ee5e0fc2e7d3339e0630006b48d7b0315a8fe06a207133a68350152b68a30</t>
+        </is>
+      </c>
+      <c r="CQ13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="CL13" s="6" t="inlineStr"/>
-      <c r="CM13" s="8" t="inlineStr">
+      <c r="CR13" s="6" t="inlineStr"/>
+      <c r="CS13" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN13" s="8" t="inlineStr">
+      <c r="CT13" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO13" s="8" t="inlineStr"/>
-      <c r="CP13" s="8" t="inlineStr">
+      <c r="CU13" s="8" t="inlineStr"/>
+      <c r="CV13" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ13" s="8" t="inlineStr"/>
-      <c r="CR13" s="8" t="inlineStr"/>
-      <c r="CS13" s="8" t="inlineStr"/>
-      <c r="CT13" s="4" t="inlineStr"/>
-      <c r="CU13" s="8" t="inlineStr"/>
-      <c r="CV13" s="8" t="inlineStr"/>
-      <c r="CW13" s="4" t="inlineStr"/>
-      <c r="CX13" s="6" t="inlineStr"/>
+      <c r="CW13" s="8" t="inlineStr"/>
+      <c r="CX13" s="8" t="inlineStr"/>
       <c r="CY13" s="8" t="inlineStr"/>
-      <c r="CZ13" s="8" t="inlineStr"/>
+      <c r="CZ13" s="4" t="inlineStr"/>
       <c r="DA13" s="8" t="inlineStr"/>
       <c r="DB13" s="8" t="inlineStr"/>
-      <c r="DC13" s="8" t="inlineStr"/>
-      <c r="DD13" s="8" t="inlineStr"/>
-      <c r="DE13" s="8" t="inlineStr"/>
-      <c r="DF13" s="4" t="inlineStr"/>
+      <c r="DC13" s="4" t="inlineStr"/>
+      <c r="DD13" s="4" t="inlineStr"/>
+      <c r="DE13" s="6" t="inlineStr"/>
+      <c r="DF13" s="8" t="inlineStr"/>
       <c r="DG13" s="8" t="inlineStr"/>
       <c r="DH13" s="8" t="inlineStr"/>
-      <c r="DI13" s="4" t="inlineStr"/>
-      <c r="DJ13" s="6" t="inlineStr"/>
+      <c r="DI13" s="8" t="inlineStr"/>
+      <c r="DJ13" s="8" t="inlineStr"/>
       <c r="DK13" s="8" t="inlineStr"/>
       <c r="DL13" s="8" t="inlineStr"/>
-      <c r="DM13" s="8" t="inlineStr"/>
+      <c r="DM13" s="4" t="inlineStr"/>
       <c r="DN13" s="8" t="inlineStr"/>
       <c r="DO13" s="8" t="inlineStr"/>
-      <c r="DP13" s="8" t="inlineStr"/>
-      <c r="DQ13" s="8" t="inlineStr"/>
-      <c r="DR13" s="4" t="inlineStr"/>
+      <c r="DP13" s="4" t="inlineStr"/>
+      <c r="DQ13" s="4" t="inlineStr"/>
+      <c r="DR13" s="6" t="inlineStr"/>
       <c r="DS13" s="8" t="inlineStr"/>
       <c r="DT13" s="8" t="inlineStr"/>
-      <c r="DU13" s="4" t="inlineStr"/>
-      <c r="DV13" s="6" t="inlineStr"/>
+      <c r="DU13" s="8" t="inlineStr"/>
+      <c r="DV13" s="8" t="inlineStr"/>
       <c r="DW13" s="8" t="inlineStr"/>
       <c r="DX13" s="8" t="inlineStr"/>
       <c r="DY13" s="8" t="inlineStr"/>
-      <c r="DZ13" s="8" t="inlineStr"/>
+      <c r="DZ13" s="4" t="inlineStr"/>
       <c r="EA13" s="8" t="inlineStr"/>
       <c r="EB13" s="8" t="inlineStr"/>
-      <c r="EC13" s="8" t="inlineStr"/>
+      <c r="EC13" s="4" t="inlineStr"/>
       <c r="ED13" s="4" t="inlineStr"/>
-      <c r="EE13" s="8" t="inlineStr"/>
+      <c r="EE13" s="6" t="inlineStr"/>
       <c r="EF13" s="8" t="inlineStr"/>
-      <c r="EG13" s="4" t="inlineStr"/>
-      <c r="EH13" s="6" t="inlineStr"/>
+      <c r="EG13" s="8" t="inlineStr"/>
+      <c r="EH13" s="8" t="inlineStr"/>
       <c r="EI13" s="8" t="inlineStr"/>
       <c r="EJ13" s="8" t="inlineStr"/>
       <c r="EK13" s="8" t="inlineStr"/>
       <c r="EL13" s="8" t="inlineStr"/>
+      <c r="EM13" s="4" t="inlineStr"/>
+      <c r="EN13" s="8" t="inlineStr"/>
+      <c r="EO13" s="8" t="inlineStr"/>
+      <c r="EP13" s="4" t="inlineStr"/>
+      <c r="EQ13" s="4" t="inlineStr"/>
+      <c r="ER13" s="6" t="inlineStr"/>
+      <c r="ES13" s="8" t="inlineStr"/>
+      <c r="ET13" s="8" t="inlineStr"/>
+      <c r="EU13" s="8" t="inlineStr"/>
+      <c r="EV13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
@@ -4689,7 +5017,7 @@
       <c r="V14" s="6" t="inlineStr"/>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X14" s="4" t="n">
@@ -4720,293 +5048,327 @@
       <c r="AG14" s="6" t="inlineStr"/>
       <c r="AH14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI14" s="8" t="inlineStr">
+          <t>4e26f668578ad0d44b5517ae21bdde5b6ae0143ab6d6aaa207308c3bc6a36a1f</t>
+        </is>
+      </c>
+      <c r="AI14" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ14" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ14" s="8" t="n">
+      <c r="AK14" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK14" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:28</t>
-        </is>
-      </c>
-      <c r="AL14" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM14" s="8" t="inlineStr"/>
-      <c r="AN14" s="8" t="inlineStr">
+      <c r="AL14" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:21:02</t>
+        </is>
+      </c>
+      <c r="AM14" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN14" s="8" t="inlineStr"/>
+      <c r="AO14" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Chauve-Souris/Outputs/Chauve-Souris-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO14" s="4" t="n">
+      <c r="AP14" s="4" t="inlineStr">
+        <is>
+          <t>98f0f074ed13eba6c3a2c99735d6cef8743b3f9dcd47c0defe155bb9d02b4f8d</t>
+        </is>
+      </c>
+      <c r="AQ14" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="AP14" s="6" t="inlineStr"/>
-      <c r="AQ14" s="8" t="inlineStr">
+      <c r="AR14" s="6" t="inlineStr"/>
+      <c r="AS14" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR14" s="8" t="inlineStr">
+      <c r="AT14" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS14" s="8" t="inlineStr"/>
-      <c r="AT14" s="8" t="inlineStr">
+      <c r="AU14" s="8" t="inlineStr"/>
+      <c r="AV14" s="8" t="inlineStr">
         <is>
           <t>Chauve-Souris coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU14" s="8" t="inlineStr">
+      <c r="AW14" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV14" s="8" t="n">
+      <c r="AX14" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW14" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:29</t>
-        </is>
-      </c>
-      <c r="AX14" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY14" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:21:02</t>
+        </is>
+      </c>
+      <c r="AZ14" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA14" s="8" t="inlineStr">
+        <is>
           <t>Grotte Chauve-Souris, topographie en Plan</t>
         </is>
       </c>
-      <c r="AZ14" s="8" t="inlineStr">
+      <c r="BB14" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Chauve-Souris/Outputs/Chauve-Souris-plan.pdf</t>
         </is>
       </c>
-      <c r="BA14" s="4" t="n">
+      <c r="BC14" s="4" t="inlineStr">
+        <is>
+          <t>7d2c04c03e7cfb2b61f0cfdb371a6ca2125bd587eba17a102a76fd7121551312</t>
+        </is>
+      </c>
+      <c r="BD14" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="BB14" s="6" t="inlineStr"/>
-      <c r="BC14" s="8" t="inlineStr">
+      <c r="BE14" s="6" t="inlineStr"/>
+      <c r="BF14" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD14" s="8" t="inlineStr">
+      <c r="BG14" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE14" s="8" t="inlineStr"/>
-      <c r="BF14" s="8" t="inlineStr">
+      <c r="BH14" s="8" t="inlineStr"/>
+      <c r="BI14" s="8" t="inlineStr">
         <is>
           <t>Chauve-Souris plan</t>
         </is>
       </c>
-      <c r="BG14" s="8" t="inlineStr">
+      <c r="BJ14" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH14" s="8" t="n">
+      <c r="BK14" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI14" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ14" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK14" s="8" t="inlineStr">
+      <c r="BL14" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM14" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN14" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Grotte des Chauves-Souris au format google earth</t>
         </is>
       </c>
-      <c r="BL14" s="8" t="inlineStr">
+      <c r="BO14" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Chauve-Souris/Outputs/Chauve-Souris-model.kml</t>
         </is>
       </c>
-      <c r="BM14" s="4" t="n">
+      <c r="BP14" s="4" t="inlineStr">
+        <is>
+          <t>dc3c14afd4b1210b505678857bf28746c3423592c3f1f49d548cea867eefbd8b</t>
+        </is>
+      </c>
+      <c r="BQ14" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="BN14" s="6" t="inlineStr"/>
-      <c r="BO14" s="8" t="inlineStr">
+      <c r="BR14" s="6" t="inlineStr"/>
+      <c r="BS14" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP14" s="8" t="inlineStr">
+      <c r="BT14" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ14" s="8" t="inlineStr"/>
-      <c r="BR14" s="8" t="inlineStr">
+      <c r="BU14" s="8" t="inlineStr"/>
+      <c r="BV14" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS14" s="8" t="inlineStr">
+      <c r="BW14" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT14" s="8" t="n">
+      <c r="BX14" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU14" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV14" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW14" s="8" t="inlineStr">
+      <c r="BY14" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ14" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA14" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Grotte des Chauves-Souris au format google earth</t>
         </is>
       </c>
-      <c r="BX14" s="8" t="inlineStr">
+      <c r="CB14" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Chauve-Souris/Outputs/Chauve-Souris.kml</t>
         </is>
       </c>
-      <c r="BY14" s="4" t="n">
+      <c r="CC14" s="4" t="inlineStr">
+        <is>
+          <t>9ad422e4fd8f4f9a89a9801a88dd0f6f9593979165375181965b9335a5c80136</t>
+        </is>
+      </c>
+      <c r="CD14" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="BZ14" s="6" t="inlineStr"/>
-      <c r="CA14" s="8" t="inlineStr">
+      <c r="CE14" s="6" t="inlineStr"/>
+      <c r="CF14" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB14" s="8" t="inlineStr">
+      <c r="CG14" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC14" s="8" t="inlineStr"/>
-      <c r="CD14" s="8" t="inlineStr">
+      <c r="CH14" s="8" t="inlineStr"/>
+      <c r="CI14" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE14" s="8" t="inlineStr">
+      <c r="CJ14" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF14" s="8" t="n">
+      <c r="CK14" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG14" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH14" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI14" s="8" t="inlineStr">
+      <c r="CL14" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM14" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN14" s="8" t="inlineStr">
         <is>
           <t>Topo de Grotte des Chauves-Souris au format Therion</t>
         </is>
       </c>
-      <c r="CJ14" s="8" t="inlineStr">
+      <c r="CO14" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Chauve-Souris/Outputs/Grotte des Chauves-Souris.zip</t>
         </is>
       </c>
-      <c r="CK14" s="4" t="n">
+      <c r="CP14" s="4" t="inlineStr">
+        <is>
+          <t>10d7fe9a832087817eeeca5917e3978b0b104ec6e0b413785d341ff668ea0799</t>
+        </is>
+      </c>
+      <c r="CQ14" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="CL14" s="6" t="inlineStr"/>
-      <c r="CM14" s="8" t="inlineStr">
+      <c r="CR14" s="6" t="inlineStr"/>
+      <c r="CS14" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN14" s="8" t="inlineStr">
+      <c r="CT14" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO14" s="8" t="inlineStr"/>
-      <c r="CP14" s="8" t="inlineStr">
+      <c r="CU14" s="8" t="inlineStr"/>
+      <c r="CV14" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ14" s="8" t="inlineStr"/>
-      <c r="CR14" s="8" t="inlineStr"/>
-      <c r="CS14" s="8" t="inlineStr"/>
-      <c r="CT14" s="4" t="inlineStr"/>
-      <c r="CU14" s="8" t="inlineStr"/>
-      <c r="CV14" s="8" t="inlineStr"/>
-      <c r="CW14" s="4" t="inlineStr"/>
-      <c r="CX14" s="6" t="inlineStr"/>
+      <c r="CW14" s="8" t="inlineStr"/>
+      <c r="CX14" s="8" t="inlineStr"/>
       <c r="CY14" s="8" t="inlineStr"/>
-      <c r="CZ14" s="8" t="inlineStr"/>
+      <c r="CZ14" s="4" t="inlineStr"/>
       <c r="DA14" s="8" t="inlineStr"/>
       <c r="DB14" s="8" t="inlineStr"/>
-      <c r="DC14" s="8" t="inlineStr"/>
-      <c r="DD14" s="8" t="inlineStr"/>
-      <c r="DE14" s="8" t="inlineStr"/>
-      <c r="DF14" s="4" t="inlineStr"/>
+      <c r="DC14" s="4" t="inlineStr"/>
+      <c r="DD14" s="4" t="inlineStr"/>
+      <c r="DE14" s="6" t="inlineStr"/>
+      <c r="DF14" s="8" t="inlineStr"/>
       <c r="DG14" s="8" t="inlineStr"/>
       <c r="DH14" s="8" t="inlineStr"/>
-      <c r="DI14" s="4" t="inlineStr"/>
-      <c r="DJ14" s="6" t="inlineStr"/>
+      <c r="DI14" s="8" t="inlineStr"/>
+      <c r="DJ14" s="8" t="inlineStr"/>
       <c r="DK14" s="8" t="inlineStr"/>
       <c r="DL14" s="8" t="inlineStr"/>
-      <c r="DM14" s="8" t="inlineStr"/>
+      <c r="DM14" s="4" t="inlineStr"/>
       <c r="DN14" s="8" t="inlineStr"/>
       <c r="DO14" s="8" t="inlineStr"/>
-      <c r="DP14" s="8" t="inlineStr"/>
-      <c r="DQ14" s="8" t="inlineStr"/>
-      <c r="DR14" s="4" t="inlineStr"/>
+      <c r="DP14" s="4" t="inlineStr"/>
+      <c r="DQ14" s="4" t="inlineStr"/>
+      <c r="DR14" s="6" t="inlineStr"/>
       <c r="DS14" s="8" t="inlineStr"/>
       <c r="DT14" s="8" t="inlineStr"/>
-      <c r="DU14" s="4" t="inlineStr"/>
-      <c r="DV14" s="6" t="inlineStr"/>
+      <c r="DU14" s="8" t="inlineStr"/>
+      <c r="DV14" s="8" t="inlineStr"/>
       <c r="DW14" s="8" t="inlineStr"/>
       <c r="DX14" s="8" t="inlineStr"/>
       <c r="DY14" s="8" t="inlineStr"/>
-      <c r="DZ14" s="8" t="inlineStr"/>
+      <c r="DZ14" s="4" t="inlineStr"/>
       <c r="EA14" s="8" t="inlineStr"/>
       <c r="EB14" s="8" t="inlineStr"/>
-      <c r="EC14" s="8" t="inlineStr"/>
+      <c r="EC14" s="4" t="inlineStr"/>
       <c r="ED14" s="4" t="inlineStr"/>
-      <c r="EE14" s="8" t="inlineStr"/>
+      <c r="EE14" s="6" t="inlineStr"/>
       <c r="EF14" s="8" t="inlineStr"/>
-      <c r="EG14" s="4" t="inlineStr"/>
-      <c r="EH14" s="6" t="inlineStr"/>
+      <c r="EG14" s="8" t="inlineStr"/>
+      <c r="EH14" s="8" t="inlineStr"/>
       <c r="EI14" s="8" t="inlineStr"/>
       <c r="EJ14" s="8" t="inlineStr"/>
       <c r="EK14" s="8" t="inlineStr"/>
       <c r="EL14" s="8" t="inlineStr"/>
+      <c r="EM14" s="4" t="inlineStr"/>
+      <c r="EN14" s="8" t="inlineStr"/>
+      <c r="EO14" s="8" t="inlineStr"/>
+      <c r="EP14" s="4" t="inlineStr"/>
+      <c r="EQ14" s="4" t="inlineStr"/>
+      <c r="ER14" s="6" t="inlineStr"/>
+      <c r="ES14" s="8" t="inlineStr"/>
+      <c r="ET14" s="8" t="inlineStr"/>
+      <c r="EU14" s="8" t="inlineStr"/>
+      <c r="EV14" s="8" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
@@ -5067,7 +5429,7 @@
       <c r="V15" s="6" t="inlineStr"/>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X15" s="4" t="n">
@@ -5098,289 +5460,323 @@
       <c r="AG15" s="6" t="inlineStr"/>
       <c r="AH15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI15" s="8" t="inlineStr">
+          <t>c3258bbde96b373b041ffe1e9f65f0bcc311c9444932b17ce740d212dd1602b5</t>
+        </is>
+      </c>
+      <c r="AI15" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ15" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ15" s="8" t="n">
+      <c r="AK15" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK15" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:31</t>
-        </is>
-      </c>
-      <c r="AL15" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM15" s="8" t="inlineStr"/>
-      <c r="AN15" s="8" t="inlineStr">
+      <c r="AL15" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:21:05</t>
+        </is>
+      </c>
+      <c r="AM15" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN15" s="8" t="inlineStr"/>
+      <c r="AO15" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Petit-General/Outputs/Petit-General-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO15" s="4" t="n">
+      <c r="AP15" s="4" t="inlineStr">
+        <is>
+          <t>2d69d2325836ce1e44b9cb4ab8e9abe30d5b423e2e389f654c5483c1a1eee7b9</t>
+        </is>
+      </c>
+      <c r="AQ15" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="AP15" s="6" t="inlineStr"/>
-      <c r="AQ15" s="8" t="inlineStr">
+      <c r="AR15" s="6" t="inlineStr"/>
+      <c r="AS15" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR15" s="8" t="inlineStr">
+      <c r="AT15" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS15" s="8" t="inlineStr"/>
-      <c r="AT15" s="8" t="inlineStr">
+      <c r="AU15" s="8" t="inlineStr"/>
+      <c r="AV15" s="8" t="inlineStr">
         <is>
           <t>Petit-General coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU15" s="8" t="inlineStr">
+      <c r="AW15" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV15" s="8" t="n">
+      <c r="AX15" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW15" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:32</t>
-        </is>
-      </c>
-      <c r="AX15" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AY15" s="8" t="inlineStr"/>
-      <c r="AZ15" s="8" t="inlineStr">
+      <c r="AY15" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:21:06</t>
+        </is>
+      </c>
+      <c r="AZ15" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA15" s="8" t="inlineStr"/>
+      <c r="BB15" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Petit-General/Outputs/Petit-General-plan.pdf</t>
         </is>
       </c>
-      <c r="BA15" s="4" t="n">
+      <c r="BC15" s="4" t="inlineStr">
+        <is>
+          <t>f4ea705fd74094483681adb6c78d2cbd6fb531253010059f0ec5670a8ddcf7ce</t>
+        </is>
+      </c>
+      <c r="BD15" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="BB15" s="6" t="inlineStr"/>
-      <c r="BC15" s="8" t="inlineStr">
+      <c r="BE15" s="6" t="inlineStr"/>
+      <c r="BF15" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD15" s="8" t="inlineStr">
+      <c r="BG15" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE15" s="8" t="inlineStr"/>
-      <c r="BF15" s="8" t="inlineStr">
+      <c r="BH15" s="8" t="inlineStr"/>
+      <c r="BI15" s="8" t="inlineStr">
         <is>
           <t>Petit-General plan - 1:1000</t>
         </is>
       </c>
-      <c r="BG15" s="8" t="inlineStr">
+      <c r="BJ15" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH15" s="8" t="n">
+      <c r="BK15" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI15" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ15" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK15" s="8" t="inlineStr">
+      <c r="BL15" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM15" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN15" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Petit-General au format google earth</t>
         </is>
       </c>
-      <c r="BL15" s="8" t="inlineStr">
+      <c r="BO15" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Petit-General/Outputs/Petit-General-model.kml</t>
         </is>
       </c>
-      <c r="BM15" s="4" t="n">
+      <c r="BP15" s="4" t="inlineStr">
+        <is>
+          <t>4ce2ebf73bde5bf3e9e3eeffcd9f06157c59716a5d37acbf1407fe9f8532e1ba</t>
+        </is>
+      </c>
+      <c r="BQ15" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="BN15" s="6" t="inlineStr"/>
-      <c r="BO15" s="8" t="inlineStr">
+      <c r="BR15" s="6" t="inlineStr"/>
+      <c r="BS15" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP15" s="8" t="inlineStr">
+      <c r="BT15" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ15" s="8" t="inlineStr"/>
-      <c r="BR15" s="8" t="inlineStr">
+      <c r="BU15" s="8" t="inlineStr"/>
+      <c r="BV15" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS15" s="8" t="inlineStr">
+      <c r="BW15" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT15" s="8" t="n">
+      <c r="BX15" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU15" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV15" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW15" s="8" t="inlineStr">
+      <c r="BY15" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ15" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA15" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Petit-General au format google earth</t>
         </is>
       </c>
-      <c r="BX15" s="8" t="inlineStr">
+      <c r="CB15" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Petit-General/Outputs/Petit-General.kml</t>
         </is>
       </c>
-      <c r="BY15" s="4" t="n">
+      <c r="CC15" s="4" t="inlineStr">
+        <is>
+          <t>9c1dec3c30874ce2d1a05049536ddbd60e8957fdf3f664110d4ddb0609a6b55a</t>
+        </is>
+      </c>
+      <c r="CD15" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="BZ15" s="6" t="inlineStr"/>
-      <c r="CA15" s="8" t="inlineStr">
+      <c r="CE15" s="6" t="inlineStr"/>
+      <c r="CF15" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB15" s="8" t="inlineStr">
+      <c r="CG15" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC15" s="8" t="inlineStr"/>
-      <c r="CD15" s="8" t="inlineStr">
+      <c r="CH15" s="8" t="inlineStr"/>
+      <c r="CI15" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE15" s="8" t="inlineStr">
+      <c r="CJ15" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF15" s="8" t="n">
+      <c r="CK15" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG15" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH15" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI15" s="8" t="inlineStr">
+      <c r="CL15" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM15" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN15" s="8" t="inlineStr">
         <is>
           <t>Topo de Petit-General au format Therion</t>
         </is>
       </c>
-      <c r="CJ15" s="8" t="inlineStr">
+      <c r="CO15" s="8" t="inlineStr">
         <is>
           <t>Data/Koyten/Data/Petit-General/Outputs/Petit-General.zip</t>
         </is>
       </c>
-      <c r="CK15" s="4" t="n">
+      <c r="CP15" s="4" t="inlineStr">
+        <is>
+          <t>aa927596b680615338b3fd89a1b90481ad9a9eb683e51f677a14d51f3bd5ad33</t>
+        </is>
+      </c>
+      <c r="CQ15" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="CL15" s="6" t="inlineStr"/>
-      <c r="CM15" s="8" t="inlineStr">
+      <c r="CR15" s="6" t="inlineStr"/>
+      <c r="CS15" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN15" s="8" t="inlineStr">
+      <c r="CT15" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO15" s="8" t="inlineStr"/>
-      <c r="CP15" s="8" t="inlineStr">
+      <c r="CU15" s="8" t="inlineStr"/>
+      <c r="CV15" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ15" s="8" t="inlineStr"/>
-      <c r="CR15" s="8" t="inlineStr"/>
-      <c r="CS15" s="8" t="inlineStr"/>
-      <c r="CT15" s="4" t="inlineStr"/>
-      <c r="CU15" s="8" t="inlineStr"/>
-      <c r="CV15" s="8" t="inlineStr"/>
-      <c r="CW15" s="4" t="inlineStr"/>
-      <c r="CX15" s="6" t="inlineStr"/>
+      <c r="CW15" s="8" t="inlineStr"/>
+      <c r="CX15" s="8" t="inlineStr"/>
       <c r="CY15" s="8" t="inlineStr"/>
-      <c r="CZ15" s="8" t="inlineStr"/>
+      <c r="CZ15" s="4" t="inlineStr"/>
       <c r="DA15" s="8" t="inlineStr"/>
       <c r="DB15" s="8" t="inlineStr"/>
-      <c r="DC15" s="8" t="inlineStr"/>
-      <c r="DD15" s="8" t="inlineStr"/>
-      <c r="DE15" s="8" t="inlineStr"/>
-      <c r="DF15" s="4" t="inlineStr"/>
+      <c r="DC15" s="4" t="inlineStr"/>
+      <c r="DD15" s="4" t="inlineStr"/>
+      <c r="DE15" s="6" t="inlineStr"/>
+      <c r="DF15" s="8" t="inlineStr"/>
       <c r="DG15" s="8" t="inlineStr"/>
       <c r="DH15" s="8" t="inlineStr"/>
-      <c r="DI15" s="4" t="inlineStr"/>
-      <c r="DJ15" s="6" t="inlineStr"/>
+      <c r="DI15" s="8" t="inlineStr"/>
+      <c r="DJ15" s="8" t="inlineStr"/>
       <c r="DK15" s="8" t="inlineStr"/>
       <c r="DL15" s="8" t="inlineStr"/>
-      <c r="DM15" s="8" t="inlineStr"/>
+      <c r="DM15" s="4" t="inlineStr"/>
       <c r="DN15" s="8" t="inlineStr"/>
       <c r="DO15" s="8" t="inlineStr"/>
-      <c r="DP15" s="8" t="inlineStr"/>
-      <c r="DQ15" s="8" t="inlineStr"/>
-      <c r="DR15" s="4" t="inlineStr"/>
+      <c r="DP15" s="4" t="inlineStr"/>
+      <c r="DQ15" s="4" t="inlineStr"/>
+      <c r="DR15" s="6" t="inlineStr"/>
       <c r="DS15" s="8" t="inlineStr"/>
       <c r="DT15" s="8" t="inlineStr"/>
-      <c r="DU15" s="4" t="inlineStr"/>
-      <c r="DV15" s="6" t="inlineStr"/>
+      <c r="DU15" s="8" t="inlineStr"/>
+      <c r="DV15" s="8" t="inlineStr"/>
       <c r="DW15" s="8" t="inlineStr"/>
       <c r="DX15" s="8" t="inlineStr"/>
       <c r="DY15" s="8" t="inlineStr"/>
-      <c r="DZ15" s="8" t="inlineStr"/>
+      <c r="DZ15" s="4" t="inlineStr"/>
       <c r="EA15" s="8" t="inlineStr"/>
       <c r="EB15" s="8" t="inlineStr"/>
-      <c r="EC15" s="8" t="inlineStr"/>
+      <c r="EC15" s="4" t="inlineStr"/>
       <c r="ED15" s="4" t="inlineStr"/>
-      <c r="EE15" s="8" t="inlineStr"/>
+      <c r="EE15" s="6" t="inlineStr"/>
       <c r="EF15" s="8" t="inlineStr"/>
-      <c r="EG15" s="4" t="inlineStr"/>
-      <c r="EH15" s="6" t="inlineStr"/>
+      <c r="EG15" s="8" t="inlineStr"/>
+      <c r="EH15" s="8" t="inlineStr"/>
       <c r="EI15" s="8" t="inlineStr"/>
       <c r="EJ15" s="8" t="inlineStr"/>
       <c r="EK15" s="8" t="inlineStr"/>
       <c r="EL15" s="8" t="inlineStr"/>
+      <c r="EM15" s="4" t="inlineStr"/>
+      <c r="EN15" s="8" t="inlineStr"/>
+      <c r="EO15" s="8" t="inlineStr"/>
+      <c r="EP15" s="4" t="inlineStr"/>
+      <c r="EQ15" s="4" t="inlineStr"/>
+      <c r="ER15" s="6" t="inlineStr"/>
+      <c r="ES15" s="8" t="inlineStr"/>
+      <c r="ET15" s="8" t="inlineStr"/>
+      <c r="EU15" s="8" t="inlineStr"/>
+      <c r="EV15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
@@ -5441,7 +5837,7 @@
       <c r="V16" s="6" t="inlineStr"/>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X16" s="4" t="n">
@@ -5472,293 +5868,327 @@
       <c r="AG16" s="6" t="inlineStr"/>
       <c r="AH16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI16" s="8" t="inlineStr">
+          <t>06835077356e939d92f4069214e26684cb3565974a0e950a05c48a5a8494b57f</t>
+        </is>
+      </c>
+      <c r="AI16" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ16" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ16" s="8" t="n">
+      <c r="AK16" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK16" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:34</t>
-        </is>
-      </c>
-      <c r="AL16" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM16" s="8" t="inlineStr"/>
-      <c r="AN16" s="8" t="inlineStr">
+      <c r="AL16" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:21:07</t>
+        </is>
+      </c>
+      <c r="AM16" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN16" s="8" t="inlineStr"/>
+      <c r="AO16" s="8" t="inlineStr">
         <is>
           <t>Data/Nord/Ahmethan/Outputs/Hanaka-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO16" s="4" t="n">
+      <c r="AP16" s="4" t="inlineStr">
+        <is>
+          <t>ff248a2c70640cbfdb4fa5e5c34fb69803c1d20a6338c737c98daed111f05f4f</t>
+        </is>
+      </c>
+      <c r="AQ16" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="AP16" s="6" t="inlineStr"/>
-      <c r="AQ16" s="8" t="inlineStr">
+      <c r="AR16" s="6" t="inlineStr"/>
+      <c r="AS16" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR16" s="8" t="inlineStr">
+      <c r="AT16" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS16" s="8" t="inlineStr"/>
-      <c r="AT16" s="8" t="inlineStr">
+      <c r="AU16" s="8" t="inlineStr"/>
+      <c r="AV16" s="8" t="inlineStr">
         <is>
           <t>Hanaka coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU16" s="8" t="inlineStr">
+      <c r="AW16" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV16" s="8" t="n">
+      <c r="AX16" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW16" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:35</t>
-        </is>
-      </c>
-      <c r="AX16" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY16" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:21:08</t>
+        </is>
+      </c>
+      <c r="AZ16" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA16" s="8" t="inlineStr">
+        <is>
           <t>Grotte Hanaka, topographie en Plan</t>
         </is>
       </c>
-      <c r="AZ16" s="8" t="inlineStr">
+      <c r="BB16" s="8" t="inlineStr">
         <is>
           <t>Data/Nord/Ahmethan/Outputs/Hanaka-plan.pdf</t>
         </is>
       </c>
-      <c r="BA16" s="4" t="n">
+      <c r="BC16" s="4" t="inlineStr">
+        <is>
+          <t>5a416311a78cf5df36ecea6add051cc9a6f1fe780f3f4d3905d8f12826b1960a</t>
+        </is>
+      </c>
+      <c r="BD16" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="BB16" s="6" t="inlineStr"/>
-      <c r="BC16" s="8" t="inlineStr">
+      <c r="BE16" s="6" t="inlineStr"/>
+      <c r="BF16" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD16" s="8" t="inlineStr">
+      <c r="BG16" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE16" s="8" t="inlineStr"/>
-      <c r="BF16" s="8" t="inlineStr">
+      <c r="BH16" s="8" t="inlineStr"/>
+      <c r="BI16" s="8" t="inlineStr">
         <is>
           <t>Hanaka plan - 1:1000</t>
         </is>
       </c>
-      <c r="BG16" s="8" t="inlineStr">
+      <c r="BJ16" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH16" s="8" t="n">
+      <c r="BK16" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI16" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ16" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK16" s="8" t="inlineStr">
+      <c r="BL16" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM16" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN16" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Hanaka au format google earth</t>
         </is>
       </c>
-      <c r="BL16" s="8" t="inlineStr">
+      <c r="BO16" s="8" t="inlineStr">
         <is>
           <t>Data/Nord/Ahmethan/Outputs/Hanaka-model.kml</t>
         </is>
       </c>
-      <c r="BM16" s="4" t="n">
+      <c r="BP16" s="4" t="inlineStr">
+        <is>
+          <t>65a3abad5fe3e1162f2d262524fb397350e865cac759713768b865b63bd2b525</t>
+        </is>
+      </c>
+      <c r="BQ16" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="BN16" s="6" t="inlineStr"/>
-      <c r="BO16" s="8" t="inlineStr">
+      <c r="BR16" s="6" t="inlineStr"/>
+      <c r="BS16" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP16" s="8" t="inlineStr">
+      <c r="BT16" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ16" s="8" t="inlineStr"/>
-      <c r="BR16" s="8" t="inlineStr">
+      <c r="BU16" s="8" t="inlineStr"/>
+      <c r="BV16" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS16" s="8" t="inlineStr">
+      <c r="BW16" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT16" s="8" t="n">
+      <c r="BX16" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU16" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV16" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW16" s="8" t="inlineStr">
+      <c r="BY16" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ16" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA16" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Hanaka au format google earth</t>
         </is>
       </c>
-      <c r="BX16" s="8" t="inlineStr">
+      <c r="CB16" s="8" t="inlineStr">
         <is>
           <t>Data/Nord/Ahmethan/Outputs/Hanaka.kml</t>
         </is>
       </c>
-      <c r="BY16" s="4" t="n">
+      <c r="CC16" s="4" t="inlineStr">
+        <is>
+          <t>cc80d5a07d623f7265602d15a57444d9804e8fa698f8c1eaf3ce7b99c258590a</t>
+        </is>
+      </c>
+      <c r="CD16" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="BZ16" s="6" t="inlineStr"/>
-      <c r="CA16" s="8" t="inlineStr">
+      <c r="CE16" s="6" t="inlineStr"/>
+      <c r="CF16" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB16" s="8" t="inlineStr">
+      <c r="CG16" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC16" s="8" t="inlineStr"/>
-      <c r="CD16" s="8" t="inlineStr">
+      <c r="CH16" s="8" t="inlineStr"/>
+      <c r="CI16" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE16" s="8" t="inlineStr">
+      <c r="CJ16" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF16" s="8" t="n">
+      <c r="CK16" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG16" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH16" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI16" s="8" t="inlineStr">
+      <c r="CL16" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM16" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN16" s="8" t="inlineStr">
         <is>
           <t>Topo de Hanaka au format Therion</t>
         </is>
       </c>
-      <c r="CJ16" s="8" t="inlineStr">
+      <c r="CO16" s="8" t="inlineStr">
         <is>
           <t>Data/Nord/Ahmethan/Outputs/Hanaka.zip</t>
         </is>
       </c>
-      <c r="CK16" s="4" t="n">
+      <c r="CP16" s="4" t="inlineStr">
+        <is>
+          <t>18e0993e32e4f79d512f2ebed457fe03829c8c1b987e887d195c7ec53021e999</t>
+        </is>
+      </c>
+      <c r="CQ16" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="CL16" s="6" t="inlineStr"/>
-      <c r="CM16" s="8" t="inlineStr">
+      <c r="CR16" s="6" t="inlineStr"/>
+      <c r="CS16" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN16" s="8" t="inlineStr">
+      <c r="CT16" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO16" s="8" t="inlineStr"/>
-      <c r="CP16" s="8" t="inlineStr">
+      <c r="CU16" s="8" t="inlineStr"/>
+      <c r="CV16" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ16" s="8" t="inlineStr"/>
-      <c r="CR16" s="8" t="inlineStr"/>
-      <c r="CS16" s="8" t="inlineStr"/>
-      <c r="CT16" s="4" t="inlineStr"/>
-      <c r="CU16" s="8" t="inlineStr"/>
-      <c r="CV16" s="8" t="inlineStr"/>
-      <c r="CW16" s="4" t="inlineStr"/>
-      <c r="CX16" s="6" t="inlineStr"/>
+      <c r="CW16" s="8" t="inlineStr"/>
+      <c r="CX16" s="8" t="inlineStr"/>
       <c r="CY16" s="8" t="inlineStr"/>
-      <c r="CZ16" s="8" t="inlineStr"/>
+      <c r="CZ16" s="4" t="inlineStr"/>
       <c r="DA16" s="8" t="inlineStr"/>
       <c r="DB16" s="8" t="inlineStr"/>
-      <c r="DC16" s="8" t="inlineStr"/>
-      <c r="DD16" s="8" t="inlineStr"/>
-      <c r="DE16" s="8" t="inlineStr"/>
-      <c r="DF16" s="4" t="inlineStr"/>
+      <c r="DC16" s="4" t="inlineStr"/>
+      <c r="DD16" s="4" t="inlineStr"/>
+      <c r="DE16" s="6" t="inlineStr"/>
+      <c r="DF16" s="8" t="inlineStr"/>
       <c r="DG16" s="8" t="inlineStr"/>
       <c r="DH16" s="8" t="inlineStr"/>
-      <c r="DI16" s="4" t="inlineStr"/>
-      <c r="DJ16" s="6" t="inlineStr"/>
+      <c r="DI16" s="8" t="inlineStr"/>
+      <c r="DJ16" s="8" t="inlineStr"/>
       <c r="DK16" s="8" t="inlineStr"/>
       <c r="DL16" s="8" t="inlineStr"/>
-      <c r="DM16" s="8" t="inlineStr"/>
+      <c r="DM16" s="4" t="inlineStr"/>
       <c r="DN16" s="8" t="inlineStr"/>
       <c r="DO16" s="8" t="inlineStr"/>
-      <c r="DP16" s="8" t="inlineStr"/>
-      <c r="DQ16" s="8" t="inlineStr"/>
-      <c r="DR16" s="4" t="inlineStr"/>
+      <c r="DP16" s="4" t="inlineStr"/>
+      <c r="DQ16" s="4" t="inlineStr"/>
+      <c r="DR16" s="6" t="inlineStr"/>
       <c r="DS16" s="8" t="inlineStr"/>
       <c r="DT16" s="8" t="inlineStr"/>
-      <c r="DU16" s="4" t="inlineStr"/>
-      <c r="DV16" s="6" t="inlineStr"/>
+      <c r="DU16" s="8" t="inlineStr"/>
+      <c r="DV16" s="8" t="inlineStr"/>
       <c r="DW16" s="8" t="inlineStr"/>
       <c r="DX16" s="8" t="inlineStr"/>
       <c r="DY16" s="8" t="inlineStr"/>
-      <c r="DZ16" s="8" t="inlineStr"/>
+      <c r="DZ16" s="4" t="inlineStr"/>
       <c r="EA16" s="8" t="inlineStr"/>
       <c r="EB16" s="8" t="inlineStr"/>
-      <c r="EC16" s="8" t="inlineStr"/>
+      <c r="EC16" s="4" t="inlineStr"/>
       <c r="ED16" s="4" t="inlineStr"/>
-      <c r="EE16" s="8" t="inlineStr"/>
+      <c r="EE16" s="6" t="inlineStr"/>
       <c r="EF16" s="8" t="inlineStr"/>
-      <c r="EG16" s="4" t="inlineStr"/>
-      <c r="EH16" s="6" t="inlineStr"/>
+      <c r="EG16" s="8" t="inlineStr"/>
+      <c r="EH16" s="8" t="inlineStr"/>
       <c r="EI16" s="8" t="inlineStr"/>
       <c r="EJ16" s="8" t="inlineStr"/>
       <c r="EK16" s="8" t="inlineStr"/>
       <c r="EL16" s="8" t="inlineStr"/>
+      <c r="EM16" s="4" t="inlineStr"/>
+      <c r="EN16" s="8" t="inlineStr"/>
+      <c r="EO16" s="8" t="inlineStr"/>
+      <c r="EP16" s="4" t="inlineStr"/>
+      <c r="EQ16" s="4" t="inlineStr"/>
+      <c r="ER16" s="6" t="inlineStr"/>
+      <c r="ES16" s="8" t="inlineStr"/>
+      <c r="ET16" s="8" t="inlineStr"/>
+      <c r="EU16" s="8" t="inlineStr"/>
+      <c r="EV16" s="8" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
@@ -5819,7 +6249,7 @@
       <c r="V17" s="6" t="inlineStr"/>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X17" s="4" t="n">
@@ -5850,117 +6280,131 @@
       <c r="AG17" s="6" t="inlineStr"/>
       <c r="AH17" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI17" s="8" t="inlineStr"/>
+          <t>06835077356e939d92f4069214e26684cb3565974a0e950a05c48a5a8494b57f</t>
+        </is>
+      </c>
+      <c r="AI17" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ17" s="8" t="inlineStr"/>
       <c r="AK17" s="8" t="inlineStr"/>
-      <c r="AL17" s="4" t="inlineStr"/>
-      <c r="AM17" s="8" t="inlineStr"/>
+      <c r="AL17" s="8" t="inlineStr"/>
+      <c r="AM17" s="4" t="inlineStr"/>
       <c r="AN17" s="8" t="inlineStr"/>
-      <c r="AO17" s="4" t="inlineStr"/>
-      <c r="AP17" s="6" t="inlineStr"/>
-      <c r="AQ17" s="8" t="inlineStr"/>
-      <c r="AR17" s="8" t="inlineStr"/>
+      <c r="AO17" s="8" t="inlineStr"/>
+      <c r="AP17" s="4" t="inlineStr"/>
+      <c r="AQ17" s="4" t="inlineStr"/>
+      <c r="AR17" s="6" t="inlineStr"/>
       <c r="AS17" s="8" t="inlineStr"/>
       <c r="AT17" s="8" t="inlineStr"/>
       <c r="AU17" s="8" t="inlineStr"/>
       <c r="AV17" s="8" t="inlineStr"/>
       <c r="AW17" s="8" t="inlineStr"/>
-      <c r="AX17" s="4" t="inlineStr"/>
+      <c r="AX17" s="8" t="inlineStr"/>
       <c r="AY17" s="8" t="inlineStr"/>
-      <c r="AZ17" s="8" t="inlineStr"/>
-      <c r="BA17" s="4" t="inlineStr"/>
-      <c r="BB17" s="6" t="inlineStr"/>
-      <c r="BC17" s="8" t="inlineStr"/>
-      <c r="BD17" s="8" t="inlineStr"/>
-      <c r="BE17" s="8" t="inlineStr"/>
+      <c r="AZ17" s="4" t="inlineStr"/>
+      <c r="BA17" s="8" t="inlineStr"/>
+      <c r="BB17" s="8" t="inlineStr"/>
+      <c r="BC17" s="4" t="inlineStr"/>
+      <c r="BD17" s="4" t="inlineStr"/>
+      <c r="BE17" s="6" t="inlineStr"/>
       <c r="BF17" s="8" t="inlineStr"/>
       <c r="BG17" s="8" t="inlineStr"/>
       <c r="BH17" s="8" t="inlineStr"/>
       <c r="BI17" s="8" t="inlineStr"/>
-      <c r="BJ17" s="4" t="inlineStr"/>
+      <c r="BJ17" s="8" t="inlineStr"/>
       <c r="BK17" s="8" t="inlineStr"/>
       <c r="BL17" s="8" t="inlineStr"/>
       <c r="BM17" s="4" t="inlineStr"/>
-      <c r="BN17" s="6" t="inlineStr"/>
+      <c r="BN17" s="8" t="inlineStr"/>
       <c r="BO17" s="8" t="inlineStr"/>
-      <c r="BP17" s="8" t="inlineStr"/>
-      <c r="BQ17" s="8" t="inlineStr"/>
-      <c r="BR17" s="8" t="inlineStr"/>
+      <c r="BP17" s="4" t="inlineStr"/>
+      <c r="BQ17" s="4" t="inlineStr"/>
+      <c r="BR17" s="6" t="inlineStr"/>
       <c r="BS17" s="8" t="inlineStr"/>
       <c r="BT17" s="8" t="inlineStr"/>
       <c r="BU17" s="8" t="inlineStr"/>
-      <c r="BV17" s="4" t="inlineStr"/>
+      <c r="BV17" s="8" t="inlineStr"/>
       <c r="BW17" s="8" t="inlineStr"/>
       <c r="BX17" s="8" t="inlineStr"/>
-      <c r="BY17" s="4" t="inlineStr"/>
-      <c r="BZ17" s="6" t="inlineStr"/>
+      <c r="BY17" s="8" t="inlineStr"/>
+      <c r="BZ17" s="4" t="inlineStr"/>
       <c r="CA17" s="8" t="inlineStr"/>
       <c r="CB17" s="8" t="inlineStr"/>
-      <c r="CC17" s="8" t="inlineStr"/>
-      <c r="CD17" s="8" t="inlineStr"/>
-      <c r="CE17" s="8" t="inlineStr"/>
+      <c r="CC17" s="4" t="inlineStr"/>
+      <c r="CD17" s="4" t="inlineStr"/>
+      <c r="CE17" s="6" t="inlineStr"/>
       <c r="CF17" s="8" t="inlineStr"/>
       <c r="CG17" s="8" t="inlineStr"/>
-      <c r="CH17" s="4" t="inlineStr"/>
+      <c r="CH17" s="8" t="inlineStr"/>
       <c r="CI17" s="8" t="inlineStr"/>
       <c r="CJ17" s="8" t="inlineStr"/>
-      <c r="CK17" s="4" t="inlineStr"/>
-      <c r="CL17" s="6" t="inlineStr"/>
-      <c r="CM17" s="8" t="inlineStr"/>
+      <c r="CK17" s="8" t="inlineStr"/>
+      <c r="CL17" s="8" t="inlineStr"/>
+      <c r="CM17" s="4" t="inlineStr"/>
       <c r="CN17" s="8" t="inlineStr"/>
       <c r="CO17" s="8" t="inlineStr"/>
-      <c r="CP17" s="8" t="inlineStr"/>
-      <c r="CQ17" s="8" t="inlineStr"/>
-      <c r="CR17" s="8" t="inlineStr"/>
+      <c r="CP17" s="4" t="inlineStr"/>
+      <c r="CQ17" s="4" t="inlineStr"/>
+      <c r="CR17" s="6" t="inlineStr"/>
       <c r="CS17" s="8" t="inlineStr"/>
-      <c r="CT17" s="4" t="inlineStr"/>
+      <c r="CT17" s="8" t="inlineStr"/>
       <c r="CU17" s="8" t="inlineStr"/>
       <c r="CV17" s="8" t="inlineStr"/>
-      <c r="CW17" s="4" t="inlineStr"/>
-      <c r="CX17" s="6" t="inlineStr"/>
+      <c r="CW17" s="8" t="inlineStr"/>
+      <c r="CX17" s="8" t="inlineStr"/>
       <c r="CY17" s="8" t="inlineStr"/>
-      <c r="CZ17" s="8" t="inlineStr"/>
+      <c r="CZ17" s="4" t="inlineStr"/>
       <c r="DA17" s="8" t="inlineStr"/>
       <c r="DB17" s="8" t="inlineStr"/>
-      <c r="DC17" s="8" t="inlineStr"/>
-      <c r="DD17" s="8" t="inlineStr"/>
-      <c r="DE17" s="8" t="inlineStr"/>
-      <c r="DF17" s="4" t="inlineStr"/>
+      <c r="DC17" s="4" t="inlineStr"/>
+      <c r="DD17" s="4" t="inlineStr"/>
+      <c r="DE17" s="6" t="inlineStr"/>
+      <c r="DF17" s="8" t="inlineStr"/>
       <c r="DG17" s="8" t="inlineStr"/>
       <c r="DH17" s="8" t="inlineStr"/>
-      <c r="DI17" s="4" t="inlineStr"/>
-      <c r="DJ17" s="6" t="inlineStr"/>
+      <c r="DI17" s="8" t="inlineStr"/>
+      <c r="DJ17" s="8" t="inlineStr"/>
       <c r="DK17" s="8" t="inlineStr"/>
       <c r="DL17" s="8" t="inlineStr"/>
-      <c r="DM17" s="8" t="inlineStr"/>
+      <c r="DM17" s="4" t="inlineStr"/>
       <c r="DN17" s="8" t="inlineStr"/>
       <c r="DO17" s="8" t="inlineStr"/>
-      <c r="DP17" s="8" t="inlineStr"/>
-      <c r="DQ17" s="8" t="inlineStr"/>
-      <c r="DR17" s="4" t="inlineStr"/>
+      <c r="DP17" s="4" t="inlineStr"/>
+      <c r="DQ17" s="4" t="inlineStr"/>
+      <c r="DR17" s="6" t="inlineStr"/>
       <c r="DS17" s="8" t="inlineStr"/>
       <c r="DT17" s="8" t="inlineStr"/>
-      <c r="DU17" s="4" t="inlineStr"/>
-      <c r="DV17" s="6" t="inlineStr"/>
+      <c r="DU17" s="8" t="inlineStr"/>
+      <c r="DV17" s="8" t="inlineStr"/>
       <c r="DW17" s="8" t="inlineStr"/>
       <c r="DX17" s="8" t="inlineStr"/>
       <c r="DY17" s="8" t="inlineStr"/>
-      <c r="DZ17" s="8" t="inlineStr"/>
+      <c r="DZ17" s="4" t="inlineStr"/>
       <c r="EA17" s="8" t="inlineStr"/>
       <c r="EB17" s="8" t="inlineStr"/>
-      <c r="EC17" s="8" t="inlineStr"/>
+      <c r="EC17" s="4" t="inlineStr"/>
       <c r="ED17" s="4" t="inlineStr"/>
-      <c r="EE17" s="8" t="inlineStr"/>
+      <c r="EE17" s="6" t="inlineStr"/>
       <c r="EF17" s="8" t="inlineStr"/>
-      <c r="EG17" s="4" t="inlineStr"/>
-      <c r="EH17" s="6" t="inlineStr"/>
+      <c r="EG17" s="8" t="inlineStr"/>
+      <c r="EH17" s="8" t="inlineStr"/>
       <c r="EI17" s="8" t="inlineStr"/>
       <c r="EJ17" s="8" t="inlineStr"/>
       <c r="EK17" s="8" t="inlineStr"/>
       <c r="EL17" s="8" t="inlineStr"/>
+      <c r="EM17" s="4" t="inlineStr"/>
+      <c r="EN17" s="8" t="inlineStr"/>
+      <c r="EO17" s="8" t="inlineStr"/>
+      <c r="EP17" s="4" t="inlineStr"/>
+      <c r="EQ17" s="4" t="inlineStr"/>
+      <c r="ER17" s="6" t="inlineStr"/>
+      <c r="ES17" s="8" t="inlineStr"/>
+      <c r="ET17" s="8" t="inlineStr"/>
+      <c r="EU17" s="8" t="inlineStr"/>
+      <c r="EV17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
@@ -6021,7 +6465,7 @@
       <c r="V18" s="6" t="inlineStr"/>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X18" s="4" t="n">
@@ -6052,325 +6496,363 @@
       <c r="AG18" s="6" t="inlineStr"/>
       <c r="AH18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI18" s="8" t="inlineStr">
+          <t>fbc393ad54234eb06d3ec3c9c63e8c3c7b2f646bd89ce57062a32e681ab9b6bf</t>
+        </is>
+      </c>
+      <c r="AI18" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ18" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ18" s="8" t="n">
+      <c r="AK18" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK18" s="8" t="inlineStr">
+      <c r="AL18" s="8" t="inlineStr">
         <is>
           <t>2024-07-29 20:27:09</t>
         </is>
       </c>
-      <c r="AL18" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AM18" s="8" t="inlineStr"/>
-      <c r="AN18" s="8" t="inlineStr">
+      <c r="AM18" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN18" s="8" t="inlineStr"/>
+      <c r="AO18" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Chevres/Outputs/Chevres-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO18" s="4" t="n">
+      <c r="AP18" s="4" t="inlineStr">
+        <is>
+          <t>9c9b1d9f40aab0a169b90dc18eb861be51c8c6139ea8688f1f851f6967636aeb</t>
+        </is>
+      </c>
+      <c r="AQ18" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="AP18" s="6" t="inlineStr"/>
-      <c r="AQ18" s="8" t="inlineStr">
+      <c r="AR18" s="6" t="inlineStr"/>
+      <c r="AS18" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR18" s="8" t="inlineStr">
+      <c r="AT18" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS18" s="8" t="inlineStr"/>
-      <c r="AT18" s="8" t="inlineStr">
+      <c r="AU18" s="8" t="inlineStr"/>
+      <c r="AV18" s="8" t="inlineStr">
         <is>
           <t>Chevres coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU18" s="8" t="inlineStr">
+      <c r="AW18" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV18" s="8" t="n">
+      <c r="AX18" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW18" s="8" t="inlineStr">
+      <c r="AY18" s="8" t="inlineStr">
         <is>
           <t>2024-07-29 20:29:27</t>
         </is>
       </c>
-      <c r="AX18" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AY18" s="8" t="inlineStr"/>
-      <c r="AZ18" s="8" t="inlineStr">
+      <c r="AZ18" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA18" s="8" t="inlineStr"/>
+      <c r="BB18" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Chevres/Outputs/Chevres-plan - Old.pdf</t>
         </is>
       </c>
-      <c r="BA18" s="4" t="n">
+      <c r="BC18" s="4" t="inlineStr">
+        <is>
+          <t>f6c7d9d99f6afeda518759aa458cce634a1d8a27848a111690f5d482ffd2f180</t>
+        </is>
+      </c>
+      <c r="BD18" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="BB18" s="6" t="inlineStr"/>
-      <c r="BC18" s="8" t="inlineStr">
+      <c r="BE18" s="6" t="inlineStr"/>
+      <c r="BF18" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD18" s="8" t="inlineStr">
+      <c r="BG18" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE18" s="8" t="inlineStr"/>
-      <c r="BF18" s="8" t="inlineStr">
+      <c r="BH18" s="8" t="inlineStr"/>
+      <c r="BI18" s="8" t="inlineStr">
         <is>
           <t>Chevres plan - 1:1000</t>
         </is>
       </c>
-      <c r="BG18" s="8" t="inlineStr">
+      <c r="BJ18" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="BH18" s="8" t="n">
+      <c r="BK18" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="BI18" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:40</t>
-        </is>
-      </c>
-      <c r="BJ18" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK18" s="8" t="inlineStr">
+      <c r="BL18" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:21:12</t>
+        </is>
+      </c>
+      <c r="BM18" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN18" s="8" t="inlineStr">
         <is>
           <t>Grotte des chèvres (Markhors), topographie en Plan</t>
         </is>
       </c>
-      <c r="BL18" s="8" t="inlineStr">
+      <c r="BO18" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Chevres/Outputs/Chevres-plan.pdf</t>
         </is>
       </c>
-      <c r="BM18" s="4" t="n">
+      <c r="BP18" s="4" t="inlineStr">
+        <is>
+          <t>4f8b1ee178d2c305bce746d4f43cbb274683fb060a19013da03b77364ed12a36</t>
+        </is>
+      </c>
+      <c r="BQ18" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="BN18" s="6" t="inlineStr"/>
-      <c r="BO18" s="8" t="inlineStr">
+      <c r="BR18" s="6" t="inlineStr"/>
+      <c r="BS18" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP18" s="8" t="inlineStr">
+      <c r="BT18" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BQ18" s="8" t="inlineStr"/>
-      <c r="BR18" s="8" t="inlineStr">
+      <c r="BU18" s="8" t="inlineStr"/>
+      <c r="BV18" s="8" t="inlineStr">
         <is>
           <t>Chevres plan - 1:1000</t>
         </is>
       </c>
-      <c r="BS18" s="8" t="inlineStr">
+      <c r="BW18" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT18" s="8" t="n">
+      <c r="BX18" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU18" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV18" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW18" s="8" t="inlineStr">
+      <c r="BY18" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ18" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA18" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Grotte des Chèvres au format google earth</t>
         </is>
       </c>
-      <c r="BX18" s="8" t="inlineStr">
+      <c r="CB18" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Chevres/Outputs/Chevres-model.kml</t>
         </is>
       </c>
-      <c r="BY18" s="4" t="n">
+      <c r="CC18" s="4" t="inlineStr">
+        <is>
+          <t>aed8a86ceb4c27cc1dc6528624416ebc756ffa462955a3f2e0a0efa8a6130226</t>
+        </is>
+      </c>
+      <c r="CD18" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="BZ18" s="6" t="inlineStr"/>
-      <c r="CA18" s="8" t="inlineStr">
+      <c r="CE18" s="6" t="inlineStr"/>
+      <c r="CF18" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB18" s="8" t="inlineStr">
+      <c r="CG18" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC18" s="8" t="inlineStr"/>
-      <c r="CD18" s="8" t="inlineStr">
+      <c r="CH18" s="8" t="inlineStr"/>
+      <c r="CI18" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE18" s="8" t="inlineStr">
+      <c r="CJ18" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF18" s="8" t="n">
+      <c r="CK18" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="CG18" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH18" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI18" s="8" t="inlineStr">
+      <c r="CL18" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM18" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN18" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Grotte des Chèvres au format google earth</t>
         </is>
       </c>
-      <c r="CJ18" s="8" t="inlineStr">
+      <c r="CO18" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Chevres/Outputs/Chevres.kml</t>
         </is>
       </c>
-      <c r="CK18" s="4" t="n">
+      <c r="CP18" s="4" t="inlineStr">
+        <is>
+          <t>83dc7771d2a8126546b01c3f5196a6ae099a3b1a623742ba8d2f64a85d49137f</t>
+        </is>
+      </c>
+      <c r="CQ18" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="CL18" s="6" t="inlineStr"/>
-      <c r="CM18" s="8" t="inlineStr">
+      <c r="CR18" s="6" t="inlineStr"/>
+      <c r="CS18" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN18" s="8" t="inlineStr">
+      <c r="CT18" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CO18" s="8" t="inlineStr"/>
-      <c r="CP18" s="8" t="inlineStr">
+      <c r="CU18" s="8" t="inlineStr"/>
+      <c r="CV18" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CQ18" s="8" t="inlineStr">
+      <c r="CW18" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CR18" s="8" t="n">
+      <c r="CX18" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CS18" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CT18" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CU18" s="8" t="inlineStr">
+      <c r="CY18" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CZ18" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="DA18" s="8" t="inlineStr">
         <is>
           <t>Topo de Grotte des Chèvres au format Therion</t>
         </is>
       </c>
-      <c r="CV18" s="8" t="inlineStr">
+      <c r="DB18" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Chevres/Outputs/Grotte des Chèvres.zip</t>
         </is>
       </c>
-      <c r="CW18" s="4" t="n">
+      <c r="DC18" s="4" t="inlineStr">
+        <is>
+          <t>3957f3f60a7372b8aa9a523eba22534ccaf298db2bc6b505b6d7f6bf8c3b15b1</t>
+        </is>
+      </c>
+      <c r="DD18" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="CX18" s="6" t="inlineStr"/>
-      <c r="CY18" s="8" t="inlineStr">
+      <c r="DE18" s="6" t="inlineStr"/>
+      <c r="DF18" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CZ18" s="8" t="inlineStr">
+      <c r="DG18" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="DA18" s="8" t="inlineStr"/>
-      <c r="DB18" s="8" t="inlineStr">
+      <c r="DH18" s="8" t="inlineStr"/>
+      <c r="DI18" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="DC18" s="8" t="inlineStr"/>
-      <c r="DD18" s="8" t="inlineStr"/>
-      <c r="DE18" s="8" t="inlineStr"/>
-      <c r="DF18" s="4" t="inlineStr"/>
-      <c r="DG18" s="8" t="inlineStr"/>
-      <c r="DH18" s="8" t="inlineStr"/>
-      <c r="DI18" s="4" t="inlineStr"/>
-      <c r="DJ18" s="6" t="inlineStr"/>
+      <c r="DJ18" s="8" t="inlineStr"/>
       <c r="DK18" s="8" t="inlineStr"/>
       <c r="DL18" s="8" t="inlineStr"/>
-      <c r="DM18" s="8" t="inlineStr"/>
+      <c r="DM18" s="4" t="inlineStr"/>
       <c r="DN18" s="8" t="inlineStr"/>
       <c r="DO18" s="8" t="inlineStr"/>
-      <c r="DP18" s="8" t="inlineStr"/>
-      <c r="DQ18" s="8" t="inlineStr"/>
-      <c r="DR18" s="4" t="inlineStr"/>
+      <c r="DP18" s="4" t="inlineStr"/>
+      <c r="DQ18" s="4" t="inlineStr"/>
+      <c r="DR18" s="6" t="inlineStr"/>
       <c r="DS18" s="8" t="inlineStr"/>
       <c r="DT18" s="8" t="inlineStr"/>
-      <c r="DU18" s="4" t="inlineStr"/>
-      <c r="DV18" s="6" t="inlineStr"/>
+      <c r="DU18" s="8" t="inlineStr"/>
+      <c r="DV18" s="8" t="inlineStr"/>
       <c r="DW18" s="8" t="inlineStr"/>
       <c r="DX18" s="8" t="inlineStr"/>
       <c r="DY18" s="8" t="inlineStr"/>
-      <c r="DZ18" s="8" t="inlineStr"/>
+      <c r="DZ18" s="4" t="inlineStr"/>
       <c r="EA18" s="8" t="inlineStr"/>
       <c r="EB18" s="8" t="inlineStr"/>
-      <c r="EC18" s="8" t="inlineStr"/>
+      <c r="EC18" s="4" t="inlineStr"/>
       <c r="ED18" s="4" t="inlineStr"/>
-      <c r="EE18" s="8" t="inlineStr"/>
+      <c r="EE18" s="6" t="inlineStr"/>
       <c r="EF18" s="8" t="inlineStr"/>
-      <c r="EG18" s="4" t="inlineStr"/>
-      <c r="EH18" s="6" t="inlineStr"/>
+      <c r="EG18" s="8" t="inlineStr"/>
+      <c r="EH18" s="8" t="inlineStr"/>
       <c r="EI18" s="8" t="inlineStr"/>
       <c r="EJ18" s="8" t="inlineStr"/>
       <c r="EK18" s="8" t="inlineStr"/>
       <c r="EL18" s="8" t="inlineStr"/>
+      <c r="EM18" s="4" t="inlineStr"/>
+      <c r="EN18" s="8" t="inlineStr"/>
+      <c r="EO18" s="8" t="inlineStr"/>
+      <c r="EP18" s="4" t="inlineStr"/>
+      <c r="EQ18" s="4" t="inlineStr"/>
+      <c r="ER18" s="6" t="inlineStr"/>
+      <c r="ES18" s="8" t="inlineStr"/>
+      <c r="ET18" s="8" t="inlineStr"/>
+      <c r="EU18" s="8" t="inlineStr"/>
+      <c r="EV18" s="8" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
@@ -6431,7 +6913,7 @@
       <c r="V19" s="6" t="inlineStr"/>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X19" s="4" t="n">
@@ -6462,289 +6944,323 @@
       <c r="AG19" s="6" t="inlineStr"/>
       <c r="AH19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI19" s="8" t="inlineStr">
+          <t>97b951ebe2268b75a34558d96213fdff7e703d7a06a1457862927e7eb38de731</t>
+        </is>
+      </c>
+      <c r="AI19" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ19" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ19" s="8" t="n">
+      <c r="AK19" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK19" s="8" t="inlineStr">
+      <c r="AL19" s="8" t="inlineStr">
         <is>
           <t>2025-04-25 23:46:53</t>
         </is>
       </c>
-      <c r="AL19" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AM19" s="8" t="inlineStr"/>
-      <c r="AN19" s="8" t="inlineStr">
+      <c r="AM19" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN19" s="8" t="inlineStr"/>
+      <c r="AO19" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Gap-Gotan/Outputs/Gap-Gotan-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO19" s="4" t="n">
+      <c r="AP19" s="4" t="inlineStr">
+        <is>
+          <t>259eb5372998a99c06c48e57025ee3f2b186c6be6c517394ceac75bc7afaa773</t>
+        </is>
+      </c>
+      <c r="AQ19" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="AP19" s="6" t="inlineStr"/>
-      <c r="AQ19" s="8" t="inlineStr">
+      <c r="AR19" s="6" t="inlineStr"/>
+      <c r="AS19" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR19" s="8" t="inlineStr">
+      <c r="AT19" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS19" s="8" t="inlineStr"/>
-      <c r="AT19" s="8" t="inlineStr">
+      <c r="AU19" s="8" t="inlineStr"/>
+      <c r="AV19" s="8" t="inlineStr">
         <is>
           <t>Gap-Gotan coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU19" s="8" t="inlineStr">
+      <c r="AW19" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV19" s="8" t="n">
+      <c r="AX19" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW19" s="8" t="inlineStr">
+      <c r="AY19" s="8" t="inlineStr">
         <is>
           <t>2024-07-29 20:29:46</t>
         </is>
       </c>
-      <c r="AX19" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AY19" s="8" t="inlineStr"/>
-      <c r="AZ19" s="8" t="inlineStr">
+      <c r="AZ19" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA19" s="8" t="inlineStr"/>
+      <c r="BB19" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Gap-Gotan/Outputs/Gap-Gotan-plan.pdf</t>
         </is>
       </c>
-      <c r="BA19" s="4" t="n">
+      <c r="BC19" s="4" t="inlineStr">
+        <is>
+          <t>ec441e2b5b1b1ee1147c52c365478e0a1ba1c81700c3afccead8d42b6dcc3e5f</t>
+        </is>
+      </c>
+      <c r="BD19" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="BB19" s="6" t="inlineStr"/>
-      <c r="BC19" s="8" t="inlineStr">
+      <c r="BE19" s="6" t="inlineStr"/>
+      <c r="BF19" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD19" s="8" t="inlineStr">
+      <c r="BG19" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE19" s="8" t="inlineStr"/>
-      <c r="BF19" s="8" t="inlineStr">
+      <c r="BH19" s="8" t="inlineStr"/>
+      <c r="BI19" s="8" t="inlineStr">
         <is>
           <t>Gap-Gotan plan - 1:1000</t>
         </is>
       </c>
-      <c r="BG19" s="8" t="inlineStr">
+      <c r="BJ19" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH19" s="8" t="n">
+      <c r="BK19" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI19" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ19" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK19" s="8" t="inlineStr">
+      <c r="BL19" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM19" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN19" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Gap-Gotan au format google earth</t>
         </is>
       </c>
-      <c r="BL19" s="8" t="inlineStr">
+      <c r="BO19" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Gap-Gotan/Outputs/Gap-Gotan-model.kml</t>
         </is>
       </c>
-      <c r="BM19" s="4" t="n">
+      <c r="BP19" s="4" t="inlineStr">
+        <is>
+          <t>9b71d42d35460090727f8997a3a06c699cc4a3e0b59a263d5ba1187bf8de7bd9</t>
+        </is>
+      </c>
+      <c r="BQ19" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="BN19" s="6" t="inlineStr"/>
-      <c r="BO19" s="8" t="inlineStr">
+      <c r="BR19" s="6" t="inlineStr"/>
+      <c r="BS19" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP19" s="8" t="inlineStr">
+      <c r="BT19" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ19" s="8" t="inlineStr"/>
-      <c r="BR19" s="8" t="inlineStr">
+      <c r="BU19" s="8" t="inlineStr"/>
+      <c r="BV19" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS19" s="8" t="inlineStr">
+      <c r="BW19" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT19" s="8" t="n">
+      <c r="BX19" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU19" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV19" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW19" s="8" t="inlineStr">
+      <c r="BY19" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ19" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA19" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Gap-Gotan au format google earth</t>
         </is>
       </c>
-      <c r="BX19" s="8" t="inlineStr">
+      <c r="CB19" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Gap-Gotan/Outputs/Gap-Gotan.kml</t>
         </is>
       </c>
-      <c r="BY19" s="4" t="n">
+      <c r="CC19" s="4" t="inlineStr">
+        <is>
+          <t>0f6d5667d22a5bb2ee709c2ba38aae7712fcf71b7e0e6dd70652e7bfbc3a702a</t>
+        </is>
+      </c>
+      <c r="CD19" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="BZ19" s="6" t="inlineStr"/>
-      <c r="CA19" s="8" t="inlineStr">
+      <c r="CE19" s="6" t="inlineStr"/>
+      <c r="CF19" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB19" s="8" t="inlineStr">
+      <c r="CG19" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC19" s="8" t="inlineStr"/>
-      <c r="CD19" s="8" t="inlineStr">
+      <c r="CH19" s="8" t="inlineStr"/>
+      <c r="CI19" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE19" s="8" t="inlineStr">
+      <c r="CJ19" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF19" s="8" t="n">
+      <c r="CK19" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG19" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH19" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI19" s="8" t="inlineStr">
+      <c r="CL19" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM19" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN19" s="8" t="inlineStr">
         <is>
           <t>Topo de Gap-Gotan au format Therion</t>
         </is>
       </c>
-      <c r="CJ19" s="8" t="inlineStr">
+      <c r="CO19" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Gap-Gotan/Outputs/Gap-Gotan.zip</t>
         </is>
       </c>
-      <c r="CK19" s="4" t="n">
+      <c r="CP19" s="4" t="inlineStr">
+        <is>
+          <t>42634ad59cc0f3302d66a8b9b59e06b84232ddfa12168fe663a245d733727043</t>
+        </is>
+      </c>
+      <c r="CQ19" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="CL19" s="6" t="inlineStr"/>
-      <c r="CM19" s="8" t="inlineStr">
+      <c r="CR19" s="6" t="inlineStr"/>
+      <c r="CS19" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN19" s="8" t="inlineStr">
+      <c r="CT19" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO19" s="8" t="inlineStr"/>
-      <c r="CP19" s="8" t="inlineStr">
+      <c r="CU19" s="8" t="inlineStr"/>
+      <c r="CV19" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ19" s="8" t="inlineStr"/>
-      <c r="CR19" s="8" t="inlineStr"/>
-      <c r="CS19" s="8" t="inlineStr"/>
-      <c r="CT19" s="4" t="inlineStr"/>
-      <c r="CU19" s="8" t="inlineStr"/>
-      <c r="CV19" s="8" t="inlineStr"/>
-      <c r="CW19" s="4" t="inlineStr"/>
-      <c r="CX19" s="6" t="inlineStr"/>
+      <c r="CW19" s="8" t="inlineStr"/>
+      <c r="CX19" s="8" t="inlineStr"/>
       <c r="CY19" s="8" t="inlineStr"/>
-      <c r="CZ19" s="8" t="inlineStr"/>
+      <c r="CZ19" s="4" t="inlineStr"/>
       <c r="DA19" s="8" t="inlineStr"/>
       <c r="DB19" s="8" t="inlineStr"/>
-      <c r="DC19" s="8" t="inlineStr"/>
-      <c r="DD19" s="8" t="inlineStr"/>
-      <c r="DE19" s="8" t="inlineStr"/>
-      <c r="DF19" s="4" t="inlineStr"/>
+      <c r="DC19" s="4" t="inlineStr"/>
+      <c r="DD19" s="4" t="inlineStr"/>
+      <c r="DE19" s="6" t="inlineStr"/>
+      <c r="DF19" s="8" t="inlineStr"/>
       <c r="DG19" s="8" t="inlineStr"/>
       <c r="DH19" s="8" t="inlineStr"/>
-      <c r="DI19" s="4" t="inlineStr"/>
-      <c r="DJ19" s="6" t="inlineStr"/>
+      <c r="DI19" s="8" t="inlineStr"/>
+      <c r="DJ19" s="8" t="inlineStr"/>
       <c r="DK19" s="8" t="inlineStr"/>
       <c r="DL19" s="8" t="inlineStr"/>
-      <c r="DM19" s="8" t="inlineStr"/>
+      <c r="DM19" s="4" t="inlineStr"/>
       <c r="DN19" s="8" t="inlineStr"/>
       <c r="DO19" s="8" t="inlineStr"/>
-      <c r="DP19" s="8" t="inlineStr"/>
-      <c r="DQ19" s="8" t="inlineStr"/>
-      <c r="DR19" s="4" t="inlineStr"/>
+      <c r="DP19" s="4" t="inlineStr"/>
+      <c r="DQ19" s="4" t="inlineStr"/>
+      <c r="DR19" s="6" t="inlineStr"/>
       <c r="DS19" s="8" t="inlineStr"/>
       <c r="DT19" s="8" t="inlineStr"/>
-      <c r="DU19" s="4" t="inlineStr"/>
-      <c r="DV19" s="6" t="inlineStr"/>
+      <c r="DU19" s="8" t="inlineStr"/>
+      <c r="DV19" s="8" t="inlineStr"/>
       <c r="DW19" s="8" t="inlineStr"/>
       <c r="DX19" s="8" t="inlineStr"/>
       <c r="DY19" s="8" t="inlineStr"/>
-      <c r="DZ19" s="8" t="inlineStr"/>
+      <c r="DZ19" s="4" t="inlineStr"/>
       <c r="EA19" s="8" t="inlineStr"/>
       <c r="EB19" s="8" t="inlineStr"/>
-      <c r="EC19" s="8" t="inlineStr"/>
+      <c r="EC19" s="4" t="inlineStr"/>
       <c r="ED19" s="4" t="inlineStr"/>
-      <c r="EE19" s="8" t="inlineStr"/>
+      <c r="EE19" s="6" t="inlineStr"/>
       <c r="EF19" s="8" t="inlineStr"/>
-      <c r="EG19" s="4" t="inlineStr"/>
-      <c r="EH19" s="6" t="inlineStr"/>
+      <c r="EG19" s="8" t="inlineStr"/>
+      <c r="EH19" s="8" t="inlineStr"/>
       <c r="EI19" s="8" t="inlineStr"/>
       <c r="EJ19" s="8" t="inlineStr"/>
       <c r="EK19" s="8" t="inlineStr"/>
       <c r="EL19" s="8" t="inlineStr"/>
+      <c r="EM19" s="4" t="inlineStr"/>
+      <c r="EN19" s="8" t="inlineStr"/>
+      <c r="EO19" s="8" t="inlineStr"/>
+      <c r="EP19" s="4" t="inlineStr"/>
+      <c r="EQ19" s="4" t="inlineStr"/>
+      <c r="ER19" s="6" t="inlineStr"/>
+      <c r="ES19" s="8" t="inlineStr"/>
+      <c r="ET19" s="8" t="inlineStr"/>
+      <c r="EU19" s="8" t="inlineStr"/>
+      <c r="EV19" s="8" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
@@ -6805,7 +7321,7 @@
       <c r="V20" s="6" t="inlineStr"/>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X20" s="4" t="n">
@@ -6836,117 +7352,131 @@
       <c r="AG20" s="6" t="inlineStr"/>
       <c r="AH20" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI20" s="8" t="inlineStr"/>
+          <t>97b951ebe2268b75a34558d96213fdff7e703d7a06a1457862927e7eb38de731</t>
+        </is>
+      </c>
+      <c r="AI20" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ20" s="8" t="inlineStr"/>
       <c r="AK20" s="8" t="inlineStr"/>
-      <c r="AL20" s="4" t="inlineStr"/>
-      <c r="AM20" s="8" t="inlineStr"/>
+      <c r="AL20" s="8" t="inlineStr"/>
+      <c r="AM20" s="4" t="inlineStr"/>
       <c r="AN20" s="8" t="inlineStr"/>
-      <c r="AO20" s="4" t="inlineStr"/>
-      <c r="AP20" s="6" t="inlineStr"/>
-      <c r="AQ20" s="8" t="inlineStr"/>
-      <c r="AR20" s="8" t="inlineStr"/>
+      <c r="AO20" s="8" t="inlineStr"/>
+      <c r="AP20" s="4" t="inlineStr"/>
+      <c r="AQ20" s="4" t="inlineStr"/>
+      <c r="AR20" s="6" t="inlineStr"/>
       <c r="AS20" s="8" t="inlineStr"/>
       <c r="AT20" s="8" t="inlineStr"/>
       <c r="AU20" s="8" t="inlineStr"/>
       <c r="AV20" s="8" t="inlineStr"/>
       <c r="AW20" s="8" t="inlineStr"/>
-      <c r="AX20" s="4" t="inlineStr"/>
+      <c r="AX20" s="8" t="inlineStr"/>
       <c r="AY20" s="8" t="inlineStr"/>
-      <c r="AZ20" s="8" t="inlineStr"/>
-      <c r="BA20" s="4" t="inlineStr"/>
-      <c r="BB20" s="6" t="inlineStr"/>
-      <c r="BC20" s="8" t="inlineStr"/>
-      <c r="BD20" s="8" t="inlineStr"/>
-      <c r="BE20" s="8" t="inlineStr"/>
+      <c r="AZ20" s="4" t="inlineStr"/>
+      <c r="BA20" s="8" t="inlineStr"/>
+      <c r="BB20" s="8" t="inlineStr"/>
+      <c r="BC20" s="4" t="inlineStr"/>
+      <c r="BD20" s="4" t="inlineStr"/>
+      <c r="BE20" s="6" t="inlineStr"/>
       <c r="BF20" s="8" t="inlineStr"/>
       <c r="BG20" s="8" t="inlineStr"/>
       <c r="BH20" s="8" t="inlineStr"/>
       <c r="BI20" s="8" t="inlineStr"/>
-      <c r="BJ20" s="4" t="inlineStr"/>
+      <c r="BJ20" s="8" t="inlineStr"/>
       <c r="BK20" s="8" t="inlineStr"/>
       <c r="BL20" s="8" t="inlineStr"/>
       <c r="BM20" s="4" t="inlineStr"/>
-      <c r="BN20" s="6" t="inlineStr"/>
+      <c r="BN20" s="8" t="inlineStr"/>
       <c r="BO20" s="8" t="inlineStr"/>
-      <c r="BP20" s="8" t="inlineStr"/>
-      <c r="BQ20" s="8" t="inlineStr"/>
-      <c r="BR20" s="8" t="inlineStr"/>
+      <c r="BP20" s="4" t="inlineStr"/>
+      <c r="BQ20" s="4" t="inlineStr"/>
+      <c r="BR20" s="6" t="inlineStr"/>
       <c r="BS20" s="8" t="inlineStr"/>
       <c r="BT20" s="8" t="inlineStr"/>
       <c r="BU20" s="8" t="inlineStr"/>
-      <c r="BV20" s="4" t="inlineStr"/>
+      <c r="BV20" s="8" t="inlineStr"/>
       <c r="BW20" s="8" t="inlineStr"/>
       <c r="BX20" s="8" t="inlineStr"/>
-      <c r="BY20" s="4" t="inlineStr"/>
-      <c r="BZ20" s="6" t="inlineStr"/>
+      <c r="BY20" s="8" t="inlineStr"/>
+      <c r="BZ20" s="4" t="inlineStr"/>
       <c r="CA20" s="8" t="inlineStr"/>
       <c r="CB20" s="8" t="inlineStr"/>
-      <c r="CC20" s="8" t="inlineStr"/>
-      <c r="CD20" s="8" t="inlineStr"/>
-      <c r="CE20" s="8" t="inlineStr"/>
+      <c r="CC20" s="4" t="inlineStr"/>
+      <c r="CD20" s="4" t="inlineStr"/>
+      <c r="CE20" s="6" t="inlineStr"/>
       <c r="CF20" s="8" t="inlineStr"/>
       <c r="CG20" s="8" t="inlineStr"/>
-      <c r="CH20" s="4" t="inlineStr"/>
+      <c r="CH20" s="8" t="inlineStr"/>
       <c r="CI20" s="8" t="inlineStr"/>
       <c r="CJ20" s="8" t="inlineStr"/>
-      <c r="CK20" s="4" t="inlineStr"/>
-      <c r="CL20" s="6" t="inlineStr"/>
-      <c r="CM20" s="8" t="inlineStr"/>
+      <c r="CK20" s="8" t="inlineStr"/>
+      <c r="CL20" s="8" t="inlineStr"/>
+      <c r="CM20" s="4" t="inlineStr"/>
       <c r="CN20" s="8" t="inlineStr"/>
       <c r="CO20" s="8" t="inlineStr"/>
-      <c r="CP20" s="8" t="inlineStr"/>
-      <c r="CQ20" s="8" t="inlineStr"/>
-      <c r="CR20" s="8" t="inlineStr"/>
+      <c r="CP20" s="4" t="inlineStr"/>
+      <c r="CQ20" s="4" t="inlineStr"/>
+      <c r="CR20" s="6" t="inlineStr"/>
       <c r="CS20" s="8" t="inlineStr"/>
-      <c r="CT20" s="4" t="inlineStr"/>
+      <c r="CT20" s="8" t="inlineStr"/>
       <c r="CU20" s="8" t="inlineStr"/>
       <c r="CV20" s="8" t="inlineStr"/>
-      <c r="CW20" s="4" t="inlineStr"/>
-      <c r="CX20" s="6" t="inlineStr"/>
+      <c r="CW20" s="8" t="inlineStr"/>
+      <c r="CX20" s="8" t="inlineStr"/>
       <c r="CY20" s="8" t="inlineStr"/>
-      <c r="CZ20" s="8" t="inlineStr"/>
+      <c r="CZ20" s="4" t="inlineStr"/>
       <c r="DA20" s="8" t="inlineStr"/>
       <c r="DB20" s="8" t="inlineStr"/>
-      <c r="DC20" s="8" t="inlineStr"/>
-      <c r="DD20" s="8" t="inlineStr"/>
-      <c r="DE20" s="8" t="inlineStr"/>
-      <c r="DF20" s="4" t="inlineStr"/>
+      <c r="DC20" s="4" t="inlineStr"/>
+      <c r="DD20" s="4" t="inlineStr"/>
+      <c r="DE20" s="6" t="inlineStr"/>
+      <c r="DF20" s="8" t="inlineStr"/>
       <c r="DG20" s="8" t="inlineStr"/>
       <c r="DH20" s="8" t="inlineStr"/>
-      <c r="DI20" s="4" t="inlineStr"/>
-      <c r="DJ20" s="6" t="inlineStr"/>
+      <c r="DI20" s="8" t="inlineStr"/>
+      <c r="DJ20" s="8" t="inlineStr"/>
       <c r="DK20" s="8" t="inlineStr"/>
       <c r="DL20" s="8" t="inlineStr"/>
-      <c r="DM20" s="8" t="inlineStr"/>
+      <c r="DM20" s="4" t="inlineStr"/>
       <c r="DN20" s="8" t="inlineStr"/>
       <c r="DO20" s="8" t="inlineStr"/>
-      <c r="DP20" s="8" t="inlineStr"/>
-      <c r="DQ20" s="8" t="inlineStr"/>
-      <c r="DR20" s="4" t="inlineStr"/>
+      <c r="DP20" s="4" t="inlineStr"/>
+      <c r="DQ20" s="4" t="inlineStr"/>
+      <c r="DR20" s="6" t="inlineStr"/>
       <c r="DS20" s="8" t="inlineStr"/>
       <c r="DT20" s="8" t="inlineStr"/>
-      <c r="DU20" s="4" t="inlineStr"/>
-      <c r="DV20" s="6" t="inlineStr"/>
+      <c r="DU20" s="8" t="inlineStr"/>
+      <c r="DV20" s="8" t="inlineStr"/>
       <c r="DW20" s="8" t="inlineStr"/>
       <c r="DX20" s="8" t="inlineStr"/>
       <c r="DY20" s="8" t="inlineStr"/>
-      <c r="DZ20" s="8" t="inlineStr"/>
+      <c r="DZ20" s="4" t="inlineStr"/>
       <c r="EA20" s="8" t="inlineStr"/>
       <c r="EB20" s="8" t="inlineStr"/>
-      <c r="EC20" s="8" t="inlineStr"/>
+      <c r="EC20" s="4" t="inlineStr"/>
       <c r="ED20" s="4" t="inlineStr"/>
-      <c r="EE20" s="8" t="inlineStr"/>
+      <c r="EE20" s="6" t="inlineStr"/>
       <c r="EF20" s="8" t="inlineStr"/>
-      <c r="EG20" s="4" t="inlineStr"/>
-      <c r="EH20" s="6" t="inlineStr"/>
+      <c r="EG20" s="8" t="inlineStr"/>
+      <c r="EH20" s="8" t="inlineStr"/>
       <c r="EI20" s="8" t="inlineStr"/>
       <c r="EJ20" s="8" t="inlineStr"/>
       <c r="EK20" s="8" t="inlineStr"/>
       <c r="EL20" s="8" t="inlineStr"/>
+      <c r="EM20" s="4" t="inlineStr"/>
+      <c r="EN20" s="8" t="inlineStr"/>
+      <c r="EO20" s="8" t="inlineStr"/>
+      <c r="EP20" s="4" t="inlineStr"/>
+      <c r="EQ20" s="4" t="inlineStr"/>
+      <c r="ER20" s="6" t="inlineStr"/>
+      <c r="ES20" s="8" t="inlineStr"/>
+      <c r="ET20" s="8" t="inlineStr"/>
+      <c r="EU20" s="8" t="inlineStr"/>
+      <c r="EV20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
@@ -7007,7 +7537,7 @@
       <c r="V21" s="6" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X21" s="4" t="n">
@@ -7038,117 +7568,131 @@
       <c r="AG21" s="6" t="inlineStr"/>
       <c r="AH21" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI21" s="8" t="inlineStr"/>
+          <t>97b951ebe2268b75a34558d96213fdff7e703d7a06a1457862927e7eb38de731</t>
+        </is>
+      </c>
+      <c r="AI21" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ21" s="8" t="inlineStr"/>
       <c r="AK21" s="8" t="inlineStr"/>
-      <c r="AL21" s="4" t="inlineStr"/>
-      <c r="AM21" s="8" t="inlineStr"/>
+      <c r="AL21" s="8" t="inlineStr"/>
+      <c r="AM21" s="4" t="inlineStr"/>
       <c r="AN21" s="8" t="inlineStr"/>
-      <c r="AO21" s="4" t="inlineStr"/>
-      <c r="AP21" s="6" t="inlineStr"/>
-      <c r="AQ21" s="8" t="inlineStr"/>
-      <c r="AR21" s="8" t="inlineStr"/>
+      <c r="AO21" s="8" t="inlineStr"/>
+      <c r="AP21" s="4" t="inlineStr"/>
+      <c r="AQ21" s="4" t="inlineStr"/>
+      <c r="AR21" s="6" t="inlineStr"/>
       <c r="AS21" s="8" t="inlineStr"/>
       <c r="AT21" s="8" t="inlineStr"/>
       <c r="AU21" s="8" t="inlineStr"/>
       <c r="AV21" s="8" t="inlineStr"/>
       <c r="AW21" s="8" t="inlineStr"/>
-      <c r="AX21" s="4" t="inlineStr"/>
+      <c r="AX21" s="8" t="inlineStr"/>
       <c r="AY21" s="8" t="inlineStr"/>
-      <c r="AZ21" s="8" t="inlineStr"/>
-      <c r="BA21" s="4" t="inlineStr"/>
-      <c r="BB21" s="6" t="inlineStr"/>
-      <c r="BC21" s="8" t="inlineStr"/>
-      <c r="BD21" s="8" t="inlineStr"/>
-      <c r="BE21" s="8" t="inlineStr"/>
+      <c r="AZ21" s="4" t="inlineStr"/>
+      <c r="BA21" s="8" t="inlineStr"/>
+      <c r="BB21" s="8" t="inlineStr"/>
+      <c r="BC21" s="4" t="inlineStr"/>
+      <c r="BD21" s="4" t="inlineStr"/>
+      <c r="BE21" s="6" t="inlineStr"/>
       <c r="BF21" s="8" t="inlineStr"/>
       <c r="BG21" s="8" t="inlineStr"/>
       <c r="BH21" s="8" t="inlineStr"/>
       <c r="BI21" s="8" t="inlineStr"/>
-      <c r="BJ21" s="4" t="inlineStr"/>
+      <c r="BJ21" s="8" t="inlineStr"/>
       <c r="BK21" s="8" t="inlineStr"/>
       <c r="BL21" s="8" t="inlineStr"/>
       <c r="BM21" s="4" t="inlineStr"/>
-      <c r="BN21" s="6" t="inlineStr"/>
+      <c r="BN21" s="8" t="inlineStr"/>
       <c r="BO21" s="8" t="inlineStr"/>
-      <c r="BP21" s="8" t="inlineStr"/>
-      <c r="BQ21" s="8" t="inlineStr"/>
-      <c r="BR21" s="8" t="inlineStr"/>
+      <c r="BP21" s="4" t="inlineStr"/>
+      <c r="BQ21" s="4" t="inlineStr"/>
+      <c r="BR21" s="6" t="inlineStr"/>
       <c r="BS21" s="8" t="inlineStr"/>
       <c r="BT21" s="8" t="inlineStr"/>
       <c r="BU21" s="8" t="inlineStr"/>
-      <c r="BV21" s="4" t="inlineStr"/>
+      <c r="BV21" s="8" t="inlineStr"/>
       <c r="BW21" s="8" t="inlineStr"/>
       <c r="BX21" s="8" t="inlineStr"/>
-      <c r="BY21" s="4" t="inlineStr"/>
-      <c r="BZ21" s="6" t="inlineStr"/>
+      <c r="BY21" s="8" t="inlineStr"/>
+      <c r="BZ21" s="4" t="inlineStr"/>
       <c r="CA21" s="8" t="inlineStr"/>
       <c r="CB21" s="8" t="inlineStr"/>
-      <c r="CC21" s="8" t="inlineStr"/>
-      <c r="CD21" s="8" t="inlineStr"/>
-      <c r="CE21" s="8" t="inlineStr"/>
+      <c r="CC21" s="4" t="inlineStr"/>
+      <c r="CD21" s="4" t="inlineStr"/>
+      <c r="CE21" s="6" t="inlineStr"/>
       <c r="CF21" s="8" t="inlineStr"/>
       <c r="CG21" s="8" t="inlineStr"/>
-      <c r="CH21" s="4" t="inlineStr"/>
+      <c r="CH21" s="8" t="inlineStr"/>
       <c r="CI21" s="8" t="inlineStr"/>
       <c r="CJ21" s="8" t="inlineStr"/>
-      <c r="CK21" s="4" t="inlineStr"/>
-      <c r="CL21" s="6" t="inlineStr"/>
-      <c r="CM21" s="8" t="inlineStr"/>
+      <c r="CK21" s="8" t="inlineStr"/>
+      <c r="CL21" s="8" t="inlineStr"/>
+      <c r="CM21" s="4" t="inlineStr"/>
       <c r="CN21" s="8" t="inlineStr"/>
       <c r="CO21" s="8" t="inlineStr"/>
-      <c r="CP21" s="8" t="inlineStr"/>
-      <c r="CQ21" s="8" t="inlineStr"/>
-      <c r="CR21" s="8" t="inlineStr"/>
+      <c r="CP21" s="4" t="inlineStr"/>
+      <c r="CQ21" s="4" t="inlineStr"/>
+      <c r="CR21" s="6" t="inlineStr"/>
       <c r="CS21" s="8" t="inlineStr"/>
-      <c r="CT21" s="4" t="inlineStr"/>
+      <c r="CT21" s="8" t="inlineStr"/>
       <c r="CU21" s="8" t="inlineStr"/>
       <c r="CV21" s="8" t="inlineStr"/>
-      <c r="CW21" s="4" t="inlineStr"/>
-      <c r="CX21" s="6" t="inlineStr"/>
+      <c r="CW21" s="8" t="inlineStr"/>
+      <c r="CX21" s="8" t="inlineStr"/>
       <c r="CY21" s="8" t="inlineStr"/>
-      <c r="CZ21" s="8" t="inlineStr"/>
+      <c r="CZ21" s="4" t="inlineStr"/>
       <c r="DA21" s="8" t="inlineStr"/>
       <c r="DB21" s="8" t="inlineStr"/>
-      <c r="DC21" s="8" t="inlineStr"/>
-      <c r="DD21" s="8" t="inlineStr"/>
-      <c r="DE21" s="8" t="inlineStr"/>
-      <c r="DF21" s="4" t="inlineStr"/>
+      <c r="DC21" s="4" t="inlineStr"/>
+      <c r="DD21" s="4" t="inlineStr"/>
+      <c r="DE21" s="6" t="inlineStr"/>
+      <c r="DF21" s="8" t="inlineStr"/>
       <c r="DG21" s="8" t="inlineStr"/>
       <c r="DH21" s="8" t="inlineStr"/>
-      <c r="DI21" s="4" t="inlineStr"/>
-      <c r="DJ21" s="6" t="inlineStr"/>
+      <c r="DI21" s="8" t="inlineStr"/>
+      <c r="DJ21" s="8" t="inlineStr"/>
       <c r="DK21" s="8" t="inlineStr"/>
       <c r="DL21" s="8" t="inlineStr"/>
-      <c r="DM21" s="8" t="inlineStr"/>
+      <c r="DM21" s="4" t="inlineStr"/>
       <c r="DN21" s="8" t="inlineStr"/>
       <c r="DO21" s="8" t="inlineStr"/>
-      <c r="DP21" s="8" t="inlineStr"/>
-      <c r="DQ21" s="8" t="inlineStr"/>
-      <c r="DR21" s="4" t="inlineStr"/>
+      <c r="DP21" s="4" t="inlineStr"/>
+      <c r="DQ21" s="4" t="inlineStr"/>
+      <c r="DR21" s="6" t="inlineStr"/>
       <c r="DS21" s="8" t="inlineStr"/>
       <c r="DT21" s="8" t="inlineStr"/>
-      <c r="DU21" s="4" t="inlineStr"/>
-      <c r="DV21" s="6" t="inlineStr"/>
+      <c r="DU21" s="8" t="inlineStr"/>
+      <c r="DV21" s="8" t="inlineStr"/>
       <c r="DW21" s="8" t="inlineStr"/>
       <c r="DX21" s="8" t="inlineStr"/>
       <c r="DY21" s="8" t="inlineStr"/>
-      <c r="DZ21" s="8" t="inlineStr"/>
+      <c r="DZ21" s="4" t="inlineStr"/>
       <c r="EA21" s="8" t="inlineStr"/>
       <c r="EB21" s="8" t="inlineStr"/>
-      <c r="EC21" s="8" t="inlineStr"/>
+      <c r="EC21" s="4" t="inlineStr"/>
       <c r="ED21" s="4" t="inlineStr"/>
-      <c r="EE21" s="8" t="inlineStr"/>
+      <c r="EE21" s="6" t="inlineStr"/>
       <c r="EF21" s="8" t="inlineStr"/>
-      <c r="EG21" s="4" t="inlineStr"/>
-      <c r="EH21" s="6" t="inlineStr"/>
+      <c r="EG21" s="8" t="inlineStr"/>
+      <c r="EH21" s="8" t="inlineStr"/>
       <c r="EI21" s="8" t="inlineStr"/>
       <c r="EJ21" s="8" t="inlineStr"/>
       <c r="EK21" s="8" t="inlineStr"/>
       <c r="EL21" s="8" t="inlineStr"/>
+      <c r="EM21" s="4" t="inlineStr"/>
+      <c r="EN21" s="8" t="inlineStr"/>
+      <c r="EO21" s="8" t="inlineStr"/>
+      <c r="EP21" s="4" t="inlineStr"/>
+      <c r="EQ21" s="4" t="inlineStr"/>
+      <c r="ER21" s="6" t="inlineStr"/>
+      <c r="ES21" s="8" t="inlineStr"/>
+      <c r="ET21" s="8" t="inlineStr"/>
+      <c r="EU21" s="8" t="inlineStr"/>
+      <c r="EV21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
@@ -7209,7 +7753,7 @@
       <c r="V22" s="6" t="inlineStr"/>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X22" s="4" t="n">
@@ -7240,117 +7784,131 @@
       <c r="AG22" s="6" t="inlineStr"/>
       <c r="AH22" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI22" s="8" t="inlineStr"/>
+          <t>97b951ebe2268b75a34558d96213fdff7e703d7a06a1457862927e7eb38de731</t>
+        </is>
+      </c>
+      <c r="AI22" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ22" s="8" t="inlineStr"/>
       <c r="AK22" s="8" t="inlineStr"/>
-      <c r="AL22" s="4" t="inlineStr"/>
-      <c r="AM22" s="8" t="inlineStr"/>
+      <c r="AL22" s="8" t="inlineStr"/>
+      <c r="AM22" s="4" t="inlineStr"/>
       <c r="AN22" s="8" t="inlineStr"/>
-      <c r="AO22" s="4" t="inlineStr"/>
-      <c r="AP22" s="6" t="inlineStr"/>
-      <c r="AQ22" s="8" t="inlineStr"/>
-      <c r="AR22" s="8" t="inlineStr"/>
+      <c r="AO22" s="8" t="inlineStr"/>
+      <c r="AP22" s="4" t="inlineStr"/>
+      <c r="AQ22" s="4" t="inlineStr"/>
+      <c r="AR22" s="6" t="inlineStr"/>
       <c r="AS22" s="8" t="inlineStr"/>
       <c r="AT22" s="8" t="inlineStr"/>
       <c r="AU22" s="8" t="inlineStr"/>
       <c r="AV22" s="8" t="inlineStr"/>
       <c r="AW22" s="8" t="inlineStr"/>
-      <c r="AX22" s="4" t="inlineStr"/>
+      <c r="AX22" s="8" t="inlineStr"/>
       <c r="AY22" s="8" t="inlineStr"/>
-      <c r="AZ22" s="8" t="inlineStr"/>
-      <c r="BA22" s="4" t="inlineStr"/>
-      <c r="BB22" s="6" t="inlineStr"/>
-      <c r="BC22" s="8" t="inlineStr"/>
-      <c r="BD22" s="8" t="inlineStr"/>
-      <c r="BE22" s="8" t="inlineStr"/>
+      <c r="AZ22" s="4" t="inlineStr"/>
+      <c r="BA22" s="8" t="inlineStr"/>
+      <c r="BB22" s="8" t="inlineStr"/>
+      <c r="BC22" s="4" t="inlineStr"/>
+      <c r="BD22" s="4" t="inlineStr"/>
+      <c r="BE22" s="6" t="inlineStr"/>
       <c r="BF22" s="8" t="inlineStr"/>
       <c r="BG22" s="8" t="inlineStr"/>
       <c r="BH22" s="8" t="inlineStr"/>
       <c r="BI22" s="8" t="inlineStr"/>
-      <c r="BJ22" s="4" t="inlineStr"/>
+      <c r="BJ22" s="8" t="inlineStr"/>
       <c r="BK22" s="8" t="inlineStr"/>
       <c r="BL22" s="8" t="inlineStr"/>
       <c r="BM22" s="4" t="inlineStr"/>
-      <c r="BN22" s="6" t="inlineStr"/>
+      <c r="BN22" s="8" t="inlineStr"/>
       <c r="BO22" s="8" t="inlineStr"/>
-      <c r="BP22" s="8" t="inlineStr"/>
-      <c r="BQ22" s="8" t="inlineStr"/>
-      <c r="BR22" s="8" t="inlineStr"/>
+      <c r="BP22" s="4" t="inlineStr"/>
+      <c r="BQ22" s="4" t="inlineStr"/>
+      <c r="BR22" s="6" t="inlineStr"/>
       <c r="BS22" s="8" t="inlineStr"/>
       <c r="BT22" s="8" t="inlineStr"/>
       <c r="BU22" s="8" t="inlineStr"/>
-      <c r="BV22" s="4" t="inlineStr"/>
+      <c r="BV22" s="8" t="inlineStr"/>
       <c r="BW22" s="8" t="inlineStr"/>
       <c r="BX22" s="8" t="inlineStr"/>
-      <c r="BY22" s="4" t="inlineStr"/>
-      <c r="BZ22" s="6" t="inlineStr"/>
+      <c r="BY22" s="8" t="inlineStr"/>
+      <c r="BZ22" s="4" t="inlineStr"/>
       <c r="CA22" s="8" t="inlineStr"/>
       <c r="CB22" s="8" t="inlineStr"/>
-      <c r="CC22" s="8" t="inlineStr"/>
-      <c r="CD22" s="8" t="inlineStr"/>
-      <c r="CE22" s="8" t="inlineStr"/>
+      <c r="CC22" s="4" t="inlineStr"/>
+      <c r="CD22" s="4" t="inlineStr"/>
+      <c r="CE22" s="6" t="inlineStr"/>
       <c r="CF22" s="8" t="inlineStr"/>
       <c r="CG22" s="8" t="inlineStr"/>
-      <c r="CH22" s="4" t="inlineStr"/>
+      <c r="CH22" s="8" t="inlineStr"/>
       <c r="CI22" s="8" t="inlineStr"/>
       <c r="CJ22" s="8" t="inlineStr"/>
-      <c r="CK22" s="4" t="inlineStr"/>
-      <c r="CL22" s="6" t="inlineStr"/>
-      <c r="CM22" s="8" t="inlineStr"/>
+      <c r="CK22" s="8" t="inlineStr"/>
+      <c r="CL22" s="8" t="inlineStr"/>
+      <c r="CM22" s="4" t="inlineStr"/>
       <c r="CN22" s="8" t="inlineStr"/>
       <c r="CO22" s="8" t="inlineStr"/>
-      <c r="CP22" s="8" t="inlineStr"/>
-      <c r="CQ22" s="8" t="inlineStr"/>
-      <c r="CR22" s="8" t="inlineStr"/>
+      <c r="CP22" s="4" t="inlineStr"/>
+      <c r="CQ22" s="4" t="inlineStr"/>
+      <c r="CR22" s="6" t="inlineStr"/>
       <c r="CS22" s="8" t="inlineStr"/>
-      <c r="CT22" s="4" t="inlineStr"/>
+      <c r="CT22" s="8" t="inlineStr"/>
       <c r="CU22" s="8" t="inlineStr"/>
       <c r="CV22" s="8" t="inlineStr"/>
-      <c r="CW22" s="4" t="inlineStr"/>
-      <c r="CX22" s="6" t="inlineStr"/>
+      <c r="CW22" s="8" t="inlineStr"/>
+      <c r="CX22" s="8" t="inlineStr"/>
       <c r="CY22" s="8" t="inlineStr"/>
-      <c r="CZ22" s="8" t="inlineStr"/>
+      <c r="CZ22" s="4" t="inlineStr"/>
       <c r="DA22" s="8" t="inlineStr"/>
       <c r="DB22" s="8" t="inlineStr"/>
-      <c r="DC22" s="8" t="inlineStr"/>
-      <c r="DD22" s="8" t="inlineStr"/>
-      <c r="DE22" s="8" t="inlineStr"/>
-      <c r="DF22" s="4" t="inlineStr"/>
+      <c r="DC22" s="4" t="inlineStr"/>
+      <c r="DD22" s="4" t="inlineStr"/>
+      <c r="DE22" s="6" t="inlineStr"/>
+      <c r="DF22" s="8" t="inlineStr"/>
       <c r="DG22" s="8" t="inlineStr"/>
       <c r="DH22" s="8" t="inlineStr"/>
-      <c r="DI22" s="4" t="inlineStr"/>
-      <c r="DJ22" s="6" t="inlineStr"/>
+      <c r="DI22" s="8" t="inlineStr"/>
+      <c r="DJ22" s="8" t="inlineStr"/>
       <c r="DK22" s="8" t="inlineStr"/>
       <c r="DL22" s="8" t="inlineStr"/>
-      <c r="DM22" s="8" t="inlineStr"/>
+      <c r="DM22" s="4" t="inlineStr"/>
       <c r="DN22" s="8" t="inlineStr"/>
       <c r="DO22" s="8" t="inlineStr"/>
-      <c r="DP22" s="8" t="inlineStr"/>
-      <c r="DQ22" s="8" t="inlineStr"/>
-      <c r="DR22" s="4" t="inlineStr"/>
+      <c r="DP22" s="4" t="inlineStr"/>
+      <c r="DQ22" s="4" t="inlineStr"/>
+      <c r="DR22" s="6" t="inlineStr"/>
       <c r="DS22" s="8" t="inlineStr"/>
       <c r="DT22" s="8" t="inlineStr"/>
-      <c r="DU22" s="4" t="inlineStr"/>
-      <c r="DV22" s="6" t="inlineStr"/>
+      <c r="DU22" s="8" t="inlineStr"/>
+      <c r="DV22" s="8" t="inlineStr"/>
       <c r="DW22" s="8" t="inlineStr"/>
       <c r="DX22" s="8" t="inlineStr"/>
       <c r="DY22" s="8" t="inlineStr"/>
-      <c r="DZ22" s="8" t="inlineStr"/>
+      <c r="DZ22" s="4" t="inlineStr"/>
       <c r="EA22" s="8" t="inlineStr"/>
       <c r="EB22" s="8" t="inlineStr"/>
-      <c r="EC22" s="8" t="inlineStr"/>
+      <c r="EC22" s="4" t="inlineStr"/>
       <c r="ED22" s="4" t="inlineStr"/>
-      <c r="EE22" s="8" t="inlineStr"/>
+      <c r="EE22" s="6" t="inlineStr"/>
       <c r="EF22" s="8" t="inlineStr"/>
-      <c r="EG22" s="4" t="inlineStr"/>
-      <c r="EH22" s="6" t="inlineStr"/>
+      <c r="EG22" s="8" t="inlineStr"/>
+      <c r="EH22" s="8" t="inlineStr"/>
       <c r="EI22" s="8" t="inlineStr"/>
       <c r="EJ22" s="8" t="inlineStr"/>
       <c r="EK22" s="8" t="inlineStr"/>
       <c r="EL22" s="8" t="inlineStr"/>
+      <c r="EM22" s="4" t="inlineStr"/>
+      <c r="EN22" s="8" t="inlineStr"/>
+      <c r="EO22" s="8" t="inlineStr"/>
+      <c r="EP22" s="4" t="inlineStr"/>
+      <c r="EQ22" s="4" t="inlineStr"/>
+      <c r="ER22" s="6" t="inlineStr"/>
+      <c r="ES22" s="8" t="inlineStr"/>
+      <c r="ET22" s="8" t="inlineStr"/>
+      <c r="EU22" s="8" t="inlineStr"/>
+      <c r="EV22" s="8" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
@@ -7411,7 +7969,7 @@
       <c r="V23" s="6" t="inlineStr"/>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X23" s="4" t="n">
@@ -7442,117 +8000,131 @@
       <c r="AG23" s="6" t="inlineStr"/>
       <c r="AH23" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI23" s="8" t="inlineStr"/>
+          <t>97b951ebe2268b75a34558d96213fdff7e703d7a06a1457862927e7eb38de731</t>
+        </is>
+      </c>
+      <c r="AI23" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
       <c r="AJ23" s="8" t="inlineStr"/>
       <c r="AK23" s="8" t="inlineStr"/>
-      <c r="AL23" s="4" t="inlineStr"/>
-      <c r="AM23" s="8" t="inlineStr"/>
+      <c r="AL23" s="8" t="inlineStr"/>
+      <c r="AM23" s="4" t="inlineStr"/>
       <c r="AN23" s="8" t="inlineStr"/>
-      <c r="AO23" s="4" t="inlineStr"/>
-      <c r="AP23" s="6" t="inlineStr"/>
-      <c r="AQ23" s="8" t="inlineStr"/>
-      <c r="AR23" s="8" t="inlineStr"/>
+      <c r="AO23" s="8" t="inlineStr"/>
+      <c r="AP23" s="4" t="inlineStr"/>
+      <c r="AQ23" s="4" t="inlineStr"/>
+      <c r="AR23" s="6" t="inlineStr"/>
       <c r="AS23" s="8" t="inlineStr"/>
       <c r="AT23" s="8" t="inlineStr"/>
       <c r="AU23" s="8" t="inlineStr"/>
       <c r="AV23" s="8" t="inlineStr"/>
       <c r="AW23" s="8" t="inlineStr"/>
-      <c r="AX23" s="4" t="inlineStr"/>
+      <c r="AX23" s="8" t="inlineStr"/>
       <c r="AY23" s="8" t="inlineStr"/>
-      <c r="AZ23" s="8" t="inlineStr"/>
-      <c r="BA23" s="4" t="inlineStr"/>
-      <c r="BB23" s="6" t="inlineStr"/>
-      <c r="BC23" s="8" t="inlineStr"/>
-      <c r="BD23" s="8" t="inlineStr"/>
-      <c r="BE23" s="8" t="inlineStr"/>
+      <c r="AZ23" s="4" t="inlineStr"/>
+      <c r="BA23" s="8" t="inlineStr"/>
+      <c r="BB23" s="8" t="inlineStr"/>
+      <c r="BC23" s="4" t="inlineStr"/>
+      <c r="BD23" s="4" t="inlineStr"/>
+      <c r="BE23" s="6" t="inlineStr"/>
       <c r="BF23" s="8" t="inlineStr"/>
       <c r="BG23" s="8" t="inlineStr"/>
       <c r="BH23" s="8" t="inlineStr"/>
       <c r="BI23" s="8" t="inlineStr"/>
-      <c r="BJ23" s="4" t="inlineStr"/>
+      <c r="BJ23" s="8" t="inlineStr"/>
       <c r="BK23" s="8" t="inlineStr"/>
       <c r="BL23" s="8" t="inlineStr"/>
       <c r="BM23" s="4" t="inlineStr"/>
-      <c r="BN23" s="6" t="inlineStr"/>
+      <c r="BN23" s="8" t="inlineStr"/>
       <c r="BO23" s="8" t="inlineStr"/>
-      <c r="BP23" s="8" t="inlineStr"/>
-      <c r="BQ23" s="8" t="inlineStr"/>
-      <c r="BR23" s="8" t="inlineStr"/>
+      <c r="BP23" s="4" t="inlineStr"/>
+      <c r="BQ23" s="4" t="inlineStr"/>
+      <c r="BR23" s="6" t="inlineStr"/>
       <c r="BS23" s="8" t="inlineStr"/>
       <c r="BT23" s="8" t="inlineStr"/>
       <c r="BU23" s="8" t="inlineStr"/>
-      <c r="BV23" s="4" t="inlineStr"/>
+      <c r="BV23" s="8" t="inlineStr"/>
       <c r="BW23" s="8" t="inlineStr"/>
       <c r="BX23" s="8" t="inlineStr"/>
-      <c r="BY23" s="4" t="inlineStr"/>
-      <c r="BZ23" s="6" t="inlineStr"/>
+      <c r="BY23" s="8" t="inlineStr"/>
+      <c r="BZ23" s="4" t="inlineStr"/>
       <c r="CA23" s="8" t="inlineStr"/>
       <c r="CB23" s="8" t="inlineStr"/>
-      <c r="CC23" s="8" t="inlineStr"/>
-      <c r="CD23" s="8" t="inlineStr"/>
-      <c r="CE23" s="8" t="inlineStr"/>
+      <c r="CC23" s="4" t="inlineStr"/>
+      <c r="CD23" s="4" t="inlineStr"/>
+      <c r="CE23" s="6" t="inlineStr"/>
       <c r="CF23" s="8" t="inlineStr"/>
       <c r="CG23" s="8" t="inlineStr"/>
-      <c r="CH23" s="4" t="inlineStr"/>
+      <c r="CH23" s="8" t="inlineStr"/>
       <c r="CI23" s="8" t="inlineStr"/>
       <c r="CJ23" s="8" t="inlineStr"/>
-      <c r="CK23" s="4" t="inlineStr"/>
-      <c r="CL23" s="6" t="inlineStr"/>
-      <c r="CM23" s="8" t="inlineStr"/>
+      <c r="CK23" s="8" t="inlineStr"/>
+      <c r="CL23" s="8" t="inlineStr"/>
+      <c r="CM23" s="4" t="inlineStr"/>
       <c r="CN23" s="8" t="inlineStr"/>
       <c r="CO23" s="8" t="inlineStr"/>
-      <c r="CP23" s="8" t="inlineStr"/>
-      <c r="CQ23" s="8" t="inlineStr"/>
-      <c r="CR23" s="8" t="inlineStr"/>
+      <c r="CP23" s="4" t="inlineStr"/>
+      <c r="CQ23" s="4" t="inlineStr"/>
+      <c r="CR23" s="6" t="inlineStr"/>
       <c r="CS23" s="8" t="inlineStr"/>
-      <c r="CT23" s="4" t="inlineStr"/>
+      <c r="CT23" s="8" t="inlineStr"/>
       <c r="CU23" s="8" t="inlineStr"/>
       <c r="CV23" s="8" t="inlineStr"/>
-      <c r="CW23" s="4" t="inlineStr"/>
-      <c r="CX23" s="6" t="inlineStr"/>
+      <c r="CW23" s="8" t="inlineStr"/>
+      <c r="CX23" s="8" t="inlineStr"/>
       <c r="CY23" s="8" t="inlineStr"/>
-      <c r="CZ23" s="8" t="inlineStr"/>
+      <c r="CZ23" s="4" t="inlineStr"/>
       <c r="DA23" s="8" t="inlineStr"/>
       <c r="DB23" s="8" t="inlineStr"/>
-      <c r="DC23" s="8" t="inlineStr"/>
-      <c r="DD23" s="8" t="inlineStr"/>
-      <c r="DE23" s="8" t="inlineStr"/>
-      <c r="DF23" s="4" t="inlineStr"/>
+      <c r="DC23" s="4" t="inlineStr"/>
+      <c r="DD23" s="4" t="inlineStr"/>
+      <c r="DE23" s="6" t="inlineStr"/>
+      <c r="DF23" s="8" t="inlineStr"/>
       <c r="DG23" s="8" t="inlineStr"/>
       <c r="DH23" s="8" t="inlineStr"/>
-      <c r="DI23" s="4" t="inlineStr"/>
-      <c r="DJ23" s="6" t="inlineStr"/>
+      <c r="DI23" s="8" t="inlineStr"/>
+      <c r="DJ23" s="8" t="inlineStr"/>
       <c r="DK23" s="8" t="inlineStr"/>
       <c r="DL23" s="8" t="inlineStr"/>
-      <c r="DM23" s="8" t="inlineStr"/>
+      <c r="DM23" s="4" t="inlineStr"/>
       <c r="DN23" s="8" t="inlineStr"/>
       <c r="DO23" s="8" t="inlineStr"/>
-      <c r="DP23" s="8" t="inlineStr"/>
-      <c r="DQ23" s="8" t="inlineStr"/>
-      <c r="DR23" s="4" t="inlineStr"/>
+      <c r="DP23" s="4" t="inlineStr"/>
+      <c r="DQ23" s="4" t="inlineStr"/>
+      <c r="DR23" s="6" t="inlineStr"/>
       <c r="DS23" s="8" t="inlineStr"/>
       <c r="DT23" s="8" t="inlineStr"/>
-      <c r="DU23" s="4" t="inlineStr"/>
-      <c r="DV23" s="6" t="inlineStr"/>
+      <c r="DU23" s="8" t="inlineStr"/>
+      <c r="DV23" s="8" t="inlineStr"/>
       <c r="DW23" s="8" t="inlineStr"/>
       <c r="DX23" s="8" t="inlineStr"/>
       <c r="DY23" s="8" t="inlineStr"/>
-      <c r="DZ23" s="8" t="inlineStr"/>
+      <c r="DZ23" s="4" t="inlineStr"/>
       <c r="EA23" s="8" t="inlineStr"/>
       <c r="EB23" s="8" t="inlineStr"/>
-      <c r="EC23" s="8" t="inlineStr"/>
+      <c r="EC23" s="4" t="inlineStr"/>
       <c r="ED23" s="4" t="inlineStr"/>
-      <c r="EE23" s="8" t="inlineStr"/>
+      <c r="EE23" s="6" t="inlineStr"/>
       <c r="EF23" s="8" t="inlineStr"/>
-      <c r="EG23" s="4" t="inlineStr"/>
-      <c r="EH23" s="6" t="inlineStr"/>
+      <c r="EG23" s="8" t="inlineStr"/>
+      <c r="EH23" s="8" t="inlineStr"/>
       <c r="EI23" s="8" t="inlineStr"/>
       <c r="EJ23" s="8" t="inlineStr"/>
       <c r="EK23" s="8" t="inlineStr"/>
       <c r="EL23" s="8" t="inlineStr"/>
+      <c r="EM23" s="4" t="inlineStr"/>
+      <c r="EN23" s="8" t="inlineStr"/>
+      <c r="EO23" s="8" t="inlineStr"/>
+      <c r="EP23" s="4" t="inlineStr"/>
+      <c r="EQ23" s="4" t="inlineStr"/>
+      <c r="ER23" s="6" t="inlineStr"/>
+      <c r="ES23" s="8" t="inlineStr"/>
+      <c r="ET23" s="8" t="inlineStr"/>
+      <c r="EU23" s="8" t="inlineStr"/>
+      <c r="EV23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
@@ -7613,7 +8185,7 @@
       <c r="V24" s="6" t="inlineStr"/>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X24" s="4" t="n">
@@ -7644,297 +8216,331 @@
       <c r="AG24" s="6" t="inlineStr"/>
       <c r="AH24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI24" s="8" t="inlineStr">
+          <t>d30e8c419b67297537b0f20ad22b8272078fc34f3b9a22400cac574a7150aaf3</t>
+        </is>
+      </c>
+      <c r="AI24" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ24" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ24" s="8" t="n">
+      <c r="AK24" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK24" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:17:30</t>
-        </is>
-      </c>
-      <c r="AL24" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM24" s="8" t="inlineStr">
+      <c r="AL24" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:21:41</t>
+        </is>
+      </c>
+      <c r="AM24" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN24" s="8" t="inlineStr">
         <is>
           <t>Grotte Gulshirin (Geophysicheskaya), topographie en Plan</t>
         </is>
       </c>
-      <c r="AN24" s="8" t="inlineStr">
+      <c r="AO24" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Geophysicheskaya/Outputs/Geophysicheskaya-plan.pdf</t>
         </is>
       </c>
-      <c r="AO24" s="4" t="n">
+      <c r="AP24" s="4" t="inlineStr">
+        <is>
+          <t>3431d97123fe94185d7b0868a40382f417558a2ccd37efbaedd1fc616a6a5f69</t>
+        </is>
+      </c>
+      <c r="AQ24" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="AP24" s="6" t="inlineStr"/>
-      <c r="AQ24" s="8" t="inlineStr">
+      <c r="AR24" s="6" t="inlineStr"/>
+      <c r="AS24" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR24" s="8" t="inlineStr">
+      <c r="AT24" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS24" s="8" t="inlineStr"/>
-      <c r="AT24" s="8" t="inlineStr">
+      <c r="AU24" s="8" t="inlineStr"/>
+      <c r="AV24" s="8" t="inlineStr">
         <is>
           <t>Gulshirin (Geophysicheskaya) plan</t>
         </is>
       </c>
-      <c r="AU24" s="8" t="inlineStr">
+      <c r="AW24" s="8" t="inlineStr">
         <is>
           <t>Alexandre Pont</t>
         </is>
       </c>
-      <c r="AV24" s="8" t="n">
+      <c r="AX24" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW24" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:17:32</t>
-        </is>
-      </c>
-      <c r="AX24" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY24" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:21:43</t>
+        </is>
+      </c>
+      <c r="AZ24" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA24" s="8" t="inlineStr">
+        <is>
           <t>Grotte Gulshirin (Geophysicheskaya), topographie en Plan</t>
         </is>
       </c>
-      <c r="AZ24" s="8" t="inlineStr">
+      <c r="BB24" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Geophysicheskaya/Outputs/Geophysicheskaya-plan_Spelunca.pdf</t>
         </is>
       </c>
-      <c r="BA24" s="4" t="n">
+      <c r="BC24" s="4" t="inlineStr">
+        <is>
+          <t>490d4f691c5399c6c68fc42963e8ecc01ff4c5fee0e79e9bdb358518e9b2ee7f</t>
+        </is>
+      </c>
+      <c r="BD24" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="BB24" s="6" t="inlineStr"/>
-      <c r="BC24" s="8" t="inlineStr">
+      <c r="BE24" s="6" t="inlineStr"/>
+      <c r="BF24" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD24" s="8" t="inlineStr">
+      <c r="BG24" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE24" s="8" t="inlineStr"/>
-      <c r="BF24" s="8" t="inlineStr">
+      <c r="BH24" s="8" t="inlineStr"/>
+      <c r="BI24" s="8" t="inlineStr">
         <is>
           <t>Gulshirin (Geophysicheskaya) plan - 1:1000</t>
         </is>
       </c>
-      <c r="BG24" s="8" t="inlineStr">
+      <c r="BJ24" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH24" s="8" t="n">
+      <c r="BK24" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI24" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ24" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK24" s="8" t="inlineStr">
+      <c r="BL24" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM24" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN24" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Gulshirin (Geophysicheskaya) au format google earth</t>
         </is>
       </c>
-      <c r="BL24" s="8" t="inlineStr">
+      <c r="BO24" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Geophysicheskaya/Outputs/Geophysicheskaya-model.kml</t>
         </is>
       </c>
-      <c r="BM24" s="4" t="n">
+      <c r="BP24" s="4" t="inlineStr">
+        <is>
+          <t>414821a47e1a727cdf7b5d0299b39aa9dd38aa054d3e93edab2cc221f4029e53</t>
+        </is>
+      </c>
+      <c r="BQ24" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="BN24" s="6" t="inlineStr"/>
-      <c r="BO24" s="8" t="inlineStr">
+      <c r="BR24" s="6" t="inlineStr"/>
+      <c r="BS24" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP24" s="8" t="inlineStr">
+      <c r="BT24" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ24" s="8" t="inlineStr"/>
-      <c r="BR24" s="8" t="inlineStr">
+      <c r="BU24" s="8" t="inlineStr"/>
+      <c r="BV24" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS24" s="8" t="inlineStr">
+      <c r="BW24" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT24" s="8" t="n">
+      <c r="BX24" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU24" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV24" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW24" s="8" t="inlineStr">
+      <c r="BY24" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ24" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA24" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Gulshirin (Geophysicheskaya) au format google earth</t>
         </is>
       </c>
-      <c r="BX24" s="8" t="inlineStr">
+      <c r="CB24" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Geophysicheskaya/Outputs/Geophysicheskaya.kml</t>
         </is>
       </c>
-      <c r="BY24" s="4" t="n">
+      <c r="CC24" s="4" t="inlineStr">
+        <is>
+          <t>ae752c5c535cdb663603f7f7b3e9b5cc1f4d5c1d4c56967dfca4ee9ae80b30e4</t>
+        </is>
+      </c>
+      <c r="CD24" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="BZ24" s="6" t="inlineStr"/>
-      <c r="CA24" s="8" t="inlineStr">
+      <c r="CE24" s="6" t="inlineStr"/>
+      <c r="CF24" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB24" s="8" t="inlineStr">
+      <c r="CG24" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC24" s="8" t="inlineStr"/>
-      <c r="CD24" s="8" t="inlineStr">
+      <c r="CH24" s="8" t="inlineStr"/>
+      <c r="CI24" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE24" s="8" t="inlineStr">
+      <c r="CJ24" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF24" s="8" t="n">
+      <c r="CK24" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG24" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH24" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI24" s="8" t="inlineStr">
+      <c r="CL24" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM24" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN24" s="8" t="inlineStr">
         <is>
           <t>Topo de Gulshirin (Geophysicheskaya) au format Therion</t>
         </is>
       </c>
-      <c r="CJ24" s="8" t="inlineStr">
+      <c r="CO24" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Geophysicheskaya/Outputs/Gulshirin (Geophysicheskaya).zip</t>
         </is>
       </c>
-      <c r="CK24" s="4" t="n">
+      <c r="CP24" s="4" t="inlineStr">
+        <is>
+          <t>a78e12099d9da4c2f2505c172a6d39c3341b6ee265fb30c4a00d263dcd912661</t>
+        </is>
+      </c>
+      <c r="CQ24" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="CL24" s="6" t="inlineStr"/>
-      <c r="CM24" s="8" t="inlineStr">
+      <c r="CR24" s="6" t="inlineStr"/>
+      <c r="CS24" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN24" s="8" t="inlineStr">
+      <c r="CT24" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO24" s="8" t="inlineStr"/>
-      <c r="CP24" s="8" t="inlineStr">
+      <c r="CU24" s="8" t="inlineStr"/>
+      <c r="CV24" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ24" s="8" t="inlineStr"/>
-      <c r="CR24" s="8" t="inlineStr"/>
-      <c r="CS24" s="8" t="inlineStr"/>
-      <c r="CT24" s="4" t="inlineStr"/>
-      <c r="CU24" s="8" t="inlineStr"/>
-      <c r="CV24" s="8" t="inlineStr"/>
-      <c r="CW24" s="4" t="inlineStr"/>
-      <c r="CX24" s="6" t="inlineStr"/>
+      <c r="CW24" s="8" t="inlineStr"/>
+      <c r="CX24" s="8" t="inlineStr"/>
       <c r="CY24" s="8" t="inlineStr"/>
-      <c r="CZ24" s="8" t="inlineStr"/>
+      <c r="CZ24" s="4" t="inlineStr"/>
       <c r="DA24" s="8" t="inlineStr"/>
       <c r="DB24" s="8" t="inlineStr"/>
-      <c r="DC24" s="8" t="inlineStr"/>
-      <c r="DD24" s="8" t="inlineStr"/>
-      <c r="DE24" s="8" t="inlineStr"/>
-      <c r="DF24" s="4" t="inlineStr"/>
+      <c r="DC24" s="4" t="inlineStr"/>
+      <c r="DD24" s="4" t="inlineStr"/>
+      <c r="DE24" s="6" t="inlineStr"/>
+      <c r="DF24" s="8" t="inlineStr"/>
       <c r="DG24" s="8" t="inlineStr"/>
       <c r="DH24" s="8" t="inlineStr"/>
-      <c r="DI24" s="4" t="inlineStr"/>
-      <c r="DJ24" s="6" t="inlineStr"/>
+      <c r="DI24" s="8" t="inlineStr"/>
+      <c r="DJ24" s="8" t="inlineStr"/>
       <c r="DK24" s="8" t="inlineStr"/>
       <c r="DL24" s="8" t="inlineStr"/>
-      <c r="DM24" s="8" t="inlineStr"/>
+      <c r="DM24" s="4" t="inlineStr"/>
       <c r="DN24" s="8" t="inlineStr"/>
       <c r="DO24" s="8" t="inlineStr"/>
-      <c r="DP24" s="8" t="inlineStr"/>
-      <c r="DQ24" s="8" t="inlineStr"/>
-      <c r="DR24" s="4" t="inlineStr"/>
+      <c r="DP24" s="4" t="inlineStr"/>
+      <c r="DQ24" s="4" t="inlineStr"/>
+      <c r="DR24" s="6" t="inlineStr"/>
       <c r="DS24" s="8" t="inlineStr"/>
       <c r="DT24" s="8" t="inlineStr"/>
-      <c r="DU24" s="4" t="inlineStr"/>
-      <c r="DV24" s="6" t="inlineStr"/>
+      <c r="DU24" s="8" t="inlineStr"/>
+      <c r="DV24" s="8" t="inlineStr"/>
       <c r="DW24" s="8" t="inlineStr"/>
       <c r="DX24" s="8" t="inlineStr"/>
       <c r="DY24" s="8" t="inlineStr"/>
-      <c r="DZ24" s="8" t="inlineStr"/>
+      <c r="DZ24" s="4" t="inlineStr"/>
       <c r="EA24" s="8" t="inlineStr"/>
       <c r="EB24" s="8" t="inlineStr"/>
-      <c r="EC24" s="8" t="inlineStr"/>
+      <c r="EC24" s="4" t="inlineStr"/>
       <c r="ED24" s="4" t="inlineStr"/>
-      <c r="EE24" s="8" t="inlineStr"/>
+      <c r="EE24" s="6" t="inlineStr"/>
       <c r="EF24" s="8" t="inlineStr"/>
-      <c r="EG24" s="4" t="inlineStr"/>
-      <c r="EH24" s="6" t="inlineStr"/>
+      <c r="EG24" s="8" t="inlineStr"/>
+      <c r="EH24" s="8" t="inlineStr"/>
       <c r="EI24" s="8" t="inlineStr"/>
       <c r="EJ24" s="8" t="inlineStr"/>
       <c r="EK24" s="8" t="inlineStr"/>
       <c r="EL24" s="8" t="inlineStr"/>
+      <c r="EM24" s="4" t="inlineStr"/>
+      <c r="EN24" s="8" t="inlineStr"/>
+      <c r="EO24" s="8" t="inlineStr"/>
+      <c r="EP24" s="4" t="inlineStr"/>
+      <c r="EQ24" s="4" t="inlineStr"/>
+      <c r="ER24" s="6" t="inlineStr"/>
+      <c r="ES24" s="8" t="inlineStr"/>
+      <c r="ET24" s="8" t="inlineStr"/>
+      <c r="EU24" s="8" t="inlineStr"/>
+      <c r="EV24" s="8" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
@@ -7995,7 +8601,7 @@
       <c r="V25" s="6" t="inlineStr"/>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X25" s="4" t="n">
@@ -8026,329 +8632,367 @@
       <c r="AG25" s="6" t="inlineStr"/>
       <c r="AH25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI25" s="8" t="inlineStr">
+          <t>f06d3b3aaa9b80ef266d14394a63736fa52684eeaf76eec7fc062bffa993f6e5</t>
+        </is>
+      </c>
+      <c r="AI25" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ25" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ25" s="8" t="n">
+      <c r="AK25" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK25" s="8" t="inlineStr">
+      <c r="AL25" s="8" t="inlineStr">
         <is>
           <t>2024-09-26 12:59:52</t>
         </is>
       </c>
-      <c r="AL25" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AM25" s="8" t="inlineStr"/>
-      <c r="AN25" s="8" t="inlineStr">
+      <c r="AM25" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN25" s="8" t="inlineStr"/>
+      <c r="AO25" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Hashim-oyuk/Outputs/Hashim-oyuk-coupe.pdf</t>
         </is>
       </c>
-      <c r="AO25" s="4" t="n">
+      <c r="AP25" s="4" t="inlineStr">
+        <is>
+          <t>57df4d11f017ef37b6e4a9b5496f6c4832a6c7c4fb65fd5656cdb5c9190bb3bb</t>
+        </is>
+      </c>
+      <c r="AQ25" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="AP25" s="6" t="inlineStr"/>
-      <c r="AQ25" s="8" t="inlineStr">
+      <c r="AR25" s="6" t="inlineStr"/>
+      <c r="AS25" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR25" s="8" t="inlineStr">
+      <c r="AT25" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS25" s="8" t="inlineStr"/>
-      <c r="AT25" s="8" t="inlineStr">
+      <c r="AU25" s="8" t="inlineStr"/>
+      <c r="AV25" s="8" t="inlineStr">
         <is>
           <t>Hashim-oyuk coupe développée - 1:1000</t>
         </is>
       </c>
-      <c r="AU25" s="8" t="inlineStr">
+      <c r="AW25" s="8" t="inlineStr">
         <is>
           <t>Alexandre Pont, Jean-Paul Héreil</t>
         </is>
       </c>
-      <c r="AV25" s="8" t="n">
+      <c r="AX25" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW25" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:18:50</t>
-        </is>
-      </c>
-      <c r="AX25" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY25" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:22:25</t>
+        </is>
+      </c>
+      <c r="AZ25" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA25" s="8" t="inlineStr">
+        <is>
           <t>Grotte Hashim-oyuk, topographie en plan</t>
         </is>
       </c>
-      <c r="AZ25" s="8" t="inlineStr">
+      <c r="BB25" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Hashim-oyuk/Outputs/Hashim-oyuk-plan.pdf</t>
         </is>
       </c>
-      <c r="BA25" s="4" t="n">
+      <c r="BC25" s="4" t="inlineStr">
+        <is>
+          <t>3764676fdd4317d9995bddc9903ccd0696ba89c6e2a9669fa419843fe1711c5a</t>
+        </is>
+      </c>
+      <c r="BD25" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="BB25" s="6" t="inlineStr"/>
-      <c r="BC25" s="8" t="inlineStr">
+      <c r="BE25" s="6" t="inlineStr"/>
+      <c r="BF25" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD25" s="8" t="inlineStr">
+      <c r="BG25" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE25" s="8" t="inlineStr"/>
-      <c r="BF25" s="8" t="inlineStr">
+      <c r="BH25" s="8" t="inlineStr"/>
+      <c r="BI25" s="8" t="inlineStr">
         <is>
           <t>Hashim-oyuk plan - 1:2000</t>
         </is>
       </c>
-      <c r="BG25" s="8" t="inlineStr">
+      <c r="BJ25" s="8" t="inlineStr">
         <is>
           <t>Alexandre Pont</t>
         </is>
       </c>
-      <c r="BH25" s="8" t="n">
+      <c r="BK25" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="BI25" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:18:52</t>
-        </is>
-      </c>
-      <c r="BJ25" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK25" s="8" t="inlineStr">
+      <c r="BL25" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:22:27</t>
+        </is>
+      </c>
+      <c r="BM25" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN25" s="8" t="inlineStr">
         <is>
           <t>Grotte Hashim-oyuk, topographie en plan</t>
         </is>
       </c>
-      <c r="BL25" s="8" t="inlineStr">
+      <c r="BO25" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Hashim-oyuk/Outputs/Hashim-oyuk-plan_Spelunca.pdf</t>
         </is>
       </c>
-      <c r="BM25" s="4" t="n">
+      <c r="BP25" s="4" t="inlineStr">
+        <is>
+          <t>79f321fb9b813d5ef6df375372fd9385b55649ff38c2649d80ad3a95d858340e</t>
+        </is>
+      </c>
+      <c r="BQ25" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="BN25" s="6" t="inlineStr"/>
-      <c r="BO25" s="8" t="inlineStr">
+      <c r="BR25" s="6" t="inlineStr"/>
+      <c r="BS25" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP25" s="8" t="inlineStr">
+      <c r="BT25" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BQ25" s="8" t="inlineStr"/>
-      <c r="BR25" s="8" t="inlineStr">
+      <c r="BU25" s="8" t="inlineStr"/>
+      <c r="BV25" s="8" t="inlineStr">
         <is>
           <t>Hashim-oyuk plan - 1:2000</t>
         </is>
       </c>
-      <c r="BS25" s="8" t="inlineStr">
+      <c r="BW25" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT25" s="8" t="n">
+      <c r="BX25" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU25" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV25" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW25" s="8" t="inlineStr">
+      <c r="BY25" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ25" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA25" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Hashim-oyuk au format google earth</t>
         </is>
       </c>
-      <c r="BX25" s="8" t="inlineStr">
+      <c r="CB25" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Hashim-oyuk/Outputs/Hashim-oyuk-model.kml</t>
         </is>
       </c>
-      <c r="BY25" s="4" t="n">
+      <c r="CC25" s="4" t="inlineStr">
+        <is>
+          <t>b06193a1827ebe1f62edcadc2226a2f8fc1cb77687ffd960cc76e9f2fbb28ec0</t>
+        </is>
+      </c>
+      <c r="CD25" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="BZ25" s="6" t="inlineStr"/>
-      <c r="CA25" s="8" t="inlineStr">
+      <c r="CE25" s="6" t="inlineStr"/>
+      <c r="CF25" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB25" s="8" t="inlineStr">
+      <c r="CG25" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC25" s="8" t="inlineStr"/>
-      <c r="CD25" s="8" t="inlineStr">
+      <c r="CH25" s="8" t="inlineStr"/>
+      <c r="CI25" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE25" s="8" t="inlineStr">
+      <c r="CJ25" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF25" s="8" t="n">
+      <c r="CK25" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="CG25" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH25" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI25" s="8" t="inlineStr">
+      <c r="CL25" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM25" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN25" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Hashim-oyuk au format google earth</t>
         </is>
       </c>
-      <c r="CJ25" s="8" t="inlineStr">
+      <c r="CO25" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Hashim-oyuk/Outputs/Hashim-oyuk.kml</t>
         </is>
       </c>
-      <c r="CK25" s="4" t="n">
+      <c r="CP25" s="4" t="inlineStr">
+        <is>
+          <t>0f9f2001044dc2ddf6de366d3bf2aac118f039c3232d1800d109a3c0a61093fc</t>
+        </is>
+      </c>
+      <c r="CQ25" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="CL25" s="6" t="inlineStr"/>
-      <c r="CM25" s="8" t="inlineStr">
+      <c r="CR25" s="6" t="inlineStr"/>
+      <c r="CS25" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN25" s="8" t="inlineStr">
+      <c r="CT25" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CO25" s="8" t="inlineStr"/>
-      <c r="CP25" s="8" t="inlineStr">
+      <c r="CU25" s="8" t="inlineStr"/>
+      <c r="CV25" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CQ25" s="8" t="inlineStr">
+      <c r="CW25" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CR25" s="8" t="n">
+      <c r="CX25" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CS25" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CT25" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CU25" s="8" t="inlineStr">
+      <c r="CY25" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CZ25" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="DA25" s="8" t="inlineStr">
         <is>
           <t>Topo de Hashim-oyuk au format Therion</t>
         </is>
       </c>
-      <c r="CV25" s="8" t="inlineStr">
+      <c r="DB25" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Hashim-oyuk/Outputs/Hashim-oyuk.zip</t>
         </is>
       </c>
-      <c r="CW25" s="4" t="n">
+      <c r="DC25" s="4" t="inlineStr">
+        <is>
+          <t>4e3375122340e1c79d9007b6ec4fbaa5ca51b5172ffdad1ceb10d3d961560871</t>
+        </is>
+      </c>
+      <c r="DD25" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="CX25" s="6" t="inlineStr"/>
-      <c r="CY25" s="8" t="inlineStr">
+      <c r="DE25" s="6" t="inlineStr"/>
+      <c r="DF25" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CZ25" s="8" t="inlineStr">
+      <c r="DG25" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="DA25" s="8" t="inlineStr"/>
-      <c r="DB25" s="8" t="inlineStr">
+      <c r="DH25" s="8" t="inlineStr"/>
+      <c r="DI25" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="DC25" s="8" t="inlineStr"/>
-      <c r="DD25" s="8" t="inlineStr"/>
-      <c r="DE25" s="8" t="inlineStr"/>
-      <c r="DF25" s="4" t="inlineStr"/>
-      <c r="DG25" s="8" t="inlineStr"/>
-      <c r="DH25" s="8" t="inlineStr"/>
-      <c r="DI25" s="4" t="inlineStr"/>
-      <c r="DJ25" s="6" t="inlineStr"/>
+      <c r="DJ25" s="8" t="inlineStr"/>
       <c r="DK25" s="8" t="inlineStr"/>
       <c r="DL25" s="8" t="inlineStr"/>
-      <c r="DM25" s="8" t="inlineStr"/>
+      <c r="DM25" s="4" t="inlineStr"/>
       <c r="DN25" s="8" t="inlineStr"/>
       <c r="DO25" s="8" t="inlineStr"/>
-      <c r="DP25" s="8" t="inlineStr"/>
-      <c r="DQ25" s="8" t="inlineStr"/>
-      <c r="DR25" s="4" t="inlineStr"/>
+      <c r="DP25" s="4" t="inlineStr"/>
+      <c r="DQ25" s="4" t="inlineStr"/>
+      <c r="DR25" s="6" t="inlineStr"/>
       <c r="DS25" s="8" t="inlineStr"/>
       <c r="DT25" s="8" t="inlineStr"/>
-      <c r="DU25" s="4" t="inlineStr"/>
-      <c r="DV25" s="6" t="inlineStr"/>
+      <c r="DU25" s="8" t="inlineStr"/>
+      <c r="DV25" s="8" t="inlineStr"/>
       <c r="DW25" s="8" t="inlineStr"/>
       <c r="DX25" s="8" t="inlineStr"/>
       <c r="DY25" s="8" t="inlineStr"/>
-      <c r="DZ25" s="8" t="inlineStr"/>
+      <c r="DZ25" s="4" t="inlineStr"/>
       <c r="EA25" s="8" t="inlineStr"/>
       <c r="EB25" s="8" t="inlineStr"/>
-      <c r="EC25" s="8" t="inlineStr"/>
+      <c r="EC25" s="4" t="inlineStr"/>
       <c r="ED25" s="4" t="inlineStr"/>
-      <c r="EE25" s="8" t="inlineStr"/>
+      <c r="EE25" s="6" t="inlineStr"/>
       <c r="EF25" s="8" t="inlineStr"/>
-      <c r="EG25" s="4" t="inlineStr"/>
-      <c r="EH25" s="6" t="inlineStr"/>
+      <c r="EG25" s="8" t="inlineStr"/>
+      <c r="EH25" s="8" t="inlineStr"/>
       <c r="EI25" s="8" t="inlineStr"/>
       <c r="EJ25" s="8" t="inlineStr"/>
       <c r="EK25" s="8" t="inlineStr"/>
       <c r="EL25" s="8" t="inlineStr"/>
+      <c r="EM25" s="4" t="inlineStr"/>
+      <c r="EN25" s="8" t="inlineStr"/>
+      <c r="EO25" s="8" t="inlineStr"/>
+      <c r="EP25" s="4" t="inlineStr"/>
+      <c r="EQ25" s="4" t="inlineStr"/>
+      <c r="ER25" s="6" t="inlineStr"/>
+      <c r="ES25" s="8" t="inlineStr"/>
+      <c r="ET25" s="8" t="inlineStr"/>
+      <c r="EU25" s="8" t="inlineStr"/>
+      <c r="EV25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
@@ -8409,7 +9053,7 @@
       <c r="V26" s="6" t="inlineStr"/>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X26" s="4" t="n">
@@ -8440,297 +9084,331 @@
       <c r="AG26" s="6" t="inlineStr"/>
       <c r="AH26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI26" s="8" t="inlineStr">
+          <t>8a1c8cbccd889053bf8112ac05ba7918d4d917b1586b1f360687c1c84b242dc3</t>
+        </is>
+      </c>
+      <c r="AI26" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ26" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ26" s="8" t="n">
+      <c r="AK26" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK26" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:20:18</t>
-        </is>
-      </c>
-      <c r="AL26" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="AM26" s="8" t="inlineStr">
+      <c r="AL26" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:23:54</t>
+        </is>
+      </c>
+      <c r="AM26" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN26" s="8" t="inlineStr">
         <is>
           <t>Grotte Tush-Yurruck, topographie en plan</t>
         </is>
       </c>
-      <c r="AN26" s="8" t="inlineStr">
+      <c r="AO26" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Tush-Yurruck/Outputs/Tush-Yurruck-plan.pdf</t>
         </is>
       </c>
-      <c r="AO26" s="4" t="n">
+      <c r="AP26" s="4" t="inlineStr">
+        <is>
+          <t>54cd9025fcf6826b9e267f2499c13a26c6f3dbdfad255df03e22e998854d84b8</t>
+        </is>
+      </c>
+      <c r="AQ26" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="AP26" s="6" t="inlineStr"/>
-      <c r="AQ26" s="8" t="inlineStr">
+      <c r="AR26" s="6" t="inlineStr"/>
+      <c r="AS26" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR26" s="8" t="inlineStr">
+      <c r="AT26" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS26" s="8" t="inlineStr"/>
-      <c r="AT26" s="8" t="inlineStr">
+      <c r="AU26" s="8" t="inlineStr"/>
+      <c r="AV26" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Tush-Yurruck plan </t>
         </is>
       </c>
-      <c r="AU26" s="8" t="inlineStr">
+      <c r="AW26" s="8" t="inlineStr">
         <is>
           <t>Alexandre Pont</t>
         </is>
       </c>
-      <c r="AV26" s="8" t="n">
+      <c r="AX26" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW26" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:20:20</t>
-        </is>
-      </c>
-      <c r="AX26" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY26" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:23:56</t>
+        </is>
+      </c>
+      <c r="AZ26" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA26" s="8" t="inlineStr">
+        <is>
           <t>Grotte Tush-Yurruck, topographie en plan</t>
         </is>
       </c>
-      <c r="AZ26" s="8" t="inlineStr">
+      <c r="BB26" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Tush-Yurruck/Outputs/Tush-Yurruck-plan_Spelunca.pdf</t>
         </is>
       </c>
-      <c r="BA26" s="4" t="n">
+      <c r="BC26" s="4" t="inlineStr">
+        <is>
+          <t>c66b77898e4b1b2a57d5c56df927a778581aa99a3789f32d543c461b93efca5f</t>
+        </is>
+      </c>
+      <c r="BD26" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="BB26" s="6" t="inlineStr"/>
-      <c r="BC26" s="8" t="inlineStr">
+      <c r="BE26" s="6" t="inlineStr"/>
+      <c r="BF26" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD26" s="8" t="inlineStr">
+      <c r="BG26" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE26" s="8" t="inlineStr"/>
-      <c r="BF26" s="8" t="inlineStr">
+      <c r="BH26" s="8" t="inlineStr"/>
+      <c r="BI26" s="8" t="inlineStr">
         <is>
           <t>Tush-Yurruck plan - 1:1000</t>
         </is>
       </c>
-      <c r="BG26" s="8" t="inlineStr">
+      <c r="BJ26" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BH26" s="8" t="n">
+      <c r="BK26" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BI26" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BJ26" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK26" s="8" t="inlineStr">
+      <c r="BL26" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BM26" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN26" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Tush-Yurruck au format google earth</t>
         </is>
       </c>
-      <c r="BL26" s="8" t="inlineStr">
+      <c r="BO26" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Tush-Yurruck/Outputs/Tush-Yurruck-model.kml</t>
         </is>
       </c>
-      <c r="BM26" s="4" t="n">
+      <c r="BP26" s="4" t="inlineStr">
+        <is>
+          <t>654cf1f7d79884084084625144074b6f233ef3146378222d9f6a8c9a46d7f5fe</t>
+        </is>
+      </c>
+      <c r="BQ26" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="BN26" s="6" t="inlineStr"/>
-      <c r="BO26" s="8" t="inlineStr">
+      <c r="BR26" s="6" t="inlineStr"/>
+      <c r="BS26" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP26" s="8" t="inlineStr">
+      <c r="BT26" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="BQ26" s="8" t="inlineStr"/>
-      <c r="BR26" s="8" t="inlineStr">
+      <c r="BU26" s="8" t="inlineStr"/>
+      <c r="BV26" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="BS26" s="8" t="inlineStr">
+      <c r="BW26" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="BT26" s="8" t="n">
+      <c r="BX26" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="BU26" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BV26" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BW26" s="8" t="inlineStr">
+      <c r="BY26" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BZ26" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA26" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Tush-Yurruck au format google earth</t>
         </is>
       </c>
-      <c r="BX26" s="8" t="inlineStr">
+      <c r="CB26" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Tush-Yurruck/Outputs/Tush-Yurruck.kml</t>
         </is>
       </c>
-      <c r="BY26" s="4" t="n">
+      <c r="CC26" s="4" t="inlineStr">
+        <is>
+          <t>e9af8f0808d3675f6d0c2b86d9e96d768d9ea1888e1ad27f3ccd04feab8ed7be</t>
+        </is>
+      </c>
+      <c r="CD26" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="BZ26" s="6" t="inlineStr"/>
-      <c r="CA26" s="8" t="inlineStr">
+      <c r="CE26" s="6" t="inlineStr"/>
+      <c r="CF26" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB26" s="8" t="inlineStr">
+      <c r="CG26" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="CC26" s="8" t="inlineStr"/>
-      <c r="CD26" s="8" t="inlineStr">
+      <c r="CH26" s="8" t="inlineStr"/>
+      <c r="CI26" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="CE26" s="8" t="inlineStr">
+      <c r="CJ26" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF26" s="8" t="n">
+      <c r="CK26" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="CG26" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CH26" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI26" s="8" t="inlineStr">
+      <c r="CL26" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CM26" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN26" s="8" t="inlineStr">
         <is>
           <t>Topo de Tush-Yurruck au format Therion</t>
         </is>
       </c>
-      <c r="CJ26" s="8" t="inlineStr">
+      <c r="CO26" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Tush-Yurruck/Outputs/Tush-Yurruck.zip</t>
         </is>
       </c>
-      <c r="CK26" s="4" t="n">
+      <c r="CP26" s="4" t="inlineStr">
+        <is>
+          <t>ed7e80772114b00e57a0aed2ac180d134a507e4187cc2e66ff95a7a1fb85ad6f</t>
+        </is>
+      </c>
+      <c r="CQ26" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="CL26" s="6" t="inlineStr"/>
-      <c r="CM26" s="8" t="inlineStr">
+      <c r="CR26" s="6" t="inlineStr"/>
+      <c r="CS26" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN26" s="8" t="inlineStr">
+      <c r="CT26" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="CO26" s="8" t="inlineStr"/>
-      <c r="CP26" s="8" t="inlineStr">
+      <c r="CU26" s="8" t="inlineStr"/>
+      <c r="CV26" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>
       </c>
-      <c r="CQ26" s="8" t="inlineStr"/>
-      <c r="CR26" s="8" t="inlineStr"/>
-      <c r="CS26" s="8" t="inlineStr"/>
-      <c r="CT26" s="4" t="inlineStr"/>
-      <c r="CU26" s="8" t="inlineStr"/>
-      <c r="CV26" s="8" t="inlineStr"/>
-      <c r="CW26" s="4" t="inlineStr"/>
-      <c r="CX26" s="6" t="inlineStr"/>
+      <c r="CW26" s="8" t="inlineStr"/>
+      <c r="CX26" s="8" t="inlineStr"/>
       <c r="CY26" s="8" t="inlineStr"/>
-      <c r="CZ26" s="8" t="inlineStr"/>
+      <c r="CZ26" s="4" t="inlineStr"/>
       <c r="DA26" s="8" t="inlineStr"/>
       <c r="DB26" s="8" t="inlineStr"/>
-      <c r="DC26" s="8" t="inlineStr"/>
-      <c r="DD26" s="8" t="inlineStr"/>
-      <c r="DE26" s="8" t="inlineStr"/>
-      <c r="DF26" s="4" t="inlineStr"/>
+      <c r="DC26" s="4" t="inlineStr"/>
+      <c r="DD26" s="4" t="inlineStr"/>
+      <c r="DE26" s="6" t="inlineStr"/>
+      <c r="DF26" s="8" t="inlineStr"/>
       <c r="DG26" s="8" t="inlineStr"/>
       <c r="DH26" s="8" t="inlineStr"/>
-      <c r="DI26" s="4" t="inlineStr"/>
-      <c r="DJ26" s="6" t="inlineStr"/>
+      <c r="DI26" s="8" t="inlineStr"/>
+      <c r="DJ26" s="8" t="inlineStr"/>
       <c r="DK26" s="8" t="inlineStr"/>
       <c r="DL26" s="8" t="inlineStr"/>
-      <c r="DM26" s="8" t="inlineStr"/>
+      <c r="DM26" s="4" t="inlineStr"/>
       <c r="DN26" s="8" t="inlineStr"/>
       <c r="DO26" s="8" t="inlineStr"/>
-      <c r="DP26" s="8" t="inlineStr"/>
-      <c r="DQ26" s="8" t="inlineStr"/>
-      <c r="DR26" s="4" t="inlineStr"/>
+      <c r="DP26" s="4" t="inlineStr"/>
+      <c r="DQ26" s="4" t="inlineStr"/>
+      <c r="DR26" s="6" t="inlineStr"/>
       <c r="DS26" s="8" t="inlineStr"/>
       <c r="DT26" s="8" t="inlineStr"/>
-      <c r="DU26" s="4" t="inlineStr"/>
-      <c r="DV26" s="6" t="inlineStr"/>
+      <c r="DU26" s="8" t="inlineStr"/>
+      <c r="DV26" s="8" t="inlineStr"/>
       <c r="DW26" s="8" t="inlineStr"/>
       <c r="DX26" s="8" t="inlineStr"/>
       <c r="DY26" s="8" t="inlineStr"/>
-      <c r="DZ26" s="8" t="inlineStr"/>
+      <c r="DZ26" s="4" t="inlineStr"/>
       <c r="EA26" s="8" t="inlineStr"/>
       <c r="EB26" s="8" t="inlineStr"/>
-      <c r="EC26" s="8" t="inlineStr"/>
+      <c r="EC26" s="4" t="inlineStr"/>
       <c r="ED26" s="4" t="inlineStr"/>
-      <c r="EE26" s="8" t="inlineStr"/>
+      <c r="EE26" s="6" t="inlineStr"/>
       <c r="EF26" s="8" t="inlineStr"/>
-      <c r="EG26" s="4" t="inlineStr"/>
-      <c r="EH26" s="6" t="inlineStr"/>
+      <c r="EG26" s="8" t="inlineStr"/>
+      <c r="EH26" s="8" t="inlineStr"/>
       <c r="EI26" s="8" t="inlineStr"/>
       <c r="EJ26" s="8" t="inlineStr"/>
       <c r="EK26" s="8" t="inlineStr"/>
       <c r="EL26" s="8" t="inlineStr"/>
+      <c r="EM26" s="4" t="inlineStr"/>
+      <c r="EN26" s="8" t="inlineStr"/>
+      <c r="EO26" s="8" t="inlineStr"/>
+      <c r="EP26" s="4" t="inlineStr"/>
+      <c r="EQ26" s="4" t="inlineStr"/>
+      <c r="ER26" s="6" t="inlineStr"/>
+      <c r="ES26" s="8" t="inlineStr"/>
+      <c r="ET26" s="8" t="inlineStr"/>
+      <c r="EU26" s="8" t="inlineStr"/>
+      <c r="EV26" s="8" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
@@ -8791,7 +9469,7 @@
       <c r="V27" s="6" t="inlineStr"/>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
+          <t>2025-05-12 11:20:36</t>
         </is>
       </c>
       <c r="X27" s="4" t="n">
@@ -8822,429 +9500,479 @@
       <c r="AG27" s="6" t="inlineStr"/>
       <c r="AH27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AI27" s="8" t="inlineStr">
+          <t>19e4212bbd6b1e7bdb7f03ae13af9540beeeb17a06095ac443b235a0066ef62f</t>
+        </is>
+      </c>
+      <c r="AI27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AJ27" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AJ27" s="8" t="n">
+      <c r="AK27" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AK27" s="8" t="inlineStr">
+      <c r="AL27" s="8" t="inlineStr">
         <is>
           <t>2024-07-31 19:12:00</t>
         </is>
       </c>
-      <c r="AL27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="AM27" s="8" t="inlineStr"/>
-      <c r="AN27" s="8" t="inlineStr">
+      <c r="AM27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="AN27" s="8" t="inlineStr"/>
+      <c r="AO27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya-coupe - Old.pdf</t>
         </is>
       </c>
-      <c r="AO27" s="4" t="n">
+      <c r="AP27" s="4" t="inlineStr">
+        <is>
+          <t>d6061f78fd71a55405284665c0dd325d7451f3ad4c2962bb3ee569a5ff58a861</t>
+        </is>
+      </c>
+      <c r="AQ27" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="AP27" s="6" t="inlineStr"/>
-      <c r="AQ27" s="8" t="inlineStr">
+      <c r="AR27" s="6" t="inlineStr"/>
+      <c r="AS27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="AR27" s="8" t="inlineStr">
+      <c r="AT27" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="AS27" s="8" t="inlineStr"/>
-      <c r="AT27" s="8" t="inlineStr">
+      <c r="AU27" s="8" t="inlineStr"/>
+      <c r="AV27" s="8" t="inlineStr">
         <is>
           <t>Vertikalnaya coupe développée - 1:500</t>
         </is>
       </c>
-      <c r="AU27" s="8" t="inlineStr">
+      <c r="AW27" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="AV27" s="8" t="n">
+      <c r="AX27" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="AW27" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:21:48</t>
-        </is>
-      </c>
-      <c r="AX27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
       <c r="AY27" s="8" t="inlineStr">
         <is>
+          <t>2025-05-12 11:25:14</t>
+        </is>
+      </c>
+      <c r="AZ27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BA27" s="8" t="inlineStr">
+        <is>
           <t>Gouffre Vertikalnaya, topographie en coupe développée</t>
         </is>
       </c>
-      <c r="AZ27" s="8" t="inlineStr">
+      <c r="BB27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya-coupe.pdf</t>
         </is>
       </c>
-      <c r="BA27" s="4" t="n">
+      <c r="BC27" s="4" t="inlineStr">
+        <is>
+          <t>32bfa62d98c98f8a75f8918b1cc1ef10073cb63d628218c70384f65ec3616a25</t>
+        </is>
+      </c>
+      <c r="BD27" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="BB27" s="6" t="inlineStr"/>
-      <c r="BC27" s="8" t="inlineStr">
+      <c r="BE27" s="6" t="inlineStr"/>
+      <c r="BF27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BD27" s="8" t="inlineStr">
+      <c r="BG27" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BE27" s="8" t="inlineStr"/>
-      <c r="BF27" s="8" t="inlineStr">
+      <c r="BH27" s="8" t="inlineStr"/>
+      <c r="BI27" s="8" t="inlineStr">
         <is>
           <t>Vertikalnaya coupe développée</t>
         </is>
       </c>
-      <c r="BG27" s="8" t="inlineStr">
+      <c r="BJ27" s="8" t="inlineStr">
         <is>
           <t>Alexandre Pont</t>
         </is>
       </c>
-      <c r="BH27" s="8" t="n">
+      <c r="BK27" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="BI27" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:21:49</t>
-        </is>
-      </c>
-      <c r="BJ27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="BK27" s="8" t="inlineStr">
+      <c r="BL27" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:25:15</t>
+        </is>
+      </c>
+      <c r="BM27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="BN27" s="8" t="inlineStr">
         <is>
           <t>Gouffre Vertikalnaya, topographie en coupe développée</t>
         </is>
       </c>
-      <c r="BL27" s="8" t="inlineStr">
+      <c r="BO27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya-coupe_Spelunca.pdf</t>
         </is>
       </c>
-      <c r="BM27" s="4" t="n">
+      <c r="BP27" s="4" t="inlineStr">
+        <is>
+          <t>701427805f0fa653ac197d7d9593d344d4cbc2538321bb3ab5d1ef8215ede6b3</t>
+        </is>
+      </c>
+      <c r="BQ27" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="BN27" s="6" t="inlineStr"/>
-      <c r="BO27" s="8" t="inlineStr">
+      <c r="BR27" s="6" t="inlineStr"/>
+      <c r="BS27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="BP27" s="8" t="inlineStr">
+      <c r="BT27" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="BQ27" s="8" t="inlineStr"/>
-      <c r="BR27" s="8" t="inlineStr">
+      <c r="BU27" s="8" t="inlineStr"/>
+      <c r="BV27" s="8" t="inlineStr">
         <is>
           <t>Vertikalnaya coupe développée - 1:500</t>
         </is>
       </c>
-      <c r="BS27" s="8" t="inlineStr">
+      <c r="BW27" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="BT27" s="8" t="n">
+      <c r="BX27" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="BU27" s="8" t="inlineStr">
+      <c r="BY27" s="8" t="inlineStr">
         <is>
           <t>2024-07-31 19:12:02</t>
         </is>
       </c>
-      <c r="BV27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 09:22:16</t>
-        </is>
-      </c>
-      <c r="BW27" s="8" t="inlineStr"/>
-      <c r="BX27" s="8" t="inlineStr">
+      <c r="BZ27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CA27" s="8" t="inlineStr"/>
+      <c r="CB27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya-plan - Old.pdf</t>
         </is>
       </c>
-      <c r="BY27" s="4" t="n">
+      <c r="CC27" s="4" t="inlineStr">
+        <is>
+          <t>3f0bced8c3602a4e50565ae1a07efe5477b4f8ffb126f45e9d7b3784315336a3</t>
+        </is>
+      </c>
+      <c r="CD27" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="BZ27" s="6" t="inlineStr"/>
-      <c r="CA27" s="8" t="inlineStr">
+      <c r="CE27" s="6" t="inlineStr"/>
+      <c r="CF27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CB27" s="8" t="inlineStr">
+      <c r="CG27" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="CC27" s="8" t="inlineStr"/>
-      <c r="CD27" s="8" t="inlineStr">
+      <c r="CH27" s="8" t="inlineStr"/>
+      <c r="CI27" s="8" t="inlineStr">
         <is>
           <t>Vertikalnaya plan - 1:500</t>
         </is>
       </c>
-      <c r="CE27" s="8" t="inlineStr">
+      <c r="CJ27" s="8" t="inlineStr">
         <is>
           <t>Xavier Robert</t>
         </is>
       </c>
-      <c r="CF27" s="8" t="n">
+      <c r="CK27" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="CG27" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:21:49</t>
-        </is>
-      </c>
-      <c r="CH27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CI27" s="8" t="inlineStr">
+      <c r="CL27" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:25:16</t>
+        </is>
+      </c>
+      <c r="CM27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="CN27" s="8" t="inlineStr">
         <is>
           <t>Gouffre Vertikalnaya, topographie en plan</t>
         </is>
       </c>
-      <c r="CJ27" s="8" t="inlineStr">
+      <c r="CO27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya-plan.pdf</t>
         </is>
       </c>
-      <c r="CK27" s="4" t="n">
+      <c r="CP27" s="4" t="inlineStr">
+        <is>
+          <t>36bb6669ae334544e62113fbe9ad66eeff2d8ef55ca9e8a3abd5bd3f6f3dfc62</t>
+        </is>
+      </c>
+      <c r="CQ27" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="CL27" s="6" t="inlineStr"/>
-      <c r="CM27" s="8" t="inlineStr">
+      <c r="CR27" s="6" t="inlineStr"/>
+      <c r="CS27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CN27" s="8" t="inlineStr">
+      <c r="CT27" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="CO27" s="8" t="inlineStr"/>
-      <c r="CP27" s="8" t="inlineStr">
+      <c r="CU27" s="8" t="inlineStr"/>
+      <c r="CV27" s="8" t="inlineStr">
         <is>
           <t>Vertikalnaya plan</t>
         </is>
       </c>
-      <c r="CQ27" s="8" t="inlineStr">
+      <c r="CW27" s="8" t="inlineStr">
         <is>
           <t>Alexandre Pont</t>
         </is>
       </c>
-      <c r="CR27" s="8" t="n">
+      <c r="CX27" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="CS27" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:21:50</t>
-        </is>
-      </c>
-      <c r="CT27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="CU27" s="8" t="inlineStr">
+      <c r="CY27" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:25:17</t>
+        </is>
+      </c>
+      <c r="CZ27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="DA27" s="8" t="inlineStr">
         <is>
           <t>Gouffre Vertikalnaya, topographie en plan</t>
         </is>
       </c>
-      <c r="CV27" s="8" t="inlineStr">
+      <c r="DB27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya-plan_Spelunca.pdf</t>
         </is>
       </c>
-      <c r="CW27" s="4" t="n">
+      <c r="DC27" s="4" t="inlineStr">
+        <is>
+          <t>bda87429a9d31b0e4471c87f08e424308b04faa083481cfeb67b2af347654b24</t>
+        </is>
+      </c>
+      <c r="DD27" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="CX27" s="6" t="inlineStr"/>
-      <c r="CY27" s="8" t="inlineStr">
+      <c r="DE27" s="6" t="inlineStr"/>
+      <c r="DF27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="CZ27" s="8" t="inlineStr">
+      <c r="DG27" s="8" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="DA27" s="8" t="inlineStr"/>
-      <c r="DB27" s="8" t="inlineStr">
+      <c r="DH27" s="8" t="inlineStr"/>
+      <c r="DI27" s="8" t="inlineStr">
         <is>
           <t>Vertikalnaya plan - 1:500</t>
         </is>
       </c>
-      <c r="DC27" s="8" t="inlineStr">
+      <c r="DJ27" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DD27" s="8" t="n">
+      <c r="DK27" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="DE27" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="DF27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="DG27" s="8" t="inlineStr">
+      <c r="DL27" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="DM27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="DN27" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Vertikalnaya au format google earth</t>
         </is>
       </c>
-      <c r="DH27" s="8" t="inlineStr">
+      <c r="DO27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya-model.kml</t>
         </is>
       </c>
-      <c r="DI27" s="4" t="n">
+      <c r="DP27" s="4" t="inlineStr">
+        <is>
+          <t>2690c4b9c12988848e5527ab33dcaaa72bb8b5f6c68115513859d643f5b07b38</t>
+        </is>
+      </c>
+      <c r="DQ27" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="DJ27" s="6" t="inlineStr"/>
-      <c r="DK27" s="8" t="inlineStr">
+      <c r="DR27" s="6" t="inlineStr"/>
+      <c r="DS27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="DL27" s="8" t="inlineStr">
+      <c r="DT27" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="DM27" s="8" t="inlineStr"/>
-      <c r="DN27" s="8" t="inlineStr">
+      <c r="DU27" s="8" t="inlineStr"/>
+      <c r="DV27" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="DO27" s="8" t="inlineStr">
+      <c r="DW27" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DP27" s="8" t="n">
+      <c r="DX27" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="DQ27" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="DR27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="DS27" s="8" t="inlineStr">
+      <c r="DY27" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="DZ27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="EA27" s="8" t="inlineStr">
         <is>
           <t>Polygonale de Vertikalnaya au format google earth</t>
         </is>
       </c>
-      <c r="DT27" s="8" t="inlineStr">
+      <c r="EB27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya.kml</t>
         </is>
       </c>
-      <c r="DU27" s="4" t="n">
+      <c r="EC27" s="4" t="inlineStr">
+        <is>
+          <t>18788fc3a0099eaf42a122a3b513c963125ee9c23b826323b40fc1cc022952f9</t>
+        </is>
+      </c>
+      <c r="ED27" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="DV27" s="6" t="inlineStr"/>
-      <c r="DW27" s="8" t="inlineStr">
+      <c r="EE27" s="6" t="inlineStr"/>
+      <c r="EF27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="DX27" s="8" t="inlineStr">
+      <c r="EG27" s="8" t="inlineStr">
         <is>
           <t>kml</t>
         </is>
       </c>
-      <c r="DY27" s="8" t="inlineStr"/>
-      <c r="DZ27" s="8" t="inlineStr">
+      <c r="EH27" s="8" t="inlineStr"/>
+      <c r="EI27" s="8" t="inlineStr">
         <is>
           <t>Polygonale kml</t>
         </is>
       </c>
-      <c r="EA27" s="8" t="inlineStr">
+      <c r="EJ27" s="8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="EB27" s="8" t="n">
+      <c r="EK27" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="EC27" s="8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="ED27" s="4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:16:05</t>
-        </is>
-      </c>
-      <c r="EE27" s="8" t="inlineStr">
+      <c r="EL27" s="8" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="EM27" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:20:36</t>
+        </is>
+      </c>
+      <c r="EN27" s="8" t="inlineStr">
         <is>
           <t>Topo de Vertikalnaya au format Therion</t>
         </is>
       </c>
-      <c r="EF27" s="8" t="inlineStr">
+      <c r="EO27" s="8" t="inlineStr">
         <is>
           <t>Data/Sud/Data/Vertikalnaya/Outputs/Vertikalnaya.zip</t>
         </is>
       </c>
-      <c r="EG27" s="4" t="n">
+      <c r="EP27" s="4" t="inlineStr">
+        <is>
+          <t>7d687d5c6219e2e49b0c9b69d21b9509177004b66d609b1b0c4d5b8b04f5a25a</t>
+        </is>
+      </c>
+      <c r="EQ27" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="EH27" s="6" t="inlineStr"/>
-      <c r="EI27" s="8" t="inlineStr">
+      <c r="ER27" s="6" t="inlineStr"/>
+      <c r="ES27" s="8" t="inlineStr">
         <is>
           <t>cavité</t>
         </is>
       </c>
-      <c r="EJ27" s="8" t="inlineStr">
+      <c r="ET27" s="8" t="inlineStr">
         <is>
           <t>autre</t>
         </is>
       </c>
-      <c r="EK27" s="8" t="inlineStr"/>
-      <c r="EL27" s="8" t="inlineStr">
+      <c r="EU27" s="8" t="inlineStr"/>
+      <c r="EV27" s="8" t="inlineStr">
         <is>
           <t>Données topo brutes</t>
         </is>

--- a/Scripts/pyThtoBD/test/Outputs/Export_bd/Export_bd.xlsx
+++ b/Scripts/pyThtoBD/test/Outputs/Export_bd/Export_bd.xlsx
@@ -637,7 +637,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Tableau d'échange Therion - Karsteau, base : [test], mise à jour le : 2025-05-12 11:20:36</t>
+          <t>Tableau d'échange Therion - Karsteau, base : [Test], mise à jour le : 2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1613,7 +1613,7 @@
       <c r="V3" s="6" t="inlineStr"/>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X3" s="4" t="n">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="AI3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ3" s="8" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="AL3" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AM3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AN3" s="8" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="AY3" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AZ3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BA3" s="8" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="BL3" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN3" s="8" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="BP3" s="4" t="inlineStr">
         <is>
-          <t>752554b679936f7a1e505f0e04f1d0d65b02101536cc1f6309ecc480c44a9483</t>
+          <t>abd8fd804de10e2c956e8aa9eef25b0ffe0da57da97572caad6b0fb0e261487f</t>
         </is>
       </c>
       <c r="BQ3" s="4" t="n">
@@ -1949,7 +1949,7 @@
       <c r="V4" s="6" t="inlineStr"/>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X4" s="4" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="AI4" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ4" s="8" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
       <c r="V5" s="6" t="inlineStr"/>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X5" s="4" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ5" s="8" t="inlineStr">
@@ -2214,12 +2214,12 @@
       </c>
       <c r="AL5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:43</t>
+          <t>2025-05-13 10:15:39</t>
         </is>
       </c>
       <c r="AM5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN5" s="8" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="AP5" s="4" t="inlineStr">
         <is>
-          <t>38ec4923e638b56f09aaeb6147841e91f4dc6b8294d77f5e11191752dc73eb63</t>
+          <t>563333ddd1ab94fa97e5bff05bf40bb0b97042cb48962899b42423cfcd34e521</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="n">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="AY5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:44</t>
+          <t>2025-05-13 10:15:40</t>
         </is>
       </c>
       <c r="AZ5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA5" s="8" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="BC5" s="4" t="inlineStr">
         <is>
-          <t>d3f4b78016ba40be2e770d98026960b91cfa683540e6cb2a06443943a06af14e</t>
+          <t>ba6b46c23f5d756b29966f7fb4665b5242480e1e227441a04314820bf1c89727</t>
         </is>
       </c>
       <c r="BD5" s="4" t="n">
@@ -2320,12 +2320,12 @@
       </c>
       <c r="BL5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN5" s="8" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="BY5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA5" s="8" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="CL5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CM5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CN5" s="8" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="CP5" s="4" t="inlineStr">
         <is>
-          <t>cf1cb9851f74c82c13c58be66b9c11d3d5c4cb5172fb4cbfd1259323fdeeafc5</t>
+          <t>d9dbc3053e521db2844135101f35e973c7a9524b66a7b16bb488cb6671d59062</t>
         </is>
       </c>
       <c r="CQ5" s="4" t="n">
@@ -2581,7 +2581,7 @@
       <c r="V6" s="6" t="inlineStr"/>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X6" s="4" t="n">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="AI6" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ6" s="8" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       <c r="V7" s="6" t="inlineStr"/>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X7" s="4" t="n">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="AI7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ7" s="8" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="AM7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AN7" s="8" t="inlineStr"/>
@@ -2895,12 +2895,12 @@
       </c>
       <c r="AY7" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AZ7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BA7" s="8" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="BL7" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN7" s="8" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="BY7" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BZ7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CA7" s="8" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="CC7" s="4" t="inlineStr">
         <is>
-          <t>edd58b39d14b3b47a4b2c764cd4b4c0ddadff9e1fd13338d063385803b71b352</t>
+          <t>87fb043a9140a11afd39a8a324bc252d29b83a9baaf7742b27dbcef4e0f45d85</t>
         </is>
       </c>
       <c r="CD7" s="4" t="n">
@@ -3169,7 +3169,7 @@
       <c r="V8" s="6" t="inlineStr"/>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X8" s="4" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AI8" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ8" s="8" t="inlineStr"/>
@@ -3385,7 +3385,7 @@
       <c r="V9" s="6" t="inlineStr"/>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X9" s="4" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="AI9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ9" s="8" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="AL9" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:52</t>
+          <t>2025-05-13 10:15:42</t>
         </is>
       </c>
       <c r="AM9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN9" s="8" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="AP9" s="4" t="inlineStr">
         <is>
-          <t>bdbe75c82389301a7b1a19911336d970f81365f2ab31749a3dc76c85d9b75730</t>
+          <t>76ca21aa47d96c5a45309f6898f8b4e7bc3689faa09356f85372e81e2a7b2d07</t>
         </is>
       </c>
       <c r="AQ9" s="4" t="n">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="AY9" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AZ9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BA9" s="8" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="BL9" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN9" s="8" t="inlineStr">
@@ -3593,12 +3593,12 @@
       </c>
       <c r="BY9" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BZ9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CA9" s="8" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="CC9" s="4" t="inlineStr">
         <is>
-          <t>3b4755b4066a4396275edcf9cb2793ad377aa10e3f4f091f7c7ee2693d2a7de3</t>
+          <t>31266afd43cfab3ab4b67e97589d49b3ac6ab480fb902af037ff2bb524f0b3ee</t>
         </is>
       </c>
       <c r="CD9" s="4" t="n">
@@ -3761,7 +3761,7 @@
       <c r="V10" s="6" t="inlineStr"/>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X10" s="4" t="n">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="AI10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ10" s="8" t="inlineStr">
@@ -3810,12 +3810,12 @@
       </c>
       <c r="AL10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:54</t>
+          <t>2025-05-13 10:15:43</t>
         </is>
       </c>
       <c r="AM10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN10" s="8" t="inlineStr"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="AP10" s="4" t="inlineStr">
         <is>
-          <t>213baab255d2d680bfe6fcb65bdae1efedcbaa96c7f3b03cbebba30ae9046de6</t>
+          <t>be42939a0192d2f7207ac743db3f490db6350e5b101b3f38fb50f800bf8bae3e</t>
         </is>
       </c>
       <c r="AQ10" s="4" t="n">
@@ -3859,12 +3859,12 @@
       </c>
       <c r="AY10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:55</t>
+          <t>2025-05-13 10:15:44</t>
         </is>
       </c>
       <c r="AZ10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA10" s="8" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="BC10" s="4" t="inlineStr">
         <is>
-          <t>014f2126aa75427d07c3ed058f8848bd5bf5e9a7aac4276d1ffff05fa2ec9d09</t>
+          <t>68637dd92c545a897732d81a541fcb5456c14c5b65a83505cbb9581235f389ad</t>
         </is>
       </c>
       <c r="BD10" s="4" t="n">
@@ -3912,12 +3912,12 @@
       </c>
       <c r="BL10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN10" s="8" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="BY10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA10" s="8" t="inlineStr">
@@ -4018,12 +4018,12 @@
       </c>
       <c r="CL10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CM10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CN10" s="8" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="CP10" s="4" t="inlineStr">
         <is>
-          <t>da6e40f4f913aa8d6991c0be92c67bd7a4eddb68654c7fbfa4f78400393a5e91</t>
+          <t>300e018f63699e3bbc4aa039c4f79d5f88d39c6ad959239f7d952bc374d1d531</t>
         </is>
       </c>
       <c r="CQ10" s="4" t="n">
@@ -4173,7 +4173,7 @@
       <c r="V11" s="6" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X11" s="4" t="n">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="AI11" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ11" s="8" t="inlineStr"/>
@@ -4389,7 +4389,7 @@
       <c r="V12" s="6" t="inlineStr"/>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X12" s="4" t="n">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="AI12" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ12" s="8" t="inlineStr"/>
@@ -4605,7 +4605,7 @@
       <c r="V13" s="6" t="inlineStr"/>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X13" s="4" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="AI13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ13" s="8" t="inlineStr">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="AL13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:58</t>
+          <t>2025-05-13 10:15:45</t>
         </is>
       </c>
       <c r="AM13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN13" s="8" t="inlineStr"/>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="AP13" s="4" t="inlineStr">
         <is>
-          <t>ef131ae0014d69de4b79b7ea4fafffff76c5a292c2e2a8cb34970622ada1812e</t>
+          <t>287b579b3919d4f98cc1c36865f5e3080a4328f390308c913d9a4d1dcfbdf9e1</t>
         </is>
       </c>
       <c r="AQ13" s="4" t="n">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="AY13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-13 10:15:46</t>
         </is>
       </c>
       <c r="AZ13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA13" s="8" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="BC13" s="4" t="inlineStr">
         <is>
-          <t>55bf2634b2f8b62ad118df6c2e0e165a673888cab2f8c8baca73c1d918d79a81</t>
+          <t>24d281708818f7eeed35b2b8412db9c13fadea29ae07cdfde41bb6a742af8b21</t>
         </is>
       </c>
       <c r="BD13" s="4" t="n">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="BL13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN13" s="8" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="BY13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA13" s="8" t="inlineStr">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="CL13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CM13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CN13" s="8" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="CP13" s="4" t="inlineStr">
         <is>
-          <t>fd1ee5e0fc2e7d3339e0630006b48d7b0315a8fe06a207133a68350152b68a30</t>
+          <t>a877270fbb92f9b6b6644ed6a4d763426d07e40e5881512f8f59281fe1bfb4bc</t>
         </is>
       </c>
       <c r="CQ13" s="4" t="n">
@@ -5017,7 +5017,7 @@
       <c r="V14" s="6" t="inlineStr"/>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X14" s="4" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="AI14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ14" s="8" t="inlineStr">
@@ -5066,12 +5066,12 @@
       </c>
       <c r="AL14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:02</t>
+          <t>2025-05-13 10:15:47</t>
         </is>
       </c>
       <c r="AM14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN14" s="8" t="inlineStr"/>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="AP14" s="4" t="inlineStr">
         <is>
-          <t>98f0f074ed13eba6c3a2c99735d6cef8743b3f9dcd47c0defe155bb9d02b4f8d</t>
+          <t>68da2f144ffededa6ecd1afac41af810c23828e82c95be9f3e8553a01721da46</t>
         </is>
       </c>
       <c r="AQ14" s="4" t="n">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="AY14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:02</t>
+          <t>2025-05-13 10:15:48</t>
         </is>
       </c>
       <c r="AZ14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA14" s="8" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="BC14" s="4" t="inlineStr">
         <is>
-          <t>7d2c04c03e7cfb2b61f0cfdb371a6ca2125bd587eba17a102a76fd7121551312</t>
+          <t>9731970b4a5ad1b7a41798d9a6c16e9f89b7b00a0322673297ed3b21b6026187</t>
         </is>
       </c>
       <c r="BD14" s="4" t="n">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="BL14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN14" s="8" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="BY14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA14" s="8" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="CL14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CM14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CN14" s="8" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="CP14" s="4" t="inlineStr">
         <is>
-          <t>10d7fe9a832087817eeeca5917e3978b0b104ec6e0b413785d341ff668ea0799</t>
+          <t>cedd4f680886c3a6964a722217c1e78499484b7cedd9db01e883354dda4eeef5</t>
         </is>
       </c>
       <c r="CQ14" s="4" t="n">
@@ -5429,7 +5429,7 @@
       <c r="V15" s="6" t="inlineStr"/>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X15" s="4" t="n">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="AI15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ15" s="8" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="AL15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:05</t>
+          <t>2025-05-13 10:15:49</t>
         </is>
       </c>
       <c r="AM15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN15" s="8" t="inlineStr"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="AP15" s="4" t="inlineStr">
         <is>
-          <t>2d69d2325836ce1e44b9cb4ab8e9abe30d5b423e2e389f654c5483c1a1eee7b9</t>
+          <t>cc27c78daea520247a64a8fc4aa6d3261843182ae58002e37aa3a6d836f9c00b</t>
         </is>
       </c>
       <c r="AQ15" s="4" t="n">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="AY15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:06</t>
+          <t>2025-05-13 10:15:50</t>
         </is>
       </c>
       <c r="AZ15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA15" s="8" t="inlineStr"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="BC15" s="4" t="inlineStr">
         <is>
-          <t>f4ea705fd74094483681adb6c78d2cbd6fb531253010059f0ec5670a8ddcf7ce</t>
+          <t>27038b153fa53570c1cebaa1c9d82721ea5a74c8696806e2f49eae4544f90a45</t>
         </is>
       </c>
       <c r="BD15" s="4" t="n">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="BL15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN15" s="8" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="BY15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA15" s="8" t="inlineStr">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="CL15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CM15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CN15" s="8" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="CP15" s="4" t="inlineStr">
         <is>
-          <t>aa927596b680615338b3fd89a1b90481ad9a9eb683e51f677a14d51f3bd5ad33</t>
+          <t>73e172278bc8e0a2846ae2ec38acb87733488bcd37b9b2113c2982d2fbceb3e6</t>
         </is>
       </c>
       <c r="CQ15" s="4" t="n">
@@ -5837,7 +5837,7 @@
       <c r="V16" s="6" t="inlineStr"/>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X16" s="4" t="n">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="AI16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ16" s="8" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="AL16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:07</t>
+          <t>2025-05-13 10:15:51</t>
         </is>
       </c>
       <c r="AM16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN16" s="8" t="inlineStr"/>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="AP16" s="4" t="inlineStr">
         <is>
-          <t>ff248a2c70640cbfdb4fa5e5c34fb69803c1d20a6338c737c98daed111f05f4f</t>
+          <t>072b70e6f390a2ca601ada97ce4604247677277f6639ad6c31d38a024c9ef54e</t>
         </is>
       </c>
       <c r="AQ16" s="4" t="n">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="AY16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:08</t>
+          <t>2025-05-13 10:15:52</t>
         </is>
       </c>
       <c r="AZ16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA16" s="8" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="BC16" s="4" t="inlineStr">
         <is>
-          <t>5a416311a78cf5df36ecea6add051cc9a6f1fe780f3f4d3905d8f12826b1960a</t>
+          <t>37d2e3575fa365e47dc037dddef2a1524ddf6740306c7fd622a29ad3866fdfdf</t>
         </is>
       </c>
       <c r="BD16" s="4" t="n">
@@ -5988,12 +5988,12 @@
       </c>
       <c r="BL16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN16" s="8" t="inlineStr">
@@ -6041,12 +6041,12 @@
       </c>
       <c r="BY16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA16" s="8" t="inlineStr">
@@ -6094,12 +6094,12 @@
       </c>
       <c r="CL16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CM16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CN16" s="8" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="CP16" s="4" t="inlineStr">
         <is>
-          <t>18e0993e32e4f79d512f2ebed457fe03829c8c1b987e887d195c7ec53021e999</t>
+          <t>54b993e21ba4a54c3685b9531b55d4bd6481267b98b7d14e00e3a265eb07a154</t>
         </is>
       </c>
       <c r="CQ16" s="4" t="n">
@@ -6249,7 +6249,7 @@
       <c r="V17" s="6" t="inlineStr"/>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X17" s="4" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="AI17" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ17" s="8" t="inlineStr"/>
@@ -6465,7 +6465,7 @@
       <c r="V18" s="6" t="inlineStr"/>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X18" s="4" t="n">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="AI18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ18" s="8" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="AM18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AN18" s="8" t="inlineStr"/>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="AZ18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BA18" s="8" t="inlineStr"/>
@@ -6612,12 +6612,12 @@
       </c>
       <c r="BL18" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:12</t>
+          <t>2025-05-13 10:15:53</t>
         </is>
       </c>
       <c r="BM18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BN18" s="8" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="BP18" s="4" t="inlineStr">
         <is>
-          <t>4f8b1ee178d2c305bce746d4f43cbb274683fb060a19013da03b77364ed12a36</t>
+          <t>b1abcd24bd2c5b404ff3551996e7f63d33e28986fe95892ddbcfed280258ecc3</t>
         </is>
       </c>
       <c r="BQ18" s="4" t="n">
@@ -6665,12 +6665,12 @@
       </c>
       <c r="BY18" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA18" s="8" t="inlineStr">
@@ -6718,12 +6718,12 @@
       </c>
       <c r="CL18" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CM18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CN18" s="8" t="inlineStr">
@@ -6771,12 +6771,12 @@
       </c>
       <c r="CY18" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CZ18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="DA18" s="8" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="DC18" s="4" t="inlineStr">
         <is>
-          <t>3957f3f60a7372b8aa9a523eba22534ccaf298db2bc6b505b6d7f6bf8c3b15b1</t>
+          <t>59cb4bdb42f8005d4490749c75e3a4a46b21805edb284e5db990342851314775</t>
         </is>
       </c>
       <c r="DD18" s="4" t="n">
@@ -6913,7 +6913,7 @@
       <c r="V19" s="6" t="inlineStr"/>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X19" s="4" t="n">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="AI19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ19" s="8" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="AM19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AN19" s="8" t="inlineStr"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="AZ19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BA19" s="8" t="inlineStr"/>
@@ -7060,12 +7060,12 @@
       </c>
       <c r="BL19" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN19" s="8" t="inlineStr">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="BY19" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA19" s="8" t="inlineStr">
@@ -7166,12 +7166,12 @@
       </c>
       <c r="CL19" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CM19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CN19" s="8" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="CP19" s="4" t="inlineStr">
         <is>
-          <t>42634ad59cc0f3302d66a8b9b59e06b84232ddfa12168fe663a245d733727043</t>
+          <t>762862cfbdb23c6c5f25f11238501b05dfd07d3879fc5cbc2ff227491c3bf884</t>
         </is>
       </c>
       <c r="CQ19" s="4" t="n">
@@ -7321,7 +7321,7 @@
       <c r="V20" s="6" t="inlineStr"/>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X20" s="4" t="n">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="AI20" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ20" s="8" t="inlineStr"/>
@@ -7537,7 +7537,7 @@
       <c r="V21" s="6" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X21" s="4" t="n">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="AI21" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ21" s="8" t="inlineStr"/>
@@ -7753,7 +7753,7 @@
       <c r="V22" s="6" t="inlineStr"/>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X22" s="4" t="n">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="AI22" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ22" s="8" t="inlineStr"/>
@@ -7969,7 +7969,7 @@
       <c r="V23" s="6" t="inlineStr"/>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X23" s="4" t="n">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ23" s="8" t="inlineStr"/>
@@ -8185,7 +8185,7 @@
       <c r="V24" s="6" t="inlineStr"/>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X24" s="4" t="n">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="AI24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ24" s="8" t="inlineStr">
@@ -8234,12 +8234,12 @@
       </c>
       <c r="AL24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:41</t>
+          <t>2025-05-13 10:15:55</t>
         </is>
       </c>
       <c r="AM24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN24" s="8" t="inlineStr">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AP24" s="4" t="inlineStr">
         <is>
-          <t>3431d97123fe94185d7b0868a40382f417558a2ccd37efbaedd1fc616a6a5f69</t>
+          <t>a6a173a02a6c6337f1c8489503c66389be52e635fd5f0e2f9e917045a0132196</t>
         </is>
       </c>
       <c r="AQ24" s="4" t="n">
@@ -8287,12 +8287,12 @@
       </c>
       <c r="AY24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:43</t>
+          <t>2025-05-13 10:15:57</t>
         </is>
       </c>
       <c r="AZ24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA24" s="8" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="BC24" s="4" t="inlineStr">
         <is>
-          <t>490d4f691c5399c6c68fc42963e8ecc01ff4c5fee0e79e9bdb358518e9b2ee7f</t>
+          <t>2f4380a0398c51136ef0a273b2737c9d68b45a87761269085aa843037de55ef6</t>
         </is>
       </c>
       <c r="BD24" s="4" t="n">
@@ -8340,12 +8340,12 @@
       </c>
       <c r="BL24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN24" s="8" t="inlineStr">
@@ -8393,12 +8393,12 @@
       </c>
       <c r="BY24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA24" s="8" t="inlineStr">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="CL24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CM24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CN24" s="8" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="CP24" s="4" t="inlineStr">
         <is>
-          <t>a78e12099d9da4c2f2505c172a6d39c3341b6ee265fb30c4a00d263dcd912661</t>
+          <t>10fce2e8e394645a7ded00468d5a78cbfa880f20709d92c9f8cec51334b0ac17</t>
         </is>
       </c>
       <c r="CQ24" s="4" t="n">
@@ -8601,7 +8601,7 @@
       <c r="V25" s="6" t="inlineStr"/>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X25" s="4" t="n">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ25" s="8" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="AM25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AN25" s="8" t="inlineStr"/>
@@ -8699,12 +8699,12 @@
       </c>
       <c r="AY25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:25</t>
+          <t>2025-05-13 10:16:01</t>
         </is>
       </c>
       <c r="AZ25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA25" s="8" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="BC25" s="4" t="inlineStr">
         <is>
-          <t>3764676fdd4317d9995bddc9903ccd0696ba89c6e2a9669fa419843fe1711c5a</t>
+          <t>68100420851bb7d12c30b8ca2c20c760efe68b7d84d4c30195fe0828a285b4f9</t>
         </is>
       </c>
       <c r="BD25" s="4" t="n">
@@ -8752,12 +8752,12 @@
       </c>
       <c r="BL25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:27</t>
+          <t>2025-05-13 10:16:03</t>
         </is>
       </c>
       <c r="BM25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BN25" s="8" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="BP25" s="4" t="inlineStr">
         <is>
-          <t>79f321fb9b813d5ef6df375372fd9385b55649ff38c2649d80ad3a95d858340e</t>
+          <t>952ddb306909ff439c8b7c511fe1207dd10286ae748af08e7097bb21458fec22</t>
         </is>
       </c>
       <c r="BQ25" s="4" t="n">
@@ -8805,12 +8805,12 @@
       </c>
       <c r="BY25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA25" s="8" t="inlineStr">
@@ -8858,12 +8858,12 @@
       </c>
       <c r="CL25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CM25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CN25" s="8" t="inlineStr">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="CY25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CZ25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="DA25" s="8" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="DC25" s="4" t="inlineStr">
         <is>
-          <t>4e3375122340e1c79d9007b6ec4fbaa5ca51b5172ffdad1ceb10d3d961560871</t>
+          <t>ab33c298f57bf22c280698d4e6d822a31d03db0f6e4c175b7e67c35026f930b5</t>
         </is>
       </c>
       <c r="DD25" s="4" t="n">
@@ -9053,7 +9053,7 @@
       <c r="V26" s="6" t="inlineStr"/>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X26" s="4" t="n">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="AI26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ26" s="8" t="inlineStr">
@@ -9102,12 +9102,12 @@
       </c>
       <c r="AL26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:54</t>
+          <t>2025-05-13 10:16:23</t>
         </is>
       </c>
       <c r="AM26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="AN26" s="8" t="inlineStr">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="AP26" s="4" t="inlineStr">
         <is>
-          <t>54cd9025fcf6826b9e267f2499c13a26c6f3dbdfad255df03e22e998854d84b8</t>
+          <t>71e2a589b6e20acc1ee68019f5d240d25f33566092f407f8c7b43df487b3eb49</t>
         </is>
       </c>
       <c r="AQ26" s="4" t="n">
@@ -9155,12 +9155,12 @@
       </c>
       <c r="AY26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:56</t>
+          <t>2025-05-13 10:16:25</t>
         </is>
       </c>
       <c r="AZ26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA26" s="8" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="BC26" s="4" t="inlineStr">
         <is>
-          <t>c66b77898e4b1b2a57d5c56df927a778581aa99a3789f32d543c461b93efca5f</t>
+          <t>de04d244ee23dec9952b0adb558c7985f69afe44515412a8d11ca4c65a6c7d18</t>
         </is>
       </c>
       <c r="BD26" s="4" t="n">
@@ -9208,12 +9208,12 @@
       </c>
       <c r="BL26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BM26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BN26" s="8" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="BY26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="BZ26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA26" s="8" t="inlineStr">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="CL26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CM26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CN26" s="8" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="CP26" s="4" t="inlineStr">
         <is>
-          <t>ed7e80772114b00e57a0aed2ac180d134a507e4187cc2e66ff95a7a1fb85ad6f</t>
+          <t>ec9014bd39989bbe05216deb19ed09e332bf26738fd8b4b408a574a5058fd107</t>
         </is>
       </c>
       <c r="CQ26" s="4" t="n">
@@ -9469,7 +9469,7 @@
       <c r="V27" s="6" t="inlineStr"/>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="X27" s="4" t="n">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="AI27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AJ27" s="8" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="AM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="AN27" s="8" t="inlineStr"/>
@@ -9567,12 +9567,12 @@
       </c>
       <c r="AY27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:14</t>
+          <t>2025-05-13 10:16:31</t>
         </is>
       </c>
       <c r="AZ27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BA27" s="8" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="BC27" s="4" t="inlineStr">
         <is>
-          <t>32bfa62d98c98f8a75f8918b1cc1ef10073cb63d628218c70384f65ec3616a25</t>
+          <t>7a4dbad891ca6f063126a8c88b6308976604ab95899e285354ff9dfe85448071</t>
         </is>
       </c>
       <c r="BD27" s="4" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="BL27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:15</t>
+          <t>2025-05-13 10:16:32</t>
         </is>
       </c>
       <c r="BM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="BN27" s="8" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="BP27" s="4" t="inlineStr">
         <is>
-          <t>701427805f0fa653ac197d7d9593d344d4cbc2538321bb3ab5d1ef8215ede6b3</t>
+          <t>68724f84959f1df502ddb00343df7fb2a46867b12bb0f86b599c5f1c6421b3d4</t>
         </is>
       </c>
       <c r="BQ27" s="4" t="n">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="BZ27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="CA27" s="8" t="inlineStr"/>
@@ -9722,12 +9722,12 @@
       </c>
       <c r="CL27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:16</t>
+          <t>2025-05-13 10:16:33</t>
         </is>
       </c>
       <c r="CM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="CN27" s="8" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="CP27" s="4" t="inlineStr">
         <is>
-          <t>36bb6669ae334544e62113fbe9ad66eeff2d8ef55ca9e8a3abd5bd3f6f3dfc62</t>
+          <t>69dba6f72f7e252689f5dbf1c188a2bc6803c8ae5ecabb0b20e2f6ad9754c1db</t>
         </is>
       </c>
       <c r="CQ27" s="4" t="n">
@@ -9775,12 +9775,12 @@
       </c>
       <c r="CY27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:17</t>
+          <t>2025-05-13 10:16:35</t>
         </is>
       </c>
       <c r="CZ27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:15:38</t>
         </is>
       </c>
       <c r="DA27" s="8" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="DC27" s="4" t="inlineStr">
         <is>
-          <t>bda87429a9d31b0e4471c87f08e424308b04faa083481cfeb67b2af347654b24</t>
+          <t>09dbcb81cec2411ecdacecee68a1213e949c6ed29091d29a4819b924758f696b</t>
         </is>
       </c>
       <c r="DD27" s="4" t="n">
@@ -9828,12 +9828,12 @@
       </c>
       <c r="DL27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="DM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="DN27" s="8" t="inlineStr">
@@ -9881,12 +9881,12 @@
       </c>
       <c r="DY27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="DZ27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="EA27" s="8" t="inlineStr">
@@ -9934,12 +9934,12 @@
       </c>
       <c r="EL27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="EM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:36</t>
+          <t>2025-05-13 10:01:16</t>
         </is>
       </c>
       <c r="EN27" s="8" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="EP27" s="4" t="inlineStr">
         <is>
-          <t>7d687d5c6219e2e49b0c9b69d21b9509177004b66d609b1b0c4d5b8b04f5a25a</t>
+          <t>3950dbbdb6c52bdb086fb170bff34371684e075f9cf7f3554cc9c176123aebaf</t>
         </is>
       </c>
       <c r="EQ27" s="4" t="n">

--- a/Scripts/pyThtoBD/test/Outputs/Export_bd/Export_bd.xlsx
+++ b/Scripts/pyThtoBD/test/Outputs/Export_bd/Export_bd.xlsx
@@ -637,7 +637,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Tableau d'échange Therion - Karsteau, base : [Test], mise à jour le : 2025-05-13 10:15:38</t>
+          <t>Tableau d'échange Therion - Karsteau, base : [Test], mise à jour le : 2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1628,13 +1628,13 @@
       <c r="AA3" s="7" t="inlineStr"/>
       <c r="AB3" s="7" t="inlineStr"/>
       <c r="AC3" s="7" t="n">
-        <v>62.68</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE3" s="7" t="n">
-        <v>39.04</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="AI3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ3" s="8" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="BL3" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BM3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BN3" s="8" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="BP3" s="4" t="inlineStr">
         <is>
-          <t>abd8fd804de10e2c956e8aa9eef25b0ffe0da57da97572caad6b0fb0e261487f</t>
+          <t>a9d63678857ddce57702b1f26024a8951143793cd927f0001a432dc650699ab5</t>
         </is>
       </c>
       <c r="BQ3" s="4" t="n">
@@ -1964,13 +1964,13 @@
       <c r="AA4" s="7" t="inlineStr"/>
       <c r="AB4" s="7" t="inlineStr"/>
       <c r="AC4" s="7" t="n">
-        <v>62.68</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE4" s="7" t="n">
-        <v>39.04</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="AI4" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ4" s="8" t="inlineStr"/>
@@ -2180,13 +2180,13 @@
       <c r="AA5" s="7" t="inlineStr"/>
       <c r="AB5" s="7" t="inlineStr"/>
       <c r="AC5" s="7" t="n">
-        <v>658.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE5" s="7" t="n">
-        <v>123.16</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ5" s="8" t="inlineStr">
@@ -2214,12 +2214,12 @@
       </c>
       <c r="AL5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:39</t>
+          <t>2025-11-18 15:01:55</t>
         </is>
       </c>
       <c r="AM5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN5" s="8" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="AP5" s="4" t="inlineStr">
         <is>
-          <t>563333ddd1ab94fa97e5bff05bf40bb0b97042cb48962899b42423cfcd34e521</t>
+          <t>fdda49c83bcf2a06aac6f61130c12592252d0cfc078c2468d30ff0c16b15a3db</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="n">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="AY5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:40</t>
+          <t>2025-11-18 15:01:56</t>
         </is>
       </c>
       <c r="AZ5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA5" s="8" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="BC5" s="4" t="inlineStr">
         <is>
-          <t>ba6b46c23f5d756b29966f7fb4665b5242480e1e227441a04314820bf1c89727</t>
+          <t>0cd364dcb6f9168030a18493d11d112b7edf152d027c7572ea14a4a46f42dbe3</t>
         </is>
       </c>
       <c r="BD5" s="4" t="n">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="CL5" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN5" s="8" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="CP5" s="4" t="inlineStr">
         <is>
-          <t>d9dbc3053e521db2844135101f35e973c7a9524b66a7b16bb488cb6671d59062</t>
+          <t>363633c29cc70088f37e39a4343ff3509446a64c5e1a472d2476e398807322f5</t>
         </is>
       </c>
       <c r="CQ5" s="4" t="n">
@@ -2596,13 +2596,13 @@
       <c r="AA6" s="7" t="inlineStr"/>
       <c r="AB6" s="7" t="inlineStr"/>
       <c r="AC6" s="7" t="n">
-        <v>658.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE6" s="7" t="n">
-        <v>123.16</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="AI6" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ6" s="8" t="inlineStr"/>
@@ -2812,13 +2812,13 @@
       <c r="AA7" s="7" t="inlineStr"/>
       <c r="AB7" s="7" t="inlineStr"/>
       <c r="AC7" s="7" t="n">
-        <v>726.73</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" s="7" t="n">
-        <v>145.12</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="AI7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ7" s="8" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="BY7" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BZ7" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CA7" s="8" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="CC7" s="4" t="inlineStr">
         <is>
-          <t>87fb043a9140a11afd39a8a324bc252d29b83a9baaf7742b27dbcef4e0f45d85</t>
+          <t>633f422f79afe0fe8000ab6aa9220fa3fe08bf930dbc695c624a2cc70a15f5ee</t>
         </is>
       </c>
       <c r="CD7" s="4" t="n">
@@ -3184,13 +3184,13 @@
       <c r="AA8" s="7" t="inlineStr"/>
       <c r="AB8" s="7" t="inlineStr"/>
       <c r="AC8" s="7" t="n">
-        <v>726.73</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE8" s="7" t="n">
-        <v>145.12</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AI8" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ8" s="8" t="inlineStr"/>
@@ -3400,13 +3400,13 @@
       <c r="AA9" s="7" t="inlineStr"/>
       <c r="AB9" s="7" t="inlineStr"/>
       <c r="AC9" s="7" t="n">
-        <v>70.84</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE9" s="7" t="n">
-        <v>39.31</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="AI9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ9" s="8" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="AL9" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:42</t>
+          <t>2025-11-18 15:01:58</t>
         </is>
       </c>
       <c r="AM9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN9" s="8" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="AP9" s="4" t="inlineStr">
         <is>
-          <t>76ca21aa47d96c5a45309f6898f8b4e7bc3689faa09356f85372e81e2a7b2d07</t>
+          <t>1e5074541ccc7812ecf364b4cfd40fc0c1a8d77267d3e6a5d431752fbe98d7d8</t>
         </is>
       </c>
       <c r="AQ9" s="4" t="n">
@@ -3593,12 +3593,12 @@
       </c>
       <c r="BY9" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BZ9" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CA9" s="8" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="CC9" s="4" t="inlineStr">
         <is>
-          <t>31266afd43cfab3ab4b67e97589d49b3ac6ab480fb902af037ff2bb524f0b3ee</t>
+          <t>66844bde28221d9055f5ee92164b4b1d8ff948f7472402bf573b4efa8799229c</t>
         </is>
       </c>
       <c r="CD9" s="4" t="n">
@@ -3776,13 +3776,13 @@
       <c r="AA10" s="7" t="inlineStr"/>
       <c r="AB10" s="7" t="inlineStr"/>
       <c r="AC10" s="7" t="n">
-        <v>63.24</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE10" s="7" t="n">
-        <v>22.35</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="AI10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ10" s="8" t="inlineStr">
@@ -3810,12 +3810,12 @@
       </c>
       <c r="AL10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:43</t>
+          <t>2025-11-18 15:02:00</t>
         </is>
       </c>
       <c r="AM10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN10" s="8" t="inlineStr"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="AP10" s="4" t="inlineStr">
         <is>
-          <t>be42939a0192d2f7207ac743db3f490db6350e5b101b3f38fb50f800bf8bae3e</t>
+          <t>0f96e0d8edf69344b68e304e1f6fea7d8adbbf470e29d8f480fdbfa692680cc5</t>
         </is>
       </c>
       <c r="AQ10" s="4" t="n">
@@ -3859,12 +3859,12 @@
       </c>
       <c r="AY10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:44</t>
+          <t>2025-11-18 15:02:01</t>
         </is>
       </c>
       <c r="AZ10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA10" s="8" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="BC10" s="4" t="inlineStr">
         <is>
-          <t>68637dd92c545a897732d81a541fcb5456c14c5b65a83505cbb9581235f389ad</t>
+          <t>e0ed87d0dac11cea7cd91d70ed6c16c79950f4a7409eb9db21876e127a99ab05</t>
         </is>
       </c>
       <c r="BD10" s="4" t="n">
@@ -4018,12 +4018,12 @@
       </c>
       <c r="CL10" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM10" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN10" s="8" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="CP10" s="4" t="inlineStr">
         <is>
-          <t>300e018f63699e3bbc4aa039c4f79d5f88d39c6ad959239f7d952bc374d1d531</t>
+          <t>e3b1260c5a2c9b9d81bc1da52b66229215ee67bb91da124546a55d92599cbfdf</t>
         </is>
       </c>
       <c r="CQ10" s="4" t="n">
@@ -4188,13 +4188,13 @@
       <c r="AA11" s="7" t="inlineStr"/>
       <c r="AB11" s="7" t="inlineStr"/>
       <c r="AC11" s="7" t="n">
-        <v>63.24</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE11" s="7" t="n">
-        <v>22.35</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="4" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="AI11" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ11" s="8" t="inlineStr"/>
@@ -4404,13 +4404,13 @@
       <c r="AA12" s="7" t="inlineStr"/>
       <c r="AB12" s="7" t="inlineStr"/>
       <c r="AC12" s="7" t="n">
-        <v>63.24</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE12" s="7" t="n">
-        <v>22.35</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="4" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="AI12" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ12" s="8" t="inlineStr"/>
@@ -4620,13 +4620,13 @@
       <c r="AA13" s="7" t="inlineStr"/>
       <c r="AB13" s="7" t="inlineStr"/>
       <c r="AC13" s="7" t="n">
-        <v>43.96</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE13" s="7" t="n">
-        <v>21.26</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="4" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="AI13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ13" s="8" t="inlineStr">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="AL13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:45</t>
+          <t>2025-11-18 15:02:02</t>
         </is>
       </c>
       <c r="AM13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN13" s="8" t="inlineStr"/>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="AP13" s="4" t="inlineStr">
         <is>
-          <t>287b579b3919d4f98cc1c36865f5e3080a4328f390308c913d9a4d1dcfbdf9e1</t>
+          <t>9249eff234b31c16ae821aa04c5ec13edd0fd0a514054a2a721826c305b218e2</t>
         </is>
       </c>
       <c r="AQ13" s="4" t="n">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="AY13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:46</t>
+          <t>2025-11-18 15:02:04</t>
         </is>
       </c>
       <c r="AZ13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA13" s="8" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="BC13" s="4" t="inlineStr">
         <is>
-          <t>24d281708818f7eeed35b2b8412db9c13fadea29ae07cdfde41bb6a742af8b21</t>
+          <t>859773cba3fe3a1bb97e2bd79875d65640e9d165d3b985a171eca779b8eded53</t>
         </is>
       </c>
       <c r="BD13" s="4" t="n">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="CL13" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM13" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN13" s="8" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="CP13" s="4" t="inlineStr">
         <is>
-          <t>a877270fbb92f9b6b6644ed6a4d763426d07e40e5881512f8f59281fe1bfb4bc</t>
+          <t>51aa7aef3452ab38754e03e7b5812118ad65c7f5a356b9c722e9985063580e93</t>
         </is>
       </c>
       <c r="CQ13" s="4" t="n">
@@ -5032,13 +5032,13 @@
       <c r="AA14" s="7" t="inlineStr"/>
       <c r="AB14" s="7" t="inlineStr"/>
       <c r="AC14" s="7" t="n">
-        <v>93.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE14" s="7" t="n">
-        <v>37.23</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="4" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="AI14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ14" s="8" t="inlineStr">
@@ -5066,12 +5066,12 @@
       </c>
       <c r="AL14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:47</t>
+          <t>2025-11-18 15:02:05</t>
         </is>
       </c>
       <c r="AM14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN14" s="8" t="inlineStr"/>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="AP14" s="4" t="inlineStr">
         <is>
-          <t>68da2f144ffededa6ecd1afac41af810c23828e82c95be9f3e8553a01721da46</t>
+          <t>6d0e585c51b755e64577ef8aa2de907b84e9bc6e8971e76cd6e3bfa0ad317537</t>
         </is>
       </c>
       <c r="AQ14" s="4" t="n">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="AY14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:48</t>
+          <t>2025-11-18 15:02:06</t>
         </is>
       </c>
       <c r="AZ14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA14" s="8" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="BC14" s="4" t="inlineStr">
         <is>
-          <t>9731970b4a5ad1b7a41798d9a6c16e9f89b7b00a0322673297ed3b21b6026187</t>
+          <t>8c6935d0abf0c74e05fd85f7dc189a44428d8edb91520c75548b191a3c805395</t>
         </is>
       </c>
       <c r="BD14" s="4" t="n">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="CL14" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM14" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN14" s="8" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="CP14" s="4" t="inlineStr">
         <is>
-          <t>cedd4f680886c3a6964a722217c1e78499484b7cedd9db01e883354dda4eeef5</t>
+          <t>b6e7083d6a96093ed9782426c9bfdf838b91a47419cc6b0cfc2446d294b8c66d</t>
         </is>
       </c>
       <c r="CQ14" s="4" t="n">
@@ -5444,13 +5444,13 @@
       <c r="AA15" s="7" t="inlineStr"/>
       <c r="AB15" s="7" t="inlineStr"/>
       <c r="AC15" s="7" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE15" s="7" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="4" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="AI15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ15" s="8" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="AL15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:49</t>
+          <t>2025-11-18 15:02:07</t>
         </is>
       </c>
       <c r="AM15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN15" s="8" t="inlineStr"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="AP15" s="4" t="inlineStr">
         <is>
-          <t>cc27c78daea520247a64a8fc4aa6d3261843182ae58002e37aa3a6d836f9c00b</t>
+          <t>e30bf60b27971f8a52f4114434d83cbfb5fce38bbda226d7579e062d7702af0a</t>
         </is>
       </c>
       <c r="AQ15" s="4" t="n">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="AY15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:50</t>
+          <t>2025-11-18 15:02:08</t>
         </is>
       </c>
       <c r="AZ15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA15" s="8" t="inlineStr"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="BC15" s="4" t="inlineStr">
         <is>
-          <t>27038b153fa53570c1cebaa1c9d82721ea5a74c8696806e2f49eae4544f90a45</t>
+          <t>bebad493ddf33b8b9ef3b6185c825a54d01fc1aa597c6542e5ead3c6275362a6</t>
         </is>
       </c>
       <c r="BD15" s="4" t="n">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="CL15" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM15" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN15" s="8" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="CP15" s="4" t="inlineStr">
         <is>
-          <t>73e172278bc8e0a2846ae2ec38acb87733488bcd37b9b2113c2982d2fbceb3e6</t>
+          <t>75c8c0b25e38df4f2a03c329c32d97072a7878cbbea67a39668ac8f5653bf666</t>
         </is>
       </c>
       <c r="CQ15" s="4" t="n">
@@ -5852,13 +5852,13 @@
       <c r="AA16" s="7" t="inlineStr"/>
       <c r="AB16" s="7" t="inlineStr"/>
       <c r="AC16" s="7" t="n">
-        <v>195.55</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE16" s="7" t="n">
-        <v>102.27</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="4" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="AI16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ16" s="8" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="AL16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:51</t>
+          <t>2025-11-18 15:02:09</t>
         </is>
       </c>
       <c r="AM16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN16" s="8" t="inlineStr"/>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="AP16" s="4" t="inlineStr">
         <is>
-          <t>072b70e6f390a2ca601ada97ce4604247677277f6639ad6c31d38a024c9ef54e</t>
+          <t>3d07b278a82584b57559ccc8b6fab5a7da8d45406490ce8a5596979efe769259</t>
         </is>
       </c>
       <c r="AQ16" s="4" t="n">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="AY16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:52</t>
+          <t>2025-11-18 15:02:10</t>
         </is>
       </c>
       <c r="AZ16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA16" s="8" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="BC16" s="4" t="inlineStr">
         <is>
-          <t>37d2e3575fa365e47dc037dddef2a1524ddf6740306c7fd622a29ad3866fdfdf</t>
+          <t>6c4383ad4f7cdbcb2dc38fe4ac5feae4ebc70acfba380a674d54a72950998f74</t>
         </is>
       </c>
       <c r="BD16" s="4" t="n">
@@ -6094,12 +6094,12 @@
       </c>
       <c r="CL16" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM16" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN16" s="8" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="CP16" s="4" t="inlineStr">
         <is>
-          <t>54b993e21ba4a54c3685b9531b55d4bd6481267b98b7d14e00e3a265eb07a154</t>
+          <t>b6b97259cf7ed93c2d6fc6fba575b18cca0102af64b5027c511554217b5e8540</t>
         </is>
       </c>
       <c r="CQ16" s="4" t="n">
@@ -6264,13 +6264,13 @@
       <c r="AA17" s="7" t="inlineStr"/>
       <c r="AB17" s="7" t="inlineStr"/>
       <c r="AC17" s="7" t="n">
-        <v>195.55</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <v>102.27</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="4" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="AI17" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ17" s="8" t="inlineStr"/>
@@ -6480,13 +6480,13 @@
       <c r="AA18" s="7" t="inlineStr"/>
       <c r="AB18" s="7" t="inlineStr"/>
       <c r="AC18" s="7" t="n">
-        <v>21.74</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE18" s="7" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="4" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="AI18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ18" s="8" t="inlineStr">
@@ -6612,12 +6612,12 @@
       </c>
       <c r="BL18" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:53</t>
+          <t>2025-11-18 15:02:12</t>
         </is>
       </c>
       <c r="BM18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BN18" s="8" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="BP18" s="4" t="inlineStr">
         <is>
-          <t>b1abcd24bd2c5b404ff3551996e7f63d33e28986fe95892ddbcfed280258ecc3</t>
+          <t>2351c0dad217a2246a947c4a778ca50c561971ed397890debbc23007db4ceca6</t>
         </is>
       </c>
       <c r="BQ18" s="4" t="n">
@@ -6771,12 +6771,12 @@
       </c>
       <c r="CY18" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CZ18" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="DA18" s="8" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="DC18" s="4" t="inlineStr">
         <is>
-          <t>59cb4bdb42f8005d4490749c75e3a4a46b21805edb284e5db990342851314775</t>
+          <t>e3e85a1ca6d5a712631298dfa842b95eaa538668cc5372f71fb494b9326c234f</t>
         </is>
       </c>
       <c r="DD18" s="4" t="n">
@@ -6928,13 +6928,13 @@
       <c r="AA19" s="7" t="inlineStr"/>
       <c r="AB19" s="7" t="inlineStr"/>
       <c r="AC19" s="7" t="n">
-        <v>4064.87</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE19" s="7" t="n">
-        <v>563.88</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="4" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="AI19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ19" s="8" t="inlineStr">
@@ -7166,12 +7166,12 @@
       </c>
       <c r="CL19" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM19" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN19" s="8" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="CP19" s="4" t="inlineStr">
         <is>
-          <t>762862cfbdb23c6c5f25f11238501b05dfd07d3879fc5cbc2ff227491c3bf884</t>
+          <t>5d8dee33e48f38b49609e73c97a8dfaa620c0d141def79cd91d82d22cef98a04</t>
         </is>
       </c>
       <c r="CQ19" s="4" t="n">
@@ -7336,13 +7336,13 @@
       <c r="AA20" s="7" t="inlineStr"/>
       <c r="AB20" s="7" t="inlineStr"/>
       <c r="AC20" s="7" t="n">
-        <v>4064.87</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <v>563.88</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="4" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="AI20" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ20" s="8" t="inlineStr"/>
@@ -7552,13 +7552,13 @@
       <c r="AA21" s="7" t="inlineStr"/>
       <c r="AB21" s="7" t="inlineStr"/>
       <c r="AC21" s="7" t="n">
-        <v>4064.87</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <v>563.88</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="4" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="AI21" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ21" s="8" t="inlineStr"/>
@@ -7768,13 +7768,13 @@
       <c r="AA22" s="7" t="inlineStr"/>
       <c r="AB22" s="7" t="inlineStr"/>
       <c r="AC22" s="7" t="n">
-        <v>4064.87</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE22" s="7" t="n">
-        <v>563.88</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="4" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="AI22" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ22" s="8" t="inlineStr"/>
@@ -7984,13 +7984,13 @@
       <c r="AA23" s="7" t="inlineStr"/>
       <c r="AB23" s="7" t="inlineStr"/>
       <c r="AC23" s="7" t="n">
-        <v>4064.87</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE23" s="7" t="n">
-        <v>563.88</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="4" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ23" s="8" t="inlineStr"/>
@@ -8200,13 +8200,13 @@
       <c r="AA24" s="7" t="inlineStr"/>
       <c r="AB24" s="7" t="inlineStr"/>
       <c r="AC24" s="7" t="n">
-        <v>3878.98</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>559.52</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="4" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="AI24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ24" s="8" t="inlineStr">
@@ -8234,12 +8234,12 @@
       </c>
       <c r="AL24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:55</t>
+          <t>2025-11-18 15:02:15</t>
         </is>
       </c>
       <c r="AM24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN24" s="8" t="inlineStr">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AP24" s="4" t="inlineStr">
         <is>
-          <t>a6a173a02a6c6337f1c8489503c66389be52e635fd5f0e2f9e917045a0132196</t>
+          <t>ba75a9953866f2150f3f026e573b0a11af60183d1becf8585b8cf26b87896b9c</t>
         </is>
       </c>
       <c r="AQ24" s="4" t="n">
@@ -8287,12 +8287,12 @@
       </c>
       <c r="AY24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:57</t>
+          <t>2025-11-18 15:02:17</t>
         </is>
       </c>
       <c r="AZ24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA24" s="8" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="BC24" s="4" t="inlineStr">
         <is>
-          <t>2f4380a0398c51136ef0a273b2737c9d68b45a87761269085aa843037de55ef6</t>
+          <t>30f4c5c562576c064847ae7d8b26923fc0d9ce7ea9780c781ca4a592d6a3c281</t>
         </is>
       </c>
       <c r="BD24" s="4" t="n">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="CL24" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM24" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN24" s="8" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="CP24" s="4" t="inlineStr">
         <is>
-          <t>10fce2e8e394645a7ded00468d5a78cbfa880f20709d92c9f8cec51334b0ac17</t>
+          <t>9ca18fc28b8aabc4b612ef1fb8f3d02cf6fcf6681dcf5f2ac6e6f618a6162782</t>
         </is>
       </c>
       <c r="CQ24" s="4" t="n">
@@ -8616,13 +8616,13 @@
       <c r="AA25" s="7" t="inlineStr"/>
       <c r="AB25" s="7" t="inlineStr"/>
       <c r="AC25" s="7" t="n">
-        <v>5414.2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE25" s="7" t="n">
-        <v>1086.81</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="4" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ25" s="8" t="inlineStr">
@@ -8699,12 +8699,12 @@
       </c>
       <c r="AY25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:01</t>
+          <t>2025-11-18 15:02:24</t>
         </is>
       </c>
       <c r="AZ25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA25" s="8" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="BC25" s="4" t="inlineStr">
         <is>
-          <t>68100420851bb7d12c30b8ca2c20c760efe68b7d84d4c30195fe0828a285b4f9</t>
+          <t>b66c4f5503bb2cfce61480fd4d28fb0dbb09a873b82c0abd73be4b885a755089</t>
         </is>
       </c>
       <c r="BD25" s="4" t="n">
@@ -8752,12 +8752,12 @@
       </c>
       <c r="BL25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:03</t>
+          <t>2025-11-18 15:02:25</t>
         </is>
       </c>
       <c r="BM25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BN25" s="8" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="BP25" s="4" t="inlineStr">
         <is>
-          <t>952ddb306909ff439c8b7c511fe1207dd10286ae748af08e7097bb21458fec22</t>
+          <t>f36b21df467ae81a5002d9080590028e8cc8b8d4494c8789e5fdba8c3e25c269</t>
         </is>
       </c>
       <c r="BQ25" s="4" t="n">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="CY25" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CZ25" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="DA25" s="8" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="DC25" s="4" t="inlineStr">
         <is>
-          <t>ab33c298f57bf22c280698d4e6d822a31d03db0f6e4c175b7e67c35026f930b5</t>
+          <t>fe417e481bfce62c4b9b5c40c9e76f54b88e3fbbe75aa9fa67a247f5a3299c51</t>
         </is>
       </c>
       <c r="DD25" s="4" t="n">
@@ -9068,13 +9068,13 @@
       <c r="AA26" s="7" t="inlineStr"/>
       <c r="AB26" s="7" t="inlineStr"/>
       <c r="AC26" s="7" t="n">
-        <v>3623.35</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE26" s="7" t="n">
-        <v>499.26</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="4" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="AI26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ26" s="8" t="inlineStr">
@@ -9102,12 +9102,12 @@
       </c>
       <c r="AL26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:23</t>
+          <t>2025-11-18 15:02:53</t>
         </is>
       </c>
       <c r="AM26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AN26" s="8" t="inlineStr">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="AP26" s="4" t="inlineStr">
         <is>
-          <t>71e2a589b6e20acc1ee68019f5d240d25f33566092f407f8c7b43df487b3eb49</t>
+          <t>f027b891be5684b1c7ea0dd8aea088dd3510e06dacff497ac515de24993ddca4</t>
         </is>
       </c>
       <c r="AQ26" s="4" t="n">
@@ -9155,12 +9155,12 @@
       </c>
       <c r="AY26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:25</t>
+          <t>2025-11-18 15:02:56</t>
         </is>
       </c>
       <c r="AZ26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA26" s="8" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="BC26" s="4" t="inlineStr">
         <is>
-          <t>de04d244ee23dec9952b0adb558c7985f69afe44515412a8d11ca4c65a6c7d18</t>
+          <t>ad20a65ad85d3a7c1f7e00e68755ea1e6e0e959a7a55f6215602246de8cd3d4c</t>
         </is>
       </c>
       <c r="BD26" s="4" t="n">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="CL26" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CM26" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN26" s="8" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="CP26" s="4" t="inlineStr">
         <is>
-          <t>ec9014bd39989bbe05216deb19ed09e332bf26738fd8b4b408a574a5058fd107</t>
+          <t>7cc5d759ad26b8fee83446650f69f8d63f3a20f37cf1d22c7520f697dd0bf41d</t>
         </is>
       </c>
       <c r="CQ26" s="4" t="n">
@@ -9484,13 +9484,13 @@
       <c r="AA27" s="7" t="inlineStr"/>
       <c r="AB27" s="7" t="inlineStr"/>
       <c r="AC27" s="7" t="n">
-        <v>544.83</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE27" s="7" t="n">
-        <v>209.97</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="4" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
       </c>
       <c r="AI27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="AJ27" s="8" t="inlineStr">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="AY27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:31</t>
+          <t>2025-11-18 15:03:05</t>
         </is>
       </c>
       <c r="AZ27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BA27" s="8" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="BC27" s="4" t="inlineStr">
         <is>
-          <t>7a4dbad891ca6f063126a8c88b6308976604ab95899e285354ff9dfe85448071</t>
+          <t>16acbc083c2da0e2b3980c3022858b15ab9504341694138bcc1645f932b13685</t>
         </is>
       </c>
       <c r="BD27" s="4" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="BL27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:32</t>
+          <t>2025-11-18 15:03:06</t>
         </is>
       </c>
       <c r="BM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="BN27" s="8" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="BP27" s="4" t="inlineStr">
         <is>
-          <t>68724f84959f1df502ddb00343df7fb2a46867b12bb0f86b599c5f1c6421b3d4</t>
+          <t>1ca927bb87106f3a9e340996fab935c18c55e5f593f5709832045f5fc96c0383</t>
         </is>
       </c>
       <c r="BQ27" s="4" t="n">
@@ -9722,12 +9722,12 @@
       </c>
       <c r="CL27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:33</t>
+          <t>2025-11-18 15:03:08</t>
         </is>
       </c>
       <c r="CM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="CN27" s="8" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="CP27" s="4" t="inlineStr">
         <is>
-          <t>69dba6f72f7e252689f5dbf1c188a2bc6803c8ae5ecabb0b20e2f6ad9754c1db</t>
+          <t>e682aa761704f8515e2c77d18ee6550de52b994abb234228d68219ea61d8e187</t>
         </is>
       </c>
       <c r="CQ27" s="4" t="n">
@@ -9775,12 +9775,12 @@
       </c>
       <c r="CY27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:35</t>
+          <t>2025-11-18 15:03:09</t>
         </is>
       </c>
       <c r="CZ27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:38</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="DA27" s="8" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="DC27" s="4" t="inlineStr">
         <is>
-          <t>09dbcb81cec2411ecdacecee68a1213e949c6ed29091d29a4819b924758f696b</t>
+          <t>86e82f04c436d666ea21f1d0813719767fc033c43c27bc7154b032400630225c</t>
         </is>
       </c>
       <c r="DD27" s="4" t="n">
@@ -9934,12 +9934,12 @@
       </c>
       <c r="EL27" s="8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="EM27" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:16</t>
+          <t>2025-11-18 15:01:52</t>
         </is>
       </c>
       <c r="EN27" s="8" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="EP27" s="4" t="inlineStr">
         <is>
-          <t>3950dbbdb6c52bdb086fb170bff34371684e075f9cf7f3554cc9c176123aebaf</t>
+          <t>aea291303e9529a9ed35d12bc50217eed7ff0a8fd7f5eb584f588f2b518f5c6c</t>
         </is>
       </c>
       <c r="EQ27" s="4" t="n">
